--- a/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.6</v>
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -989,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1040,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>81</v>
@@ -1174,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>29</v>
@@ -1237,7 +1237,7 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1801,7 +1801,7 @@
         <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2961,10 +2961,10 @@
         <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>1.53</v>
@@ -3143,10 +3143,10 @@
         <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3659,19 +3659,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
         <v>7.5</v>
@@ -3737,7 +3737,7 @@
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
@@ -3746,7 +3746,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
         <v>81</v>
@@ -3779,13 +3779,13 @@
         <v>3.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX18" t="n">
         <v>41</v>
@@ -3800,7 +3800,7 @@
         <v>151</v>
       </c>
       <c r="BB18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC18" t="n">
         <v>151</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -4584,7 +4584,7 @@
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4641,7 +4641,7 @@
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4659,10 +4659,10 @@
         <v>9</v>
       </c>
       <c r="AK23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL23" t="n">
         <v>17</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>15</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
@@ -4671,7 +4671,7 @@
         <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>26</v>
@@ -4775,10 +4775,10 @@
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
         <v>2.3</v>
@@ -5134,7 +5134,7 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
@@ -5323,10 +5323,10 @@
         <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S27" t="n">
         <v>1.3</v>
@@ -5839,22 +5839,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>1.13</v>
@@ -5863,22 +5863,22 @@
         <v>6</v>
       </c>
       <c r="O30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S30" t="n">
         <v>1.67</v>
       </c>
-      <c r="P30" t="n">
+      <c r="T30" t="n">
         <v>2.1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.08</v>
       </c>
       <c r="U30" t="n">
         <v>2.63</v>
@@ -5887,28 +5887,28 @@
         <v>1.44</v>
       </c>
       <c r="W30" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="n">
         <v>5.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5918,43 +5918,43 @@
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>51</v>
       </c>
       <c r="AL30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
         <v>34</v>
       </c>
       <c r="AQ30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS30" t="n">
         <v>401</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU30" t="n">
         <v>11</v>
@@ -5963,16 +5963,16 @@
         <v>101</v>
       </c>
       <c r="AW30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY30" t="n">
         <v>41</v>
       </c>
       <c r="AZ30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA30" t="n">
         <v>201</v>
@@ -6019,13 +6019,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J31" t="n">
         <v>1.91</v>
@@ -6034,7 +6034,7 @@
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
@@ -6043,16 +6043,16 @@
         <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S31" t="n">
         <v>1.44</v>
@@ -6067,13 +6067,13 @@
         <v>1.44</v>
       </c>
       <c r="W31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X31" t="n">
         <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
         <v>8</v>
@@ -6107,13 +6107,13 @@
         <v>29</v>
       </c>
       <c r="AK31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="n">
         <v>81</v>
       </c>
       <c r="AM31" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN31" t="n">
         <v>3</v>
@@ -6122,7 +6122,7 @@
         <v>6.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
@@ -6152,7 +6152,7 @@
         <v>51</v>
       </c>
       <c r="AZ31" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA31" t="n">
         <v>401</v>
@@ -10134,7 +10134,7 @@
         <v>126</v>
       </c>
       <c r="BD53" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -11261,22 +11261,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>4.33</v>
       </c>
       <c r="I60" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J60" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K60" t="n">
         <v>2.3</v>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
@@ -11303,10 +11303,10 @@
         <v>3</v>
       </c>
       <c r="U60" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W60" t="n">
         <v>6.5</v>
@@ -11318,7 +11318,7 @@
         <v>8.5</v>
       </c>
       <c r="Z60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA60" t="n">
         <v>13</v>
@@ -11330,16 +11330,16 @@
         <v>11</v>
       </c>
       <c r="AD60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF60" t="n">
         <v>67</v>
       </c>
       <c r="AG60" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH60" t="n">
         <v>15</v>
@@ -11348,7 +11348,7 @@
         <v>29</v>
       </c>
       <c r="AJ60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK60" t="n">
         <v>67</v>
@@ -11357,7 +11357,7 @@
         <v>41</v>
       </c>
       <c r="AM60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN60" t="n">
         <v>3.4</v>
@@ -11372,7 +11372,7 @@
         <v>23</v>
       </c>
       <c r="AR60" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS60" t="n">
         <v>151</v>
@@ -11442,7 +11442,7 @@
         <v>8</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I61" t="n">
         <v>1.44</v>
@@ -11451,7 +11451,7 @@
         <v>7.5</v>
       </c>
       <c r="K61" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L61" t="n">
         <v>2</v>
@@ -11460,7 +11460,7 @@
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>1.3</v>
@@ -11472,13 +11472,13 @@
         <v>2.05</v>
       </c>
       <c r="R61" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S61" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T61" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U61" t="n">
         <v>2.2</v>
@@ -11505,7 +11505,7 @@
         <v>67</v>
       </c>
       <c r="AC61" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD61" t="n">
         <v>8</v>
@@ -11553,16 +11553,16 @@
         <v>201</v>
       </c>
       <c r="AS61" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU61" t="n">
         <v>10</v>
       </c>
       <c r="AV61" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW61" t="n">
         <v>3.2</v>
@@ -11647,10 +11647,10 @@
         <v>3.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R62" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S62" t="n">
         <v>1.36</v>
@@ -12151,28 +12151,28 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="H65" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="J65" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K65" t="n">
         <v>2.38</v>
       </c>
       <c r="L65" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
         <v>1.22</v>
@@ -12181,10 +12181,10 @@
         <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R65" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S65" t="n">
         <v>1.33</v>
@@ -12193,22 +12193,22 @@
         <v>3.25</v>
       </c>
       <c r="U65" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V65" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X65" t="n">
         <v>29</v>
       </c>
       <c r="Y65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA65" t="n">
         <v>41</v>
@@ -12217,52 +12217,52 @@
         <v>41</v>
       </c>
       <c r="AC65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF65" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG65" t="n">
         <v>201</v>
       </c>
       <c r="AH65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ65" t="n">
         <v>8.5</v>
       </c>
       <c r="AK65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM65" t="n">
         <v>23</v>
       </c>
       <c r="AN65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO65" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP65" t="n">
         <v>29</v>
       </c>
-      <c r="AP65" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ65" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR65" t="n">
         <v>101</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>126</v>
       </c>
       <c r="AS65" t="n">
         <v>201</v>
@@ -12271,19 +12271,19 @@
         <v>3.25</v>
       </c>
       <c r="AU65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV65" t="n">
         <v>51</v>
       </c>
       <c r="AW65" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ65" t="n">
         <v>23</v>
@@ -12703,16 +12703,16 @@
         <v>1.73</v>
       </c>
       <c r="M68" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O68" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P68" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q68" t="n">
         <v>1.57</v>
@@ -12763,7 +12763,7 @@
         <v>67</v>
       </c>
       <c r="AG68" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH68" t="n">
         <v>7.5</v>
@@ -12863,7 +12863,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>3.25</v>
@@ -12872,7 +12872,7 @@
         <v>3.6</v>
       </c>
       <c r="J69" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K69" t="n">
         <v>2.1</v>
@@ -12881,10 +12881,10 @@
         <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O69" t="n">
         <v>1.33</v>
@@ -12905,10 +12905,10 @@
         <v>2.63</v>
       </c>
       <c r="U69" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V69" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W69" t="n">
         <v>7</v>
@@ -12923,7 +12923,7 @@
         <v>19</v>
       </c>
       <c r="AA69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB69" t="n">
         <v>29</v>
@@ -12932,7 +12932,7 @@
         <v>9</v>
       </c>
       <c r="AD69" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE69" t="n">
         <v>15</v>
@@ -12941,16 +12941,16 @@
         <v>51</v>
       </c>
       <c r="AG69" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI69" t="n">
         <v>17</v>
       </c>
       <c r="AJ69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK69" t="n">
         <v>41</v>
@@ -12992,7 +12992,7 @@
         <v>5.5</v>
       </c>
       <c r="AX69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY69" t="n">
         <v>29</v>
@@ -13591,13 +13591,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H73" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I73" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J73" t="n">
         <v>2.88</v>
@@ -13615,16 +13615,16 @@
         <v>11</v>
       </c>
       <c r="O73" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P73" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R73" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S73" t="n">
         <v>1.4</v>
@@ -13633,22 +13633,22 @@
         <v>2.75</v>
       </c>
       <c r="U73" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V73" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y73" t="n">
         <v>9</v>
       </c>
       <c r="Z73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA73" t="n">
         <v>17</v>
@@ -13663,13 +13663,13 @@
         <v>6.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG73" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH73" t="n">
         <v>10</v>
@@ -15407,22 +15407,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>3.2</v>
       </c>
       <c r="I83" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J83" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K83" t="n">
         <v>2.1</v>
       </c>
       <c r="L83" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M83" t="n">
         <v>1.06</v>
@@ -15443,10 +15443,10 @@
         <v>1.87</v>
       </c>
       <c r="S83" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T83" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="U83" t="n">
         <v>1.65</v>
@@ -15455,19 +15455,19 @@
         <v>2.1</v>
       </c>
       <c r="W83" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X83" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y83" t="n">
         <v>10.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA83" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB83" t="n">
         <v>30</v>
@@ -15482,16 +15482,16 @@
         <v>12.5</v>
       </c>
       <c r="AF83" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG83" t="n">
         <v>350</v>
       </c>
       <c r="AH83" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI83" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ83" t="n">
         <v>8.75</v>
@@ -15500,13 +15500,13 @@
         <v>23</v>
       </c>
       <c r="AL83" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM83" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN83" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO83" t="n">
         <v>16.5</v>
@@ -15518,16 +15518,16 @@
         <v>75</v>
       </c>
       <c r="AR83" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS83" t="n">
         <v>250</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AU83" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV83" t="n">
         <v>55</v>
@@ -15536,16 +15536,16 @@
         <v>4.25</v>
       </c>
       <c r="AX83" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AY83" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ83" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA83" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB83" t="n">
         <v>250</v>
@@ -15585,40 +15585,40 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="J84" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="K84" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L84" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O84" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P84" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R84" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S84" t="n">
         <v>1.42</v>
@@ -15633,28 +15633,28 @@
         <v>1.93</v>
       </c>
       <c r="W84" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X84" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC84" t="n">
         <v>7.3</v>
       </c>
-      <c r="X84" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD84" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE84" t="n">
         <v>14.5</v>
@@ -15666,34 +15666,34 @@
         <v>500</v>
       </c>
       <c r="AH84" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI84" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ84" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK84" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL84" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM84" t="n">
         <v>45</v>
       </c>
       <c r="AN84" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AO84" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP84" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ84" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR84" t="n">
         <v>65</v>
@@ -15711,22 +15711,22 @@
         <v>70</v>
       </c>
       <c r="AW84" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AX84" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY84" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ84" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BA84" t="n">
         <v>175</v>
       </c>
       <c r="BB84" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC84" t="inlineStr"/>
       <c r="BD84" t="inlineStr"/>
@@ -16483,7 +16483,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H89" t="n">
         <v>3.5</v>
@@ -16519,10 +16519,10 @@
         <v>1.57</v>
       </c>
       <c r="S89" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T89" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U89" t="n">
         <v>2.5</v>
@@ -16537,22 +16537,22 @@
         <v>6</v>
       </c>
       <c r="Y89" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z89" t="n">
         <v>10</v>
       </c>
       <c r="AA89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB89" t="n">
         <v>41</v>
       </c>
       <c r="AC89" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE89" t="n">
         <v>23</v>
@@ -16598,7 +16598,7 @@
         <v>251</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU89" t="n">
         <v>11</v>
@@ -17027,7 +17027,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
         <v>3.2</v>
@@ -17036,13 +17036,13 @@
         <v>2.88</v>
       </c>
       <c r="J92" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K92" t="n">
         <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M92" t="n">
         <v>1.08</v>
@@ -17126,7 +17126,7 @@
         <v>41</v>
       </c>
       <c r="AN92" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO92" t="n">
         <v>15</v>
@@ -18115,19 +18115,19 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
         <v>3.5</v>
       </c>
       <c r="I98" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J98" t="n">
         <v>2.75</v>
       </c>
       <c r="K98" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L98" t="n">
         <v>3.75</v>
@@ -18136,7 +18136,7 @@
         <v>1.04</v>
       </c>
       <c r="N98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O98" t="n">
         <v>1.25</v>
@@ -18163,7 +18163,7 @@
         <v>2.1</v>
       </c>
       <c r="W98" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X98" t="n">
         <v>11</v>
@@ -18196,10 +18196,10 @@
         <v>151</v>
       </c>
       <c r="AH98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ98" t="n">
         <v>12</v>
@@ -18247,7 +18247,7 @@
         <v>19</v>
       </c>
       <c r="AY98" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ98" t="n">
         <v>51</v>
@@ -18497,13 +18497,13 @@
         <v>4.33</v>
       </c>
       <c r="M100" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N100" t="n">
         <v>10</v>
       </c>
       <c r="O100" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P100" t="n">
         <v>3.25</v>
@@ -18679,13 +18679,13 @@
         <v>4</v>
       </c>
       <c r="M101" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N101" t="n">
         <v>9</v>
       </c>
       <c r="O101" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -18861,13 +18861,13 @@
         <v>3.75</v>
       </c>
       <c r="M102" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N102" t="n">
         <v>11</v>
       </c>
       <c r="O102" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P102" t="n">
         <v>3.5</v>
@@ -19043,13 +19043,13 @@
         <v>6.5</v>
       </c>
       <c r="M103" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N103" t="n">
         <v>13</v>
       </c>
       <c r="O103" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P103" t="n">
         <v>3.75</v>
@@ -19207,22 +19207,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="H104" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I104" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="J104" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="K104" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L104" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="M104" t="n">
         <v>1.1</v>
@@ -19237,49 +19237,49 @@
         <v>2.32</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R104" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S104" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T104" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U104" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="V104" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W104" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X104" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y104" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AA104" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB104" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC104" t="n">
         <v>6.6</v>
       </c>
       <c r="AD104" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE104" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF104" t="n">
         <v>150</v>
@@ -19289,40 +19289,40 @@
         <v>5.1</v>
       </c>
       <c r="AI104" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AJ104" t="n">
         <v>9</v>
       </c>
       <c r="AK104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL104" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AM104" t="n">
         <v>45</v>
       </c>
       <c r="AN104" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AO104" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AP104" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ104" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AR104" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS104" t="n">
         <v>450</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="AU104" t="n">
         <v>8.5</v>
@@ -19331,22 +19331,22 @@
         <v>110</v>
       </c>
       <c r="AW104" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AX104" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AY104" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ104" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BA104" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB104" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC104" t="n">
         <v>81</v>
@@ -19405,10 +19405,10 @@
         <v>6.1</v>
       </c>
       <c r="M105" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N105" t="n">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="O105" t="n">
         <v>1.47</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -1132,7 +1132,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
         <v>1.1</v>
@@ -1141,10 +1141,10 @@
         <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.18</v>
@@ -1258,7 +1258,7 @@
         <v>301</v>
       </c>
       <c r="BD4" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1801,7 +1801,7 @@
         <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -2394,7 +2394,7 @@
         <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
         <v>2.3</v>
@@ -2403,10 +2403,10 @@
         <v>2.38</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2427,10 +2427,10 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
         <v>13</v>
@@ -2463,7 +2463,7 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
         <v>8.5</v>
@@ -2481,7 +2481,7 @@
         <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
         <v>6</v>
@@ -2517,7 +2517,7 @@
         <v>9.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2526,7 +2526,7 @@
         <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
         <v>501</v>
@@ -2585,10 +2585,10 @@
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O12" t="n">
         <v>1.13</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -2758,7 +2758,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.4</v>
@@ -2767,10 +2767,10 @@
         <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -2797,7 +2797,7 @@
         <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2812,7 +2812,7 @@
         <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
         <v>19</v>
@@ -2937,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
@@ -3063,7 +3063,7 @@
         <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ14" t="n">
         <v>67</v>
@@ -3477,16 +3477,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -3519,10 +3519,10 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
         <v>10</v>
@@ -3549,19 +3549,19 @@
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
@@ -3573,13 +3573,13 @@
         <v>17</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
         <v>26</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -4104,10 +4104,10 @@
         <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>13</v>
@@ -4155,7 +4155,7 @@
         <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
         <v>67</v>
@@ -4396,10 +4396,10 @@
         <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
         <v>12</v>
@@ -4429,10 +4429,10 @@
         <v>4.33</v>
       </c>
       <c r="U22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W22" t="n">
         <v>10</v>
@@ -4453,7 +4453,7 @@
         <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
         <v>17</v>
@@ -4465,7 +4465,7 @@
         <v>81</v>
       </c>
       <c r="AG22" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH22" t="n">
         <v>34</v>
@@ -4474,16 +4474,16 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="n">
         <v>201</v>
       </c>
       <c r="AL22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM22" t="n">
         <v>81</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>67</v>
       </c>
       <c r="AN22" t="n">
         <v>3.25</v>
@@ -4492,13 +4492,13 @@
         <v>4.75</v>
       </c>
       <c r="AP22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
         <v>10</v>
       </c>
       <c r="AR22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS22" t="n">
         <v>101</v>
@@ -4510,7 +4510,7 @@
         <v>11</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
         <v>15</v>
@@ -4525,7 +4525,7 @@
         <v>351</v>
       </c>
       <c r="BA22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB22" t="n">
         <v>401</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -4599,10 +4599,10 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4620,7 +4620,7 @@
         <v>11</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
@@ -4635,7 +4635,7 @@
         <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
         <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
@@ -4772,7 +4772,7 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -4793,10 +4793,10 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W24" t="n">
         <v>4.75</v>
@@ -4808,7 +4808,7 @@
         <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA24" t="n">
         <v>15</v>
@@ -4836,7 +4836,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK24" t="n">
         <v>126</v>
@@ -4857,7 +4857,7 @@
         <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR24" t="n">
         <v>51</v>
@@ -4949,10 +4949,10 @@
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
@@ -4967,10 +4967,10 @@
         <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T25" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U25" t="n">
         <v>2.05</v>
@@ -4997,7 +4997,7 @@
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
@@ -5021,7 +5021,7 @@
         <v>9.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL25" t="n">
         <v>21</v>
@@ -5048,7 +5048,7 @@
         <v>351</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU25" t="n">
         <v>9</v>
@@ -5258,7 +5258,7 @@
         <v>126</v>
       </c>
       <c r="BD26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
@@ -5302,7 +5302,7 @@
         <v>4.33</v>
       </c>
       <c r="J27" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K27" t="n">
         <v>2.38</v>
@@ -5362,7 +5362,7 @@
         <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE27" t="n">
         <v>13</v>
@@ -5842,10 +5842,10 @@
         <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
@@ -5857,10 +5857,10 @@
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.62</v>
@@ -5887,7 +5887,7 @@
         <v>1.44</v>
       </c>
       <c r="W30" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X30" t="n">
         <v>7</v>
@@ -5908,23 +5908,23 @@
         <v>5.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI30" t="n">
         <v>21</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>51</v>
@@ -5972,7 +5972,7 @@
         <v>41</v>
       </c>
       <c r="AZ30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA30" t="n">
         <v>201</v>
@@ -6049,10 +6049,10 @@
         <v>2.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
         <v>1.44</v>
@@ -6208,7 +6208,7 @@
         <v>4.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
         <v>1.91</v>
@@ -6217,10 +6217,10 @@
         <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.57</v>
@@ -6250,13 +6250,13 @@
         <v>4.75</v>
       </c>
       <c r="X32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y32" t="n">
         <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
         <v>19</v>
@@ -6280,10 +6280,10 @@
         <v>501</v>
       </c>
       <c r="AH32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
         <v>17</v>
@@ -6295,7 +6295,7 @@
         <v>51</v>
       </c>
       <c r="AM32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN32" t="n">
         <v>3.5</v>
@@ -6322,7 +6322,7 @@
         <v>10</v>
       </c>
       <c r="AV32" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW32" t="n">
         <v>6.5</v>
@@ -6396,13 +6396,13 @@
         <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O33" t="n">
         <v>1.25</v>
@@ -6411,10 +6411,10 @@
         <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S33" t="n">
         <v>1.36</v>
@@ -6465,7 +6465,7 @@
         <v>11</v>
       </c>
       <c r="AI33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ33" t="n">
         <v>11</v>
@@ -6563,40 +6563,40 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="H34" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="K34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L34" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
         <v>1.5</v>
@@ -6605,106 +6605,106 @@
         <v>2.27</v>
       </c>
       <c r="U34" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="V34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W34" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA34" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC34" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AD34" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AE34" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG34" t="n">
         <v>101</v>
       </c>
       <c r="AH34" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI34" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11.25</v>
+        <v>14</v>
       </c>
       <c r="AK34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ34" t="n">
         <v>40</v>
       </c>
-      <c r="AL34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>65</v>
-      </c>
       <c r="AR34" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AS34" t="n">
         <v>400</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AU34" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AV34" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="AX34" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY34" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AZ34" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="BA34" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BB34" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC34" t="inlineStr"/>
       <c r="BD34" t="inlineStr"/>
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K36" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L36" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -6967,7 +6967,7 @@
         <v>2.2</v>
       </c>
       <c r="W36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X36" t="n">
         <v>9.5</v>
@@ -6976,10 +6976,10 @@
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB36" t="n">
         <v>21</v>
@@ -6991,7 +6991,7 @@
         <v>8</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
@@ -7003,25 +7003,25 @@
         <v>15</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="n">
         <v>4</v>
       </c>
       <c r="AO36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP36" t="n">
         <v>17</v>
@@ -7048,7 +7048,7 @@
         <v>6.5</v>
       </c>
       <c r="AX36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY36" t="n">
         <v>26</v>
@@ -7647,22 +7647,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J40" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L40" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -7677,10 +7677,10 @@
         <v>4.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
@@ -7698,7 +7698,7 @@
         <v>15</v>
       </c>
       <c r="X40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y40" t="n">
         <v>15</v>
@@ -7710,7 +7710,7 @@
         <v>34</v>
       </c>
       <c r="AB40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC40" t="n">
         <v>13</v>
@@ -7728,7 +7728,7 @@
         <v>201</v>
       </c>
       <c r="AH40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI40" t="n">
         <v>8.5</v>
@@ -7749,7 +7749,7 @@
         <v>6.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP40" t="n">
         <v>29</v>
@@ -7758,7 +7758,7 @@
         <v>81</v>
       </c>
       <c r="AR40" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS40" t="n">
         <v>151</v>
@@ -8453,7 +8453,7 @@
         <v>67</v>
       </c>
       <c r="AG44" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
         <v>9.5</v>
@@ -9109,16 +9109,16 @@
         <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R48" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S48" t="n">
         <v>1.33</v>
@@ -9452,49 +9452,49 @@
         <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J50" t="n">
         <v>7.5</v>
       </c>
       <c r="K50" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L50" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R50" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S50" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T50" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V50" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W50" t="n">
         <v>15</v>
@@ -9515,10 +9515,10 @@
         <v>51</v>
       </c>
       <c r="AC50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE50" t="n">
         <v>23</v>
@@ -9526,24 +9526,26 @@
       <c r="AF50" t="n">
         <v>81</v>
       </c>
-      <c r="AG50" t="inlineStr"/>
+      <c r="AG50" t="n">
+        <v>501</v>
+      </c>
       <c r="AH50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK50" t="n">
         <v>9</v>
       </c>
       <c r="AL50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN50" t="n">
         <v>9</v>
@@ -9555,16 +9557,16 @@
         <v>41</v>
       </c>
       <c r="AQ50" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AR50" t="n">
         <v>201</v>
       </c>
       <c r="AS50" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU50" t="n">
         <v>9.5</v>
@@ -9573,16 +9575,16 @@
         <v>67</v>
       </c>
       <c r="AW50" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AX50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA50" t="n">
         <v>41</v>
@@ -9629,7 +9631,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H51" t="n">
         <v>11</v>
@@ -9641,74 +9643,76 @@
         <v>1.4</v>
       </c>
       <c r="K51" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M51" t="n">
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O51" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="R51" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="S51" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T51" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="U51" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="W51" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y51" t="n">
         <v>12</v>
       </c>
       <c r="Z51" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA51" t="n">
         <v>11</v>
       </c>
       <c r="AB51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC51" t="n">
         <v>34</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>26</v>
       </c>
       <c r="AD51" t="n">
         <v>21</v>
       </c>
       <c r="AE51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF51" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG51" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1250</v>
+      </c>
       <c r="AH51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI51" t="n">
         <v>67</v>
@@ -9717,58 +9721,58 @@
         <v>34</v>
       </c>
       <c r="AK51" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL51" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="n">
         <v>67</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AP51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ51" t="n">
         <v>9</v>
       </c>
       <c r="AR51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS51" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT51" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AU51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW51" t="n">
         <v>15</v>
       </c>
       <c r="AX51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY51" t="n">
         <v>51</v>
       </c>
       <c r="AZ51" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BA51" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BB51" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC51" t="inlineStr"/>
       <c r="BD51" t="inlineStr"/>
@@ -10134,7 +10138,7 @@
         <v>126</v>
       </c>
       <c r="BD53" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54">
@@ -11445,7 +11449,7 @@
         <v>4.1</v>
       </c>
       <c r="I61" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J61" t="n">
         <v>7.5</v>
@@ -11457,10 +11461,10 @@
         <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O61" t="n">
         <v>1.3</v>
@@ -11469,10 +11473,10 @@
         <v>3.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S61" t="n">
         <v>1.4</v>
@@ -11795,13 +11799,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H63" t="n">
         <v>3.7</v>
       </c>
       <c r="I63" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>2.3</v>
@@ -11876,10 +11880,10 @@
         <v>251</v>
       </c>
       <c r="AH63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ63" t="n">
         <v>15</v>
@@ -11897,7 +11901,7 @@
         <v>3.75</v>
       </c>
       <c r="AO63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP63" t="n">
         <v>19</v>
@@ -11927,7 +11931,7 @@
         <v>26</v>
       </c>
       <c r="AY63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ63" t="n">
         <v>81</v>
@@ -12154,7 +12158,7 @@
         <v>4.75</v>
       </c>
       <c r="H65" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I65" t="n">
         <v>1.57</v>
@@ -12163,7 +12167,7 @@
         <v>5</v>
       </c>
       <c r="K65" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L65" t="n">
         <v>2.2</v>
@@ -12181,10 +12185,10 @@
         <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R65" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S65" t="n">
         <v>1.33</v>
@@ -12283,10 +12287,10 @@
         <v>8</v>
       </c>
       <c r="AY65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA65" t="n">
         <v>41</v>
@@ -13433,16 +13437,16 @@
         <v>9</v>
       </c>
       <c r="O72" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P72" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R72" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S72" t="n">
         <v>1.5</v>
@@ -13591,13 +13595,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>3.5</v>
       </c>
       <c r="I73" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J73" t="n">
         <v>2.88</v>
@@ -13609,10 +13613,10 @@
         <v>3.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O73" t="n">
         <v>1.3</v>
@@ -13639,19 +13643,19 @@
         <v>1.95</v>
       </c>
       <c r="W73" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA73" t="n">
         <v>19</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>17</v>
       </c>
       <c r="AB73" t="n">
         <v>26</v>
@@ -13696,13 +13700,13 @@
         <v>12</v>
       </c>
       <c r="AP73" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ73" t="n">
         <v>41</v>
       </c>
       <c r="AR73" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS73" t="n">
         <v>151</v>
@@ -13951,22 +13955,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J75" t="n">
         <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M75" t="n">
         <v>1.08</v>
@@ -13975,10 +13979,10 @@
         <v>8</v>
       </c>
       <c r="O75" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P75" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q75" t="n">
         <v>2.35</v>
@@ -14038,7 +14042,7 @@
         <v>10</v>
       </c>
       <c r="AJ75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK75" t="n">
         <v>21</v>
@@ -14065,7 +14069,7 @@
         <v>101</v>
       </c>
       <c r="AS75" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT75" t="n">
         <v>2.38</v>
@@ -14080,10 +14084,10 @@
         <v>4.33</v>
       </c>
       <c r="AX75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY75" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ75" t="n">
         <v>51</v>
@@ -14133,7 +14137,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H76" t="n">
         <v>7.5</v>
@@ -14345,10 +14349,10 @@
         <v>2.75</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R77" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S77" t="n">
         <v>1.5</v>
@@ -14521,10 +14525,10 @@
         <v>10</v>
       </c>
       <c r="O78" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P78" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q78" t="n">
         <v>2.05</v>
@@ -14861,13 +14865,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J80" t="n">
         <v>2.88</v>
@@ -14876,7 +14880,7 @@
         <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
         <v>1.06</v>
@@ -14912,16 +14916,16 @@
         <v>7.5</v>
       </c>
       <c r="X80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y80" t="n">
         <v>9</v>
       </c>
       <c r="Z80" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB80" t="n">
         <v>29</v>
@@ -14942,10 +14946,10 @@
         <v>251</v>
       </c>
       <c r="AH80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ80" t="n">
         <v>12</v>
@@ -14972,7 +14976,7 @@
         <v>41</v>
       </c>
       <c r="AR80" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS80" t="n">
         <v>151</v>
@@ -15407,148 +15411,148 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="H83" t="n">
         <v>3.2</v>
       </c>
       <c r="I83" t="n">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="J83" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K83" t="n">
         <v>2.1</v>
       </c>
       <c r="L83" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="M83" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="O83" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="P83" t="n">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="R83" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="S83" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T83" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="U83" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="V83" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W83" t="n">
-        <v>10.25</v>
+        <v>7.9</v>
       </c>
       <c r="X83" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z83" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AA83" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB83" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC83" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD83" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE83" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI83" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF83" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AJ83" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AK83" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL83" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AM83" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AN83" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="AO83" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP83" t="n">
         <v>22</v>
       </c>
       <c r="AQ83" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AR83" t="n">
         <v>100</v>
       </c>
       <c r="AS83" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="AU83" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AV83" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW83" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="AX83" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AY83" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ83" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BA83" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB83" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC83" t="inlineStr"/>
       <c r="BD83" t="inlineStr"/>
@@ -15941,34 +15945,34 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H86" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="K86" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L86" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="M86" t="n">
         <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O86" t="n">
         <v>1.25</v>
       </c>
       <c r="P86" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q86" t="n">
         <v>1.75</v>
@@ -15980,7 +15984,7 @@
         <v>1.37</v>
       </c>
       <c r="T86" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U86" t="n">
         <v>1.6</v>
@@ -16001,19 +16005,19 @@
         <v>21</v>
       </c>
       <c r="AA86" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB86" t="n">
         <v>22</v>
       </c>
       <c r="AC86" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD86" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE86" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF86" t="n">
         <v>50</v>
@@ -16022,25 +16026,25 @@
         <v>300</v>
       </c>
       <c r="AH86" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AI86" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ86" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK86" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL86" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM86" t="n">
         <v>30</v>
       </c>
       <c r="AN86" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AO86" t="n">
         <v>11</v>
@@ -16058,25 +16062,25 @@
         <v>200</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU86" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV86" t="n">
         <v>55</v>
       </c>
       <c r="AW86" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AX86" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY86" t="n">
         <v>23</v>
       </c>
       <c r="AZ86" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA86" t="n">
         <v>110</v>
@@ -16684,7 +16688,7 @@
         <v>1.08</v>
       </c>
       <c r="N90" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O90" t="n">
         <v>1.44</v>
@@ -16696,7 +16700,7 @@
         <v>2.35</v>
       </c>
       <c r="R90" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S90" t="n">
         <v>1.53</v>
@@ -17048,7 +17052,7 @@
         <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O92" t="n">
         <v>1.4</v>
@@ -17060,7 +17064,7 @@
         <v>2.35</v>
       </c>
       <c r="R92" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S92" t="n">
         <v>1.53</v>
@@ -17105,7 +17109,7 @@
         <v>67</v>
       </c>
       <c r="AG92" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH92" t="n">
         <v>7.5</v>
@@ -17218,7 +17222,7 @@
         <v>2.9</v>
       </c>
       <c r="J93" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K93" t="n">
         <v>2.38</v>
@@ -17239,7 +17243,7 @@
         <v>5</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R93" t="n">
         <v>2.35</v>
@@ -17257,7 +17261,7 @@
         <v>2.5</v>
       </c>
       <c r="W93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X93" t="n">
         <v>13</v>
@@ -17266,7 +17270,7 @@
         <v>9.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA93" t="n">
         <v>17</v>
@@ -17391,13 +17395,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J94" t="n">
         <v>2.75</v>
@@ -17406,7 +17410,7 @@
         <v>2.25</v>
       </c>
       <c r="L94" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M94" t="n">
         <v>1.04</v>
@@ -17448,10 +17452,10 @@
         <v>9</v>
       </c>
       <c r="Z94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA94" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB94" t="n">
         <v>23</v>
@@ -17755,79 +17759,79 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H96" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I96" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="J96" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="K96" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L96" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="M96" t="n">
         <v>1.06</v>
       </c>
       <c r="N96" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O96" t="n">
         <v>1.29</v>
       </c>
       <c r="P96" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q96" t="n">
         <v>1.87</v>
       </c>
       <c r="R96" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S96" t="n">
         <v>1.42</v>
       </c>
       <c r="T96" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U96" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V96" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W96" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="X96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y96" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA96" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AB96" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC96" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD96" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE96" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF96" t="n">
         <v>65</v>
@@ -17836,64 +17840,64 @@
         <v>500</v>
       </c>
       <c r="AH96" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI96" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ96" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK96" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL96" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM96" t="n">
         <v>26</v>
       </c>
       <c r="AN96" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP96" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ96" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR96" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS96" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU96" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV96" t="n">
         <v>70</v>
       </c>
       <c r="AW96" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AX96" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AY96" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ96" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BA96" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BB96" t="n">
         <v>250</v>
@@ -17933,13 +17937,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H97" t="n">
         <v>3.4</v>
       </c>
       <c r="I97" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J97" t="n">
         <v>3.5</v>
@@ -17948,13 +17952,13 @@
         <v>2.1</v>
       </c>
       <c r="L97" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M97" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O97" t="n">
         <v>1.29</v>
@@ -18038,7 +18042,7 @@
         <v>17</v>
       </c>
       <c r="AP97" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ97" t="n">
         <v>51</v>
@@ -18482,7 +18486,7 @@
         <v>1.95</v>
       </c>
       <c r="H100" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I100" t="n">
         <v>3.4</v>
@@ -18500,19 +18504,19 @@
         <v>1.06</v>
       </c>
       <c r="N100" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P100" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R100" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S100" t="n">
         <v>1.44</v>
@@ -18563,7 +18567,7 @@
         <v>10</v>
       </c>
       <c r="AI100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ100" t="n">
         <v>13</v>
@@ -18584,7 +18588,7 @@
         <v>11</v>
       </c>
       <c r="AP100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ100" t="n">
         <v>41</v>
@@ -19207,22 +19211,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="H104" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I104" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J104" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="K104" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L104" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="M104" t="n">
         <v>1.1</v>
@@ -19231,37 +19235,37 @@
         <v>6.95</v>
       </c>
       <c r="O104" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="P104" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="R104" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T104" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V104" t="n">
         <v>1.52</v>
       </c>
-      <c r="T104" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U104" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V104" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X104" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y104" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z104" t="n">
         <v>75</v>
@@ -19270,41 +19274,41 @@
         <v>55</v>
       </c>
       <c r="AB104" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AC104" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD104" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE104" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF104" t="n">
         <v>150</v>
       </c>
       <c r="AG104" t="inlineStr"/>
       <c r="AH104" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AI104" t="n">
         <v>7.3</v>
       </c>
       <c r="AJ104" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK104" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL104" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AM104" t="n">
         <v>45</v>
       </c>
       <c r="AN104" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO104" t="n">
         <v>27</v>
@@ -19316,16 +19320,16 @@
         <v>175</v>
       </c>
       <c r="AR104" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS104" t="n">
         <v>450</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AU104" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV104" t="n">
         <v>110</v>
@@ -19337,7 +19341,7 @@
         <v>9.75</v>
       </c>
       <c r="AY104" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ104" t="n">
         <v>40</v>
@@ -19754,73 +19758,73 @@
         <v>1.62</v>
       </c>
       <c r="H107" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I107" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="J107" t="n">
         <v>2.07</v>
       </c>
       <c r="K107" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L107" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="M107" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N107" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O107" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P107" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R107" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="S107" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T107" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="U107" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V107" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="W107" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="X107" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y107" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z107" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA107" t="n">
         <v>11.25</v>
       </c>
       <c r="AB107" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC107" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD107" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE107" t="n">
         <v>12.5</v>
@@ -19829,10 +19833,10 @@
         <v>37</v>
       </c>
       <c r="AG107" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI107" t="n">
         <v>32</v>
@@ -19841,22 +19845,22 @@
         <v>14.5</v>
       </c>
       <c r="AK107" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL107" t="n">
         <v>35</v>
       </c>
       <c r="AM107" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN107" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="AO107" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AP107" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ107" t="n">
         <v>21</v>
@@ -19865,19 +19869,19 @@
         <v>35</v>
       </c>
       <c r="AS107" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT107" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AU107" t="n">
         <v>6.6</v>
       </c>
       <c r="AV107" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW107" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AX107" t="n">
         <v>22</v>
@@ -19892,7 +19896,7 @@
         <v>100</v>
       </c>
       <c r="BB107" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC107" t="n">
         <v>500</v>
@@ -19931,22 +19935,22 @@
         </is>
       </c>
       <c r="G108" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J108" t="n">
         <v>3.8</v>
       </c>
-      <c r="H108" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J108" t="n">
-        <v>4.05</v>
-      </c>
       <c r="K108" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L108" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M108" t="n">
         <v>1.04</v>
@@ -19955,121 +19959,121 @@
         <v>8.5</v>
       </c>
       <c r="O108" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P108" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R108" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S108" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T108" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="U108" t="n">
         <v>1.57</v>
       </c>
       <c r="V108" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W108" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X108" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y108" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z108" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA108" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB108" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC108" t="n">
         <v>8.5</v>
       </c>
       <c r="AD108" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AE108" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF108" t="n">
         <v>45</v>
       </c>
       <c r="AG108" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH108" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI108" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AJ108" t="n">
         <v>8.25</v>
       </c>
       <c r="AK108" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL108" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM108" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN108" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AO108" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AP108" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ108" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR108" t="n">
         <v>100</v>
-      </c>
-      <c r="AR108" t="n">
-        <v>110</v>
       </c>
       <c r="AS108" t="n">
         <v>250</v>
       </c>
       <c r="AT108" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU108" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV108" t="n">
         <v>50</v>
       </c>
       <c r="AW108" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AX108" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AY108" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ108" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BA108" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB108" t="n">
         <v>175</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
@@ -953,10 +953,10 @@
         <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>26</v>
       </c>
       <c r="O4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="n">
         <v>1.3</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1860,7 +1860,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1905,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1950,7 +1950,7 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
         <v>13</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
         <v>2.2</v>
@@ -2036,7 +2036,7 @@
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2045,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2072,19 +2072,19 @@
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -2105,7 +2105,7 @@
         <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>17</v>
@@ -2403,10 +2403,10 @@
         <v>2.38</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2585,10 +2585,10 @@
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O12" t="n">
         <v>1.13</v>
@@ -3063,7 +3063,7 @@
         <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
         <v>67</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -3167,10 +3167,10 @@
         <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
         <v>23</v>
@@ -3200,10 +3200,10 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -3239,7 +3239,7 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3492,7 +3492,7 @@
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="K18" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L18" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3683,10 +3683,10 @@
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
         <v>1.73</v>
@@ -3701,22 +3701,22 @@
         <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
         <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA18" t="n">
         <v>12</v>
@@ -3725,28 +3725,28 @@
         <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
         <v>351</v>
       </c>
       <c r="AH18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>21</v>
       </c>
       <c r="AK18" t="n">
         <v>81</v>
@@ -3758,16 +3758,16 @@
         <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -3785,10 +3785,10 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
@@ -4214,7 +4214,7 @@
         <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K21" t="n">
         <v>2.4</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.5</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
         <v>4</v>
@@ -4584,7 +4584,7 @@
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4599,10 +4599,10 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4620,10 +4620,10 @@
         <v>11</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
         <v>41</v>
@@ -4635,7 +4635,7 @@
         <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4653,16 +4653,16 @@
         <v>8</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
@@ -4671,10 +4671,10 @@
         <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>67</v>
@@ -4757,13 +4757,13 @@
         <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.95</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
         <v>9.5</v>
@@ -4772,19 +4772,19 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -4799,13 +4799,13 @@
         <v>1.44</v>
       </c>
       <c r="W24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X24" t="n">
         <v>5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
         <v>8</v>
@@ -4817,10 +4817,10 @@
         <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE24" t="n">
         <v>34</v>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI24" t="n">
         <v>41</v>
@@ -4863,7 +4863,7 @@
         <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT24" t="n">
         <v>2.5</v>
@@ -4887,7 +4887,7 @@
         <v>301</v>
       </c>
       <c r="BA24" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BB24" t="n">
         <v>126</v>
@@ -5258,7 +5258,7 @@
         <v>126</v>
       </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -5517,10 +5517,10 @@
         <v>4.5</v>
       </c>
       <c r="U28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W28" t="n">
         <v>11</v>
@@ -5547,7 +5547,7 @@
         <v>15</v>
       </c>
       <c r="AE28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF28" t="n">
         <v>67</v>
@@ -5568,7 +5568,7 @@
         <v>301</v>
       </c>
       <c r="AL28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM28" t="n">
         <v>81</v>
@@ -5657,22 +5657,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
@@ -5708,13 +5708,13 @@
         <v>5.5</v>
       </c>
       <c r="X29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y29" t="n">
         <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA29" t="n">
         <v>21</v>
@@ -5744,19 +5744,19 @@
         <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>41</v>
       </c>
       <c r="AL29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO29" t="n">
         <v>12</v>
@@ -5777,7 +5777,7 @@
         <v>2.25</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV29" t="n">
         <v>81</v>
@@ -5786,19 +5786,19 @@
         <v>5.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
         <v>41</v>
       </c>
       <c r="AZ29" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB29" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC29" t="n">
         <v>126</v>
@@ -6022,25 +6022,25 @@
         <v>1.36</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K31" t="n">
         <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -6049,16 +6049,16 @@
         <v>2.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S31" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T31" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U31" t="n">
         <v>2.63</v>
@@ -6131,10 +6131,10 @@
         <v>51</v>
       </c>
       <c r="AS31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU31" t="n">
         <v>12</v>
@@ -6199,13 +6199,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J32" t="n">
         <v>2.6</v>
@@ -6217,10 +6217,10 @@
         <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O32" t="n">
         <v>1.57</v>
@@ -6259,19 +6259,19 @@
         <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB32" t="n">
         <v>41</v>
       </c>
       <c r="AC32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD32" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD32" t="n">
-        <v>7</v>
-      </c>
       <c r="AE32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF32" t="n">
         <v>101</v>
@@ -6280,13 +6280,13 @@
         <v>501</v>
       </c>
       <c r="AH32" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="n">
         <v>51</v>
@@ -6295,13 +6295,13 @@
         <v>51</v>
       </c>
       <c r="AM32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN32" t="n">
         <v>3.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP32" t="n">
         <v>29</v>
@@ -6313,7 +6313,7 @@
         <v>81</v>
       </c>
       <c r="AS32" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT32" t="n">
         <v>2.2</v>
@@ -6334,7 +6334,7 @@
         <v>41</v>
       </c>
       <c r="AZ32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA32" t="n">
         <v>201</v>
@@ -6399,10 +6399,10 @@
         <v>3.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
         <v>1.25</v>
@@ -6411,10 +6411,10 @@
         <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
         <v>1.36</v>
@@ -6471,7 +6471,7 @@
         <v>11</v>
       </c>
       <c r="AK33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL33" t="n">
         <v>23</v>
@@ -6480,7 +6480,7 @@
         <v>29</v>
       </c>
       <c r="AN33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO33" t="n">
         <v>12</v>
@@ -6762,7 +6762,7 @@
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -7107,7 +7107,7 @@
         <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J37" t="n">
         <v>2.05</v>
@@ -7665,10 +7665,10 @@
         <v>2.2</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n">
         <v>1.2</v>
@@ -8032,7 +8032,7 @@
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O42" t="n">
         <v>1.17</v>
@@ -8405,10 +8405,10 @@
         <v>2.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
         <v>1.53</v>
@@ -8557,34 +8557,34 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I45" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J45" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="K45" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L45" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P45" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q45" t="n">
         <v>2.15</v>
@@ -8599,37 +8599,37 @@
         <v>2.67</v>
       </c>
       <c r="U45" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W45" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X45" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC45" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AE45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF45" t="n">
         <v>120</v>
@@ -8638,37 +8638,37 @@
         <v>1250</v>
       </c>
       <c r="AH45" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ45" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AK45" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM45" t="n">
         <v>70</v>
       </c>
-      <c r="AM45" t="n">
-        <v>75</v>
-      </c>
       <c r="AN45" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP45" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AR45" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS45" t="n">
         <v>250</v>
@@ -8677,22 +8677,22 @@
         <v>2.67</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AV45" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW45" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AX45" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AY45" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ45" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA45" t="n">
         <v>250</v>
@@ -9709,7 +9709,7 @@
         <v>81</v>
       </c>
       <c r="AG51" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH51" t="n">
         <v>41</v>
@@ -10138,7 +10138,7 @@
         <v>126</v>
       </c>
       <c r="BD53" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -10364,7 +10364,7 @@
         <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K55" t="n">
         <v>2.4</v>
@@ -10406,7 +10406,7 @@
         <v>9.5</v>
       </c>
       <c r="X55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y55" t="n">
         <v>8.5</v>
@@ -10433,7 +10433,7 @@
         <v>41</v>
       </c>
       <c r="AG55" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH55" t="n">
         <v>19</v>
@@ -10481,7 +10481,7 @@
         <v>41</v>
       </c>
       <c r="AW55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX55" t="n">
         <v>23</v>
@@ -10931,10 +10931,10 @@
         <v>4.33</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R58" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S58" t="n">
         <v>1.3</v>
@@ -11289,16 +11289,16 @@
         <v>11</v>
       </c>
       <c r="O60" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R60" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S60" t="n">
         <v>1.36</v>
@@ -11446,25 +11446,25 @@
         <v>8</v>
       </c>
       <c r="H61" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J61" t="n">
         <v>7.5</v>
       </c>
       <c r="K61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>1.3</v>
@@ -11473,10 +11473,10 @@
         <v>3.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S61" t="n">
         <v>1.4</v>
@@ -11500,10 +11500,10 @@
         <v>23</v>
       </c>
       <c r="Z61" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB61" t="n">
         <v>67</v>
@@ -11530,10 +11530,10 @@
         <v>6</v>
       </c>
       <c r="AJ61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK61" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL61" t="n">
         <v>13</v>
@@ -11551,7 +11551,7 @@
         <v>41</v>
       </c>
       <c r="AQ61" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AR61" t="n">
         <v>201</v>
@@ -11563,22 +11563,22 @@
         <v>2.75</v>
       </c>
       <c r="AU61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV61" t="n">
         <v>67</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AX61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY61" t="n">
         <v>21</v>
       </c>
       <c r="AZ61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA61" t="n">
         <v>51</v>
@@ -11624,25 +11624,25 @@
         <v>6.5</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I62" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K62" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L62" t="n">
         <v>2.1</v>
       </c>
       <c r="M62" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O62" t="n">
         <v>1.25</v>
@@ -11651,10 +11651,10 @@
         <v>3.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R62" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S62" t="n">
         <v>1.36</v>
@@ -11669,13 +11669,13 @@
         <v>1.8</v>
       </c>
       <c r="W62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X62" t="n">
         <v>34</v>
       </c>
       <c r="Y62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z62" t="n">
         <v>67</v>
@@ -11687,13 +11687,13 @@
         <v>51</v>
       </c>
       <c r="AC62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD62" t="n">
         <v>7.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF62" t="n">
         <v>51</v>
@@ -11702,7 +11702,7 @@
         <v>351</v>
       </c>
       <c r="AH62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI62" t="n">
         <v>7</v>
@@ -11711,7 +11711,7 @@
         <v>8.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL62" t="n">
         <v>13</v>
@@ -11759,7 +11759,7 @@
         <v>23</v>
       </c>
       <c r="BA62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB62" t="n">
         <v>151</v>
@@ -11880,7 +11880,7 @@
         <v>251</v>
       </c>
       <c r="AH63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI63" t="n">
         <v>26</v>
@@ -11986,19 +11986,19 @@
         <v>1.5</v>
       </c>
       <c r="J64" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K64" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L64" t="n">
         <v>2.05</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O64" t="n">
         <v>1.2</v>
@@ -12034,7 +12034,7 @@
         <v>17</v>
       </c>
       <c r="Z64" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA64" t="n">
         <v>41</v>
@@ -12088,7 +12088,7 @@
         <v>101</v>
       </c>
       <c r="AR64" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS64" t="n">
         <v>201</v>
@@ -12097,7 +12097,7 @@
         <v>3.25</v>
       </c>
       <c r="AU64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV64" t="n">
         <v>51</v>
@@ -12155,16 +12155,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
         <v>1.57</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K65" t="n">
         <v>2.3</v>
@@ -12176,7 +12176,7 @@
         <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O65" t="n">
         <v>1.22</v>
@@ -12203,7 +12203,7 @@
         <v>2</v>
       </c>
       <c r="W65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X65" t="n">
         <v>29</v>
@@ -12221,7 +12221,7 @@
         <v>41</v>
       </c>
       <c r="AC65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD65" t="n">
         <v>7.5</v>
@@ -12281,7 +12281,7 @@
         <v>51</v>
       </c>
       <c r="AW65" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX65" t="n">
         <v>8</v>
@@ -12290,7 +12290,7 @@
         <v>19</v>
       </c>
       <c r="AZ65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA65" t="n">
         <v>41</v>
@@ -12333,148 +12333,148 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="H66" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I66" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J66" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="K66" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L66" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="O66" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P66" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R66" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S66" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T66" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="U66" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V66" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W66" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X66" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y66" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z66" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB66" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC66" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AD66" t="n">
         <v>6.4</v>
       </c>
       <c r="AE66" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG66" t="n">
         <v>800</v>
       </c>
       <c r="AH66" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AI66" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AJ66" t="n">
         <v>8.5</v>
       </c>
       <c r="AK66" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL66" t="n">
         <v>16</v>
       </c>
       <c r="AM66" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP66" t="n">
         <v>32</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>30</v>
       </c>
       <c r="AQ66" t="n">
         <v>150</v>
       </c>
       <c r="AR66" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS66" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU66" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AV66" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW66" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AX66" t="n">
         <v>8.75</v>
       </c>
       <c r="AY66" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ66" t="n">
         <v>32</v>
       </c>
       <c r="BA66" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB66" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC66" t="inlineStr"/>
       <c r="BD66" t="inlineStr"/>
@@ -12698,19 +12698,19 @@
         <v>1.27</v>
       </c>
       <c r="J68" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K68" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L68" t="n">
         <v>1.73</v>
       </c>
       <c r="M68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O68" t="n">
         <v>1.17</v>
@@ -12731,10 +12731,10 @@
         <v>3.5</v>
       </c>
       <c r="U68" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W68" t="n">
         <v>21</v>
@@ -12755,7 +12755,7 @@
         <v>51</v>
       </c>
       <c r="AC68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD68" t="n">
         <v>12</v>
@@ -12767,7 +12767,7 @@
         <v>67</v>
       </c>
       <c r="AG68" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AH68" t="n">
         <v>7.5</v>
@@ -12776,7 +12776,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK68" t="n">
         <v>8</v>
@@ -12785,7 +12785,7 @@
         <v>11</v>
       </c>
       <c r="AM68" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN68" t="n">
         <v>10</v>
@@ -12800,10 +12800,10 @@
         <v>201</v>
       </c>
       <c r="AR68" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS68" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT68" t="n">
         <v>3.5</v>
@@ -12897,10 +12897,10 @@
         <v>3.25</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R69" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S69" t="n">
         <v>1.44</v>
@@ -13231,13 +13231,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
         <v>2.5</v>
@@ -13261,10 +13261,10 @@
         <v>3.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S71" t="n">
         <v>1.4</v>
@@ -13279,10 +13279,10 @@
         <v>1.95</v>
       </c>
       <c r="W71" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y71" t="n">
         <v>8.5</v>
@@ -13300,7 +13300,7 @@
         <v>10</v>
       </c>
       <c r="AD71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -13330,7 +13330,7 @@
         <v>41</v>
       </c>
       <c r="AN71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO71" t="n">
         <v>10</v>
@@ -13360,13 +13360,13 @@
         <v>6</v>
       </c>
       <c r="AX71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY71" t="n">
         <v>29</v>
       </c>
       <c r="AZ71" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA71" t="n">
         <v>101</v>
@@ -13443,10 +13443,10 @@
         <v>3</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R72" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S72" t="n">
         <v>1.5</v>
@@ -13598,7 +13598,7 @@
         <v>2.1</v>
       </c>
       <c r="H73" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I73" t="n">
         <v>3.3</v>
@@ -13613,10 +13613,10 @@
         <v>3.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O73" t="n">
         <v>1.3</v>
@@ -13625,10 +13625,10 @@
         <v>3.4</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R73" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S73" t="n">
         <v>1.4</v>
@@ -13637,10 +13637,10 @@
         <v>2.75</v>
       </c>
       <c r="U73" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V73" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W73" t="n">
         <v>7</v>
@@ -13655,16 +13655,16 @@
         <v>21</v>
       </c>
       <c r="AA73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB73" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD73" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE73" t="n">
         <v>15</v>
@@ -13700,13 +13700,13 @@
         <v>12</v>
       </c>
       <c r="AP73" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ73" t="n">
         <v>41</v>
       </c>
       <c r="AR73" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS73" t="n">
         <v>151</v>
@@ -13777,46 +13777,46 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="I74" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K74" t="n">
         <v>1.91</v>
       </c>
       <c r="L74" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N74" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O74" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R74" t="n">
         <v>1.44</v>
       </c>
-      <c r="P74" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S74" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T74" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U74" t="n">
         <v>2.1</v>
@@ -13825,28 +13825,28 @@
         <v>1.67</v>
       </c>
       <c r="W74" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X74" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z74" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA74" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB74" t="n">
         <v>41</v>
       </c>
       <c r="AC74" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD74" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AE74" t="n">
         <v>17</v>
@@ -13858,64 +13858,64 @@
         <v>301</v>
       </c>
       <c r="AH74" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ74" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO74" t="n">
         <v>15</v>
       </c>
-      <c r="AK74" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>13</v>
-      </c>
       <c r="AP74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ74" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR74" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV74" t="n">
         <v>81</v>
       </c>
-      <c r="AS74" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>67</v>
-      </c>
       <c r="AW74" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY74" t="n">
         <v>34</v>
       </c>
       <c r="AZ74" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA74" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB74" t="n">
         <v>351</v>
@@ -13955,22 +13955,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J75" t="n">
         <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L75" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M75" t="n">
         <v>1.08</v>
@@ -13979,16 +13979,16 @@
         <v>8</v>
       </c>
       <c r="O75" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P75" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R75" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S75" t="n">
         <v>1.53</v>
@@ -13997,13 +13997,13 @@
         <v>2.38</v>
       </c>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V75" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W75" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X75" t="n">
         <v>15</v>
@@ -14027,13 +14027,13 @@
         <v>6</v>
       </c>
       <c r="AE75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF75" t="n">
         <v>67</v>
       </c>
       <c r="AG75" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH75" t="n">
         <v>6.5</v>
@@ -14042,16 +14042,16 @@
         <v>10</v>
       </c>
       <c r="AJ75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL75" t="n">
         <v>21</v>
       </c>
       <c r="AM75" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN75" t="n">
         <v>5</v>
@@ -14069,13 +14069,13 @@
         <v>101</v>
       </c>
       <c r="AS75" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT75" t="n">
         <v>2.38</v>
       </c>
       <c r="AU75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV75" t="n">
         <v>67</v>
@@ -14084,10 +14084,10 @@
         <v>4.33</v>
       </c>
       <c r="AX75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ75" t="n">
         <v>51</v>
@@ -14149,10 +14149,10 @@
         <v>12</v>
       </c>
       <c r="K76" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L76" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M76" t="n">
         <v>1.02</v>
@@ -14173,10 +14173,10 @@
         <v>2.4</v>
       </c>
       <c r="S76" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T76" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U76" t="n">
         <v>2.38</v>
@@ -14218,19 +14218,19 @@
         <v>501</v>
       </c>
       <c r="AH76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI76" t="n">
         <v>6</v>
       </c>
       <c r="AJ76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK76" t="n">
         <v>6.5</v>
       </c>
       <c r="AL76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM76" t="n">
         <v>34</v>
@@ -14254,7 +14254,7 @@
         <v>501</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU76" t="n">
         <v>11</v>
@@ -14325,40 +14325,40 @@
         <v>3.1</v>
       </c>
       <c r="I77" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J77" t="n">
         <v>3.4</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L77" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M77" t="n">
         <v>1.08</v>
       </c>
       <c r="N77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R77" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S77" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T77" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U77" t="n">
         <v>1.95</v>
@@ -14367,13 +14367,13 @@
         <v>1.8</v>
       </c>
       <c r="W77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X77" t="n">
         <v>12</v>
       </c>
       <c r="Y77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z77" t="n">
         <v>26</v>
@@ -14382,22 +14382,22 @@
         <v>23</v>
       </c>
       <c r="AB77" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD77" t="n">
         <v>6</v>
       </c>
       <c r="AE77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF77" t="n">
         <v>51</v>
       </c>
       <c r="AG77" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH77" t="n">
         <v>7.5</v>
@@ -14412,10 +14412,10 @@
         <v>29</v>
       </c>
       <c r="AL77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM77" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN77" t="n">
         <v>4.5</v>
@@ -14436,7 +14436,7 @@
         <v>251</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU77" t="n">
         <v>8.5</v>
@@ -14522,19 +14522,19 @@
         <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P78" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q78" t="n">
         <v>2.05</v>
       </c>
       <c r="R78" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S78" t="n">
         <v>1.44</v>
@@ -14549,7 +14549,7 @@
         <v>1.91</v>
       </c>
       <c r="W78" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X78" t="n">
         <v>11</v>
@@ -14567,7 +14567,7 @@
         <v>29</v>
       </c>
       <c r="AC78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD78" t="n">
         <v>6.5</v>
@@ -14582,7 +14582,7 @@
         <v>251</v>
       </c>
       <c r="AH78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI78" t="n">
         <v>15</v>
@@ -14683,16 +14683,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H79" t="n">
         <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J79" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K79" t="n">
         <v>2.1</v>
@@ -14701,10 +14701,10 @@
         <v>4.5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O79" t="n">
         <v>1.3</v>
@@ -14737,13 +14737,13 @@
         <v>8.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z79" t="n">
         <v>15</v>
       </c>
       <c r="AA79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB79" t="n">
         <v>29</v>
@@ -14755,7 +14755,7 @@
         <v>6.5</v>
       </c>
       <c r="AE79" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF79" t="n">
         <v>51</v>
@@ -14767,10 +14767,10 @@
         <v>11</v>
       </c>
       <c r="AI79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK79" t="n">
         <v>41</v>
@@ -14812,10 +14812,10 @@
         <v>6</v>
       </c>
       <c r="AX79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ79" t="n">
         <v>81</v>
@@ -14883,22 +14883,22 @@
         <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O80" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P80" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R80" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S80" t="n">
         <v>1.4</v>
@@ -15948,145 +15948,145 @@
         <v>2.12</v>
       </c>
       <c r="H86" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I86" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J86" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K86" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L86" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M86" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N86" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W86" t="n">
         <v>7.9</v>
       </c>
-      <c r="O86" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P86" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R86" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S86" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T86" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U86" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V86" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="W86" t="n">
-        <v>9</v>
-      </c>
       <c r="X86" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y86" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z86" t="n">
         <v>21</v>
       </c>
       <c r="AA86" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB86" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC86" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="AD86" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AE86" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG86" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AH86" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AI86" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ86" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK86" t="n">
         <v>40</v>
       </c>
       <c r="AL86" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM86" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN86" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO86" t="n">
         <v>11</v>
       </c>
       <c r="AP86" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ86" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR86" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS86" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.87</v>
+        <v>2.72</v>
       </c>
       <c r="AU86" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AV86" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW86" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AX86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY86" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ86" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA86" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB86" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
@@ -16123,22 +16123,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="H87" t="n">
         <v>3.35</v>
       </c>
       <c r="I87" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="J87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L87" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.2</v>
       </c>
       <c r="M87" t="n">
         <v>1.06</v>
@@ -16150,7 +16150,7 @@
         <v>1.27</v>
       </c>
       <c r="P87" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q87" t="n">
         <v>1.8</v>
@@ -16159,10 +16159,10 @@
         <v>1.93</v>
       </c>
       <c r="S87" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T87" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U87" t="n">
         <v>1.62</v>
@@ -16171,16 +16171,16 @@
         <v>2.15</v>
       </c>
       <c r="W87" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X87" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y87" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z87" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA87" t="n">
         <v>22</v>
@@ -16204,28 +16204,28 @@
         <v>400</v>
       </c>
       <c r="AH87" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI87" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK87" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL87" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM87" t="n">
         <v>29</v>
       </c>
       <c r="AN87" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="AO87" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP87" t="n">
         <v>21</v>
@@ -16240,25 +16240,25 @@
         <v>250</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU87" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW87" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY87" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ87" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA87" t="n">
         <v>90</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H89" t="n">
         <v>3.5</v>
@@ -16502,13 +16502,13 @@
         <v>2.05</v>
       </c>
       <c r="L89" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M89" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O89" t="n">
         <v>1.44</v>
@@ -16541,7 +16541,7 @@
         <v>6</v>
       </c>
       <c r="Y89" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z89" t="n">
         <v>10</v>
@@ -16553,10 +16553,10 @@
         <v>41</v>
       </c>
       <c r="AC89" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD89" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE89" t="n">
         <v>23</v>
@@ -16593,7 +16593,7 @@
         <v>26</v>
       </c>
       <c r="AQ89" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR89" t="n">
         <v>51</v>
@@ -16667,28 +16667,28 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H90" t="n">
         <v>3.3</v>
       </c>
       <c r="I90" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J90" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K90" t="n">
         <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M90" t="n">
         <v>1.08</v>
       </c>
       <c r="N90" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O90" t="n">
         <v>1.44</v>
@@ -16700,7 +16700,7 @@
         <v>2.35</v>
       </c>
       <c r="R90" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S90" t="n">
         <v>1.53</v>
@@ -16724,7 +16724,7 @@
         <v>9.5</v>
       </c>
       <c r="Z90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA90" t="n">
         <v>19</v>
@@ -16766,7 +16766,7 @@
         <v>41</v>
       </c>
       <c r="AN90" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO90" t="n">
         <v>12</v>
@@ -16808,7 +16808,7 @@
         <v>126</v>
       </c>
       <c r="BB90" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC90" t="n">
         <v>81</v>
@@ -16849,7 +16849,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>3.7</v>
@@ -16858,13 +16858,13 @@
         <v>4.75</v>
       </c>
       <c r="J91" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K91" t="n">
         <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M91" t="n">
         <v>1.06</v>
@@ -16873,16 +16873,16 @@
         <v>10</v>
       </c>
       <c r="O91" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P91" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q91" t="n">
         <v>2.05</v>
       </c>
       <c r="R91" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S91" t="n">
         <v>1.44</v>
@@ -16891,10 +16891,10 @@
         <v>2.63</v>
       </c>
       <c r="U91" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V91" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W91" t="n">
         <v>6.5</v>
@@ -16921,7 +16921,7 @@
         <v>7</v>
       </c>
       <c r="AE91" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF91" t="n">
         <v>51</v>
@@ -16972,13 +16972,13 @@
         <v>8.5</v>
       </c>
       <c r="AV91" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW91" t="n">
         <v>6.5</v>
       </c>
       <c r="AX91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY91" t="n">
         <v>34</v>
@@ -16990,7 +16990,7 @@
         <v>126</v>
       </c>
       <c r="BB91" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC91" t="n">
         <v>81</v>
@@ -17064,7 +17064,7 @@
         <v>2.35</v>
       </c>
       <c r="R92" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S92" t="n">
         <v>1.53</v>
@@ -17213,22 +17213,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H93" t="n">
         <v>3.5</v>
       </c>
       <c r="I93" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K93" t="n">
         <v>2.38</v>
       </c>
       <c r="L93" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M93" t="n">
         <v>1.03</v>
@@ -17243,10 +17243,10 @@
         <v>5</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="R93" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S93" t="n">
         <v>1.29</v>
@@ -17273,7 +17273,7 @@
         <v>21</v>
       </c>
       <c r="AA93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB93" t="n">
         <v>21</v>
@@ -17294,16 +17294,16 @@
         <v>101</v>
       </c>
       <c r="AH93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK93" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL93" t="n">
         <v>21</v>
@@ -17312,16 +17312,16 @@
         <v>23</v>
       </c>
       <c r="AN93" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP93" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ93" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR93" t="n">
         <v>51</v>
@@ -17339,7 +17339,7 @@
         <v>41</v>
       </c>
       <c r="AW93" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX93" t="n">
         <v>15</v>
@@ -17348,7 +17348,7 @@
         <v>21</v>
       </c>
       <c r="AZ93" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA93" t="n">
         <v>51</v>
@@ -17395,13 +17395,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H94" t="n">
         <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J94" t="n">
         <v>2.75</v>
@@ -17410,7 +17410,7 @@
         <v>2.25</v>
       </c>
       <c r="L94" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M94" t="n">
         <v>1.04</v>
@@ -17443,19 +17443,19 @@
         <v>2.2</v>
       </c>
       <c r="W94" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
       </c>
       <c r="Z94" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB94" t="n">
         <v>23</v>
@@ -17476,13 +17476,13 @@
         <v>151</v>
       </c>
       <c r="AH94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI94" t="n">
         <v>17</v>
       </c>
       <c r="AJ94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK94" t="n">
         <v>34</v>
@@ -17497,10 +17497,10 @@
         <v>4.33</v>
       </c>
       <c r="AO94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP94" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ94" t="n">
         <v>41</v>
@@ -17521,7 +17521,7 @@
         <v>51</v>
       </c>
       <c r="AW94" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX94" t="n">
         <v>17</v>
@@ -17577,13 +17577,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>3.4</v>
       </c>
       <c r="I95" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J95" t="n">
         <v>2.75</v>
@@ -17625,7 +17625,7 @@
         <v>2.1</v>
       </c>
       <c r="W95" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X95" t="n">
         <v>11</v>
@@ -17634,7 +17634,7 @@
         <v>9</v>
       </c>
       <c r="Z95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA95" t="n">
         <v>17</v>
@@ -17658,7 +17658,7 @@
         <v>151</v>
       </c>
       <c r="AH95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI95" t="n">
         <v>17</v>
@@ -17670,7 +17670,7 @@
         <v>34</v>
       </c>
       <c r="AL95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM95" t="n">
         <v>29</v>
@@ -17679,7 +17679,7 @@
         <v>4.33</v>
       </c>
       <c r="AO95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP95" t="n">
         <v>21</v>
@@ -18665,22 +18665,22 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H101" t="n">
         <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L101" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M101" t="n">
         <v>1.07</v>
@@ -18707,16 +18707,16 @@
         <v>2.5</v>
       </c>
       <c r="U101" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V101" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W101" t="n">
         <v>7</v>
       </c>
       <c r="X101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y101" t="n">
         <v>9.5</v>
@@ -18743,10 +18743,10 @@
         <v>51</v>
       </c>
       <c r="AG101" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH101" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI101" t="n">
         <v>15</v>
@@ -18758,7 +18758,7 @@
         <v>34</v>
       </c>
       <c r="AL101" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM101" t="n">
         <v>41</v>
@@ -18800,10 +18800,10 @@
         <v>29</v>
       </c>
       <c r="AZ101" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA101" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB101" t="n">
         <v>251</v>
@@ -19211,22 +19211,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="H104" t="n">
         <v>3.1</v>
       </c>
       <c r="I104" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J104" t="n">
         <v>4.9</v>
       </c>
       <c r="K104" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L104" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="M104" t="n">
         <v>1.1</v>
@@ -19235,10 +19235,10 @@
         <v>6.95</v>
       </c>
       <c r="O104" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P104" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Q104" t="n">
         <v>2.45</v>
@@ -19250,7 +19250,7 @@
         <v>1.53</v>
       </c>
       <c r="T104" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U104" t="n">
         <v>2.2</v>
@@ -19259,16 +19259,16 @@
         <v>1.52</v>
       </c>
       <c r="W104" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X104" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y104" t="n">
         <v>16</v>
       </c>
       <c r="Z104" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA104" t="n">
         <v>55</v>
@@ -19277,10 +19277,10 @@
         <v>80</v>
       </c>
       <c r="AC104" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD104" t="n">
         <v>6.4</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>6.3</v>
       </c>
       <c r="AE104" t="n">
         <v>22</v>
@@ -19293,13 +19293,13 @@
         <v>5</v>
       </c>
       <c r="AI104" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AJ104" t="n">
         <v>9.25</v>
       </c>
       <c r="AK104" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL104" t="n">
         <v>19.5</v>
@@ -19308,7 +19308,7 @@
         <v>45</v>
       </c>
       <c r="AN104" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO104" t="n">
         <v>27</v>
@@ -19320,16 +19320,16 @@
         <v>175</v>
       </c>
       <c r="AR104" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS104" t="n">
         <v>450</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AU104" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV104" t="n">
         <v>110</v>
@@ -19341,7 +19341,7 @@
         <v>9.75</v>
       </c>
       <c r="AY104" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ104" t="n">
         <v>40</v>
@@ -19391,145 +19391,145 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H105" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I105" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L105" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N105" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W105" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X105" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC105" t="n">
         <v>6</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K105" t="n">
-        <v>2</v>
-      </c>
-      <c r="L105" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="M105" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N105" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P105" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R105" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S105" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T105" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U105" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V105" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W105" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X105" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z105" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA105" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>6.7</v>
       </c>
       <c r="AD105" t="n">
         <v>7</v>
       </c>
       <c r="AE105" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF105" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AG105" t="n">
         <v>900</v>
       </c>
       <c r="AH105" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI105" t="n">
         <v>35</v>
       </c>
       <c r="AJ105" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK105" t="n">
         <v>150</v>
       </c>
       <c r="AL105" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR105" t="n">
         <v>90</v>
       </c>
-      <c r="AM105" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO105" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP105" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ105" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR105" t="n">
-        <v>80</v>
-      </c>
       <c r="AS105" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>150</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA105" t="n">
         <v>450</v>
-      </c>
-      <c r="AT105" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU105" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV105" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW105" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX105" t="n">
-        <v>37</v>
-      </c>
-      <c r="AY105" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ105" t="n">
-        <v>300</v>
-      </c>
-      <c r="BA105" t="n">
-        <v>400</v>
       </c>
       <c r="BB105" t="n">
         <v>500</v>
@@ -19573,142 +19573,142 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H106" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="I106" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="J106" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="K106" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L106" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="M106" t="n">
         <v>1.02</v>
       </c>
       <c r="N106" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O106" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P106" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R106" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S106" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T106" t="n">
         <v>2.57</v>
       </c>
       <c r="U106" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V106" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W106" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="X106" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y106" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z106" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF106" t="n">
         <v>120</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>70</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>110</v>
       </c>
       <c r="AG106" t="n">
         <v>1000</v>
       </c>
       <c r="AH106" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI106" t="n">
         <v>6.2</v>
       </c>
-      <c r="AI106" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AJ106" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL106" t="n">
         <v>12.5</v>
       </c>
       <c r="AM106" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN106" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AO106" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AP106" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ106" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AR106" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AS106" t="n">
         <v>81</v>
       </c>
       <c r="AT106" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU106" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV106" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW106" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AX106" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY106" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ106" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="BA106" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
@@ -789,10 +789,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
@@ -804,13 +804,13 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>13</v>
@@ -849,19 +849,19 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
         <v>3.25</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1523,10 +1523,10 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1556,16 +1556,16 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>17</v>
@@ -1589,7 +1589,7 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3.25</v>
@@ -1604,10 +1604,10 @@
         <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
@@ -1619,7 +1619,7 @@
         <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>4.33</v>
@@ -1708,7 +1708,7 @@
         <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1744,13 +1744,13 @@
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1860,7 +1860,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1905,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.2</v>
@@ -2036,7 +2036,7 @@
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2069,16 +2069,16 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
@@ -2093,7 +2093,7 @@
         <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2162,7 +2162,7 @@
         <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I10" t="n">
         <v>5.75</v>
@@ -2329,7 +2329,7 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
         <v>29</v>
@@ -2767,10 +2767,10 @@
         <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
@@ -3337,10 +3337,10 @@
         <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W16" t="n">
         <v>9</v>
@@ -3352,7 +3352,7 @@
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>13</v>
@@ -3406,7 +3406,7 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
         <v>101</v>
@@ -3492,7 +3492,7 @@
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3507,10 +3507,10 @@
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3668,10 +3668,10 @@
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K18" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L18" t="n">
         <v>6.5</v>
@@ -3689,10 +3689,10 @@
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -4214,7 +4214,7 @@
         <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K21" t="n">
         <v>2.4</v>
@@ -4229,10 +4229,10 @@
         <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
         <v>1.7</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4593,16 +4593,16 @@
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4641,16 +4641,16 @@
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
         <v>201</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI23" t="n">
         <v>9.5</v>
@@ -4704,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA23" t="n">
         <v>51</v>
@@ -4751,28 +4751,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -4787,10 +4787,10 @@
         <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
         <v>2.63</v>
@@ -4802,13 +4802,13 @@
         <v>5</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA24" t="n">
         <v>15</v>
@@ -4820,10 +4820,10 @@
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF24" t="n">
         <v>126</v>
@@ -4836,25 +4836,25 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM24" t="n">
         <v>81</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO24" t="n">
         <v>7</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>21</v>
@@ -4866,10 +4866,10 @@
         <v>251</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>101</v>
@@ -4878,13 +4878,13 @@
         <v>9.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY24" t="n">
         <v>51</v>
       </c>
       <c r="AZ24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA24" t="n">
         <v>351</v>
@@ -4931,13 +4931,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J25" t="n">
         <v>4.33</v>
@@ -5078,7 +5078,7 @@
         <v>126</v>
       </c>
       <c r="BD25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
@@ -5131,10 +5131,10 @@
         <v>8.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.36</v>
@@ -5299,10 +5299,10 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K27" t="n">
         <v>2.38</v>
@@ -5323,10 +5323,10 @@
         <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S27" t="n">
         <v>1.3</v>
@@ -5362,7 +5362,7 @@
         <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>13</v>
@@ -5440,7 +5440,7 @@
         <v>451</v>
       </c>
       <c r="BD27" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
@@ -5863,10 +5863,10 @@
         <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q30" t="n">
         <v>3.1</v>
@@ -6037,10 +6037,10 @@
         <v>9.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
@@ -6223,10 +6223,10 @@
         <v>6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q32" t="n">
         <v>2.7</v>
@@ -6256,10 +6256,10 @@
         <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="n">
         <v>41</v>
@@ -6301,7 +6301,7 @@
         <v>3.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP32" t="n">
         <v>29</v>
@@ -6313,7 +6313,7 @@
         <v>81</v>
       </c>
       <c r="AS32" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT32" t="n">
         <v>2.2</v>
@@ -6334,7 +6334,7 @@
         <v>41</v>
       </c>
       <c r="AZ32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA32" t="n">
         <v>201</v>
@@ -6399,10 +6399,10 @@
         <v>3.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
         <v>1.25</v>
@@ -6563,79 +6563,79 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="K34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L34" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>6.5</v>
+        <v>6.35</v>
       </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P34" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S34" t="n">
         <v>1.5</v>
       </c>
       <c r="T34" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="U34" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V34" t="n">
         <v>1.62</v>
       </c>
       <c r="W34" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X34" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="Y34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB34" t="n">
         <v>40</v>
       </c>
       <c r="AC34" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF34" t="n">
         <v>120</v>
@@ -6644,64 +6644,64 @@
         <v>101</v>
       </c>
       <c r="AH34" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AI34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ34" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL34" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AM34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AO34" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AR34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS34" t="n">
         <v>400</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AU34" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AV34" t="n">
         <v>90</v>
       </c>
       <c r="AW34" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AX34" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY34" t="n">
         <v>32</v>
       </c>
       <c r="AZ34" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA34" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB34" t="n">
         <v>500</v>
@@ -6762,7 +6762,7 @@
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -8011,22 +8011,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H42" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K42" t="n">
         <v>2.5</v>
       </c>
       <c r="L42" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -8059,7 +8059,7 @@
         <v>2</v>
       </c>
       <c r="W42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X42" t="n">
         <v>8</v>
@@ -8068,7 +8068,7 @@
         <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA42" t="n">
         <v>11</v>
@@ -8077,19 +8077,19 @@
         <v>21</v>
       </c>
       <c r="AC42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD42" t="n">
         <v>9</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH42" t="n">
         <v>19</v>
@@ -8119,7 +8119,7 @@
         <v>17</v>
       </c>
       <c r="AQ42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR42" t="n">
         <v>41</v>
@@ -8131,19 +8131,19 @@
         <v>3.5</v>
       </c>
       <c r="AU42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW42" t="n">
         <v>8</v>
       </c>
-      <c r="AV42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AX42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ42" t="n">
         <v>101</v>
@@ -8193,13 +8193,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J43" t="n">
         <v>3.4</v>
@@ -8214,13 +8214,13 @@
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q43" t="n">
         <v>2.1</v>
@@ -8277,10 +8277,10 @@
         <v>8</v>
       </c>
       <c r="AI43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK43" t="n">
         <v>26</v>
@@ -8292,7 +8292,7 @@
         <v>34</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO43" t="n">
         <v>15</v>
@@ -8405,10 +8405,10 @@
         <v>2.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S44" t="n">
         <v>1.53</v>
@@ -8557,34 +8557,34 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="K45" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O45" t="n">
         <v>1.39</v>
       </c>
       <c r="P45" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Q45" t="n">
         <v>2.15</v>
@@ -8599,37 +8599,37 @@
         <v>2.67</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V45" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W45" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X45" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Y45" t="n">
         <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB45" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC45" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD45" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AE45" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF45" t="n">
         <v>120</v>
@@ -8638,34 +8638,34 @@
         <v>1250</v>
       </c>
       <c r="AH45" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AI45" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK45" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP45" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR45" t="n">
         <v>65</v>
@@ -8677,22 +8677,22 @@
         <v>2.67</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AV45" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW45" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AX45" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AY45" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ45" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA45" t="n">
         <v>250</v>
@@ -9109,16 +9109,16 @@
         <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S48" t="n">
         <v>1.33</v>
@@ -9470,7 +9470,7 @@
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
         <v>1.25</v>
@@ -9479,10 +9479,10 @@
         <v>3.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R50" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
         <v>1.36</v>
@@ -9631,7 +9631,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H51" t="n">
         <v>11</v>
@@ -9646,7 +9646,7 @@
         <v>3.4</v>
       </c>
       <c r="L51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M51" t="n">
         <v>1.01</v>
@@ -9661,34 +9661,34 @@
         <v>8</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="S51" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T51" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V51" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W51" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y51" t="n">
         <v>12</v>
       </c>
       <c r="Z51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA51" t="n">
         <v>11</v>
@@ -9697,7 +9697,7 @@
         <v>29</v>
       </c>
       <c r="AC51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD51" t="n">
         <v>21</v>
@@ -9712,28 +9712,28 @@
         <v>1000</v>
       </c>
       <c r="AH51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI51" t="n">
         <v>67</v>
       </c>
       <c r="AJ51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK51" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL51" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM51" t="n">
         <v>67</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO51" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AP51" t="n">
         <v>15</v>
@@ -9742,37 +9742,37 @@
         <v>9</v>
       </c>
       <c r="AR51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS51" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT51" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU51" t="n">
         <v>11</v>
       </c>
       <c r="AV51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW51" t="n">
         <v>15</v>
       </c>
       <c r="AX51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY51" t="n">
         <v>51</v>
       </c>
       <c r="AZ51" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BA51" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB51" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BC51" t="inlineStr"/>
       <c r="BD51" t="inlineStr"/>
@@ -10203,10 +10203,10 @@
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R54" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S54" t="n">
         <v>1.33</v>
@@ -11265,13 +11265,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H60" t="n">
         <v>4.33</v>
       </c>
       <c r="I60" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J60" t="n">
         <v>2.05</v>
@@ -11295,10 +11295,10 @@
         <v>3.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R60" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S60" t="n">
         <v>1.36</v>
@@ -11316,7 +11316,7 @@
         <v>6.5</v>
       </c>
       <c r="X60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y60" t="n">
         <v>8.5</v>
@@ -11349,7 +11349,7 @@
         <v>15</v>
       </c>
       <c r="AI60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ60" t="n">
         <v>19</v>
@@ -11358,7 +11358,7 @@
         <v>67</v>
       </c>
       <c r="AL60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM60" t="n">
         <v>51</v>
@@ -11370,13 +11370,13 @@
         <v>7.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ60" t="n">
         <v>23</v>
       </c>
       <c r="AR60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS60" t="n">
         <v>151</v>
@@ -11388,10 +11388,10 @@
         <v>9</v>
       </c>
       <c r="AV60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX60" t="n">
         <v>34</v>
@@ -11400,7 +11400,7 @@
         <v>41</v>
       </c>
       <c r="AZ60" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA60" t="n">
         <v>151</v>
@@ -11449,7 +11449,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J61" t="n">
         <v>7.5</v>
@@ -11621,28 +11621,28 @@
         </is>
       </c>
       <c r="G62" t="n">
+        <v>7</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J62" t="n">
         <v>6.5</v>
       </c>
-      <c r="H62" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6</v>
-      </c>
       <c r="K62" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L62" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M62" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O62" t="n">
         <v>1.25</v>
@@ -11663,22 +11663,22 @@
         <v>3</v>
       </c>
       <c r="U62" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X62" t="n">
         <v>34</v>
       </c>
       <c r="Y62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="n">
         <v>51</v>
@@ -11711,16 +11711,16 @@
         <v>8.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL62" t="n">
         <v>13</v>
       </c>
       <c r="AM62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO62" t="n">
         <v>34</v>
@@ -11729,7 +11729,7 @@
         <v>41</v>
       </c>
       <c r="AQ62" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR62" t="n">
         <v>151</v>
@@ -11744,7 +11744,7 @@
         <v>9</v>
       </c>
       <c r="AV62" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW62" t="n">
         <v>3.4</v>
@@ -11829,10 +11829,10 @@
         <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S63" t="n">
         <v>1.36</v>
@@ -11980,7 +11980,7 @@
         <v>5.5</v>
       </c>
       <c r="H64" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I64" t="n">
         <v>1.5</v>
@@ -12055,13 +12055,13 @@
         <v>51</v>
       </c>
       <c r="AG64" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH64" t="n">
         <v>8</v>
       </c>
       <c r="AI64" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ64" t="n">
         <v>8.5</v>
@@ -12176,7 +12176,7 @@
         <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
         <v>1.22</v>
@@ -12336,43 +12336,43 @@
         <v>4.55</v>
       </c>
       <c r="H66" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I66" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J66" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="K66" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L66" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M66" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N66" t="n">
         <v>7.2</v>
       </c>
       <c r="O66" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P66" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R66" t="n">
         <v>1.57</v>
       </c>
       <c r="S66" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T66" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U66" t="n">
         <v>1.98</v>
@@ -12399,10 +12399,10 @@
         <v>60</v>
       </c>
       <c r="AC66" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD66" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE66" t="n">
         <v>17.5</v>
@@ -12414,7 +12414,7 @@
         <v>800</v>
       </c>
       <c r="AH66" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI66" t="n">
         <v>7.4</v>
@@ -12423,10 +12423,10 @@
         <v>8.5</v>
       </c>
       <c r="AK66" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL66" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM66" t="n">
         <v>35</v>
@@ -12450,10 +12450,10 @@
         <v>450</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU66" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV66" t="n">
         <v>75</v>
@@ -12462,16 +12462,16 @@
         <v>3.5</v>
       </c>
       <c r="AX66" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AY66" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ66" t="n">
         <v>32</v>
       </c>
       <c r="BA66" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB66" t="n">
         <v>300</v>
@@ -12867,13 +12867,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H69" t="n">
         <v>3.25</v>
       </c>
       <c r="I69" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J69" t="n">
         <v>2.75</v>
@@ -12882,13 +12882,13 @@
         <v>2.1</v>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M69" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O69" t="n">
         <v>1.33</v>
@@ -12918,13 +12918,13 @@
         <v>7</v>
       </c>
       <c r="X69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y69" t="n">
         <v>9</v>
       </c>
       <c r="Z69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA69" t="n">
         <v>17</v>
@@ -12951,7 +12951,7 @@
         <v>10</v>
       </c>
       <c r="AI69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ69" t="n">
         <v>13</v>
@@ -12960,7 +12960,7 @@
         <v>41</v>
       </c>
       <c r="AL69" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM69" t="n">
         <v>41</v>
@@ -12969,7 +12969,7 @@
         <v>4</v>
       </c>
       <c r="AO69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP69" t="n">
         <v>23</v>
@@ -12978,7 +12978,7 @@
         <v>41</v>
       </c>
       <c r="AR69" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS69" t="n">
         <v>151</v>
@@ -13005,7 +13005,7 @@
         <v>67</v>
       </c>
       <c r="BA69" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB69" t="n">
         <v>201</v>
@@ -13049,16 +13049,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H70" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K70" t="n">
         <v>2.05</v>
@@ -13067,10 +13067,10 @@
         <v>2.75</v>
       </c>
       <c r="M70" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O70" t="n">
         <v>1.36</v>
@@ -13079,16 +13079,16 @@
         <v>3</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R70" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S70" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T70" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U70" t="n">
         <v>1.95</v>
@@ -13097,10 +13097,10 @@
         <v>1.8</v>
       </c>
       <c r="W70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y70" t="n">
         <v>13</v>
@@ -13115,7 +13115,7 @@
         <v>41</v>
       </c>
       <c r="AC70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD70" t="n">
         <v>6.5</v>
@@ -13127,7 +13127,7 @@
         <v>51</v>
       </c>
       <c r="AG70" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH70" t="n">
         <v>6.5</v>
@@ -13145,19 +13145,19 @@
         <v>17</v>
       </c>
       <c r="AM70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN70" t="n">
         <v>5.5</v>
       </c>
       <c r="AO70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP70" t="n">
         <v>34</v>
       </c>
       <c r="AQ70" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR70" t="n">
         <v>101</v>
@@ -13166,7 +13166,7 @@
         <v>251</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU70" t="n">
         <v>8.5</v>
@@ -13234,10 +13234,10 @@
         <v>1.9</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J71" t="n">
         <v>2.5</v>
@@ -13249,22 +13249,22 @@
         <v>4.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O71" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R71" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S71" t="n">
         <v>1.4</v>
@@ -13279,7 +13279,7 @@
         <v>1.95</v>
       </c>
       <c r="W71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X71" t="n">
         <v>9</v>
@@ -13330,7 +13330,7 @@
         <v>41</v>
       </c>
       <c r="AN71" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO71" t="n">
         <v>10</v>
@@ -13366,7 +13366,7 @@
         <v>29</v>
       </c>
       <c r="AZ71" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA71" t="n">
         <v>101</v>
@@ -13619,16 +13619,16 @@
         <v>11</v>
       </c>
       <c r="O73" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P73" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R73" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S73" t="n">
         <v>1.4</v>
@@ -14149,16 +14149,16 @@
         <v>12</v>
       </c>
       <c r="K76" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L76" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M76" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O76" t="n">
         <v>1.17</v>
@@ -14173,10 +14173,10 @@
         <v>2.4</v>
       </c>
       <c r="S76" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T76" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U76" t="n">
         <v>2.38</v>
@@ -14185,7 +14185,7 @@
         <v>1.53</v>
       </c>
       <c r="W76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X76" t="n">
         <v>51</v>
@@ -14203,10 +14203,10 @@
         <v>81</v>
       </c>
       <c r="AC76" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD76" t="n">
         <v>15</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>13</v>
       </c>
       <c r="AE76" t="n">
         <v>34</v>
@@ -14218,13 +14218,13 @@
         <v>501</v>
       </c>
       <c r="AH76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI76" t="n">
         <v>6</v>
       </c>
       <c r="AJ76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK76" t="n">
         <v>6.5</v>
@@ -14254,7 +14254,7 @@
         <v>501</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU76" t="n">
         <v>11</v>
@@ -14534,7 +14534,7 @@
         <v>2.05</v>
       </c>
       <c r="R78" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S78" t="n">
         <v>1.44</v>
@@ -14549,7 +14549,7 @@
         <v>1.91</v>
       </c>
       <c r="W78" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X78" t="n">
         <v>11</v>
@@ -14570,7 +14570,7 @@
         <v>9.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE78" t="n">
         <v>15</v>
@@ -14889,16 +14889,16 @@
         <v>11</v>
       </c>
       <c r="O80" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P80" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R80" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S80" t="n">
         <v>1.4</v>
@@ -15077,10 +15077,10 @@
         <v>3.25</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R81" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S81" t="n">
         <v>1.44</v>
@@ -15253,16 +15253,16 @@
         <v>10</v>
       </c>
       <c r="O82" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P82" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R82" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S82" t="n">
         <v>1.4</v>
@@ -15271,13 +15271,13 @@
         <v>2.75</v>
       </c>
       <c r="U82" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V82" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X82" t="n">
         <v>13</v>
@@ -15286,7 +15286,7 @@
         <v>10</v>
       </c>
       <c r="Z82" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA82" t="n">
         <v>21</v>
@@ -15307,7 +15307,7 @@
         <v>51</v>
       </c>
       <c r="AG82" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH82" t="n">
         <v>8.5</v>
@@ -15948,19 +15948,19 @@
         <v>2.12</v>
       </c>
       <c r="H86" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I86" t="n">
         <v>3.15</v>
       </c>
       <c r="J86" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="K86" t="n">
         <v>2.1</v>
       </c>
       <c r="L86" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M86" t="n">
         <v>1.06</v>
@@ -15972,7 +15972,7 @@
         <v>1.3</v>
       </c>
       <c r="P86" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q86" t="n">
         <v>1.88</v>
@@ -15993,10 +15993,10 @@
         <v>2.02</v>
       </c>
       <c r="W86" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X86" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y86" t="n">
         <v>8.75</v>
@@ -16008,7 +16008,7 @@
         <v>17</v>
       </c>
       <c r="AB86" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC86" t="n">
         <v>7.2</v>
@@ -16026,37 +16026,37 @@
         <v>450</v>
       </c>
       <c r="AH86" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI86" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ86" t="n">
         <v>11</v>
       </c>
       <c r="AK86" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL86" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM86" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN86" t="n">
         <v>4.1</v>
       </c>
       <c r="AO86" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP86" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ86" t="n">
         <v>45</v>
       </c>
       <c r="AR86" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS86" t="n">
         <v>250</v>
@@ -16065,19 +16065,19 @@
         <v>2.72</v>
       </c>
       <c r="AU86" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV86" t="n">
         <v>60</v>
       </c>
       <c r="AW86" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX86" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AY86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ86" t="n">
         <v>90</v>
@@ -16305,55 +16305,55 @@
         </is>
       </c>
       <c r="G88" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H88" t="n">
         <v>3.75</v>
       </c>
-      <c r="H88" t="n">
-        <v>3.7</v>
-      </c>
       <c r="I88" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J88" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="K88" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L88" t="n">
         <v>2.45</v>
       </c>
       <c r="M88" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O88" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P88" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R88" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S88" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T88" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="U88" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="V88" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="W88" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X88" t="n">
         <v>22</v>
@@ -16362,88 +16362,88 @@
         <v>13.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA88" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB88" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC88" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD88" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE88" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG88" t="n">
         <v>600</v>
       </c>
       <c r="AH88" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AI88" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ88" t="n">
         <v>9</v>
       </c>
       <c r="AK88" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL88" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN88" t="n">
         <v>5.5</v>
       </c>
       <c r="AO88" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ88" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR88" t="n">
         <v>150</v>
       </c>
       <c r="AS88" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="AU88" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV88" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW88" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX88" t="n">
         <v>9.5</v>
       </c>
       <c r="AY88" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ88" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA88" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB88" t="n">
         <v>250</v>
@@ -16505,10 +16505,10 @@
         <v>7</v>
       </c>
       <c r="M89" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O89" t="n">
         <v>1.44</v>
@@ -16879,10 +16879,10 @@
         <v>3.25</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R91" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S91" t="n">
         <v>1.44</v>
@@ -17598,7 +17598,7 @@
         <v>1.04</v>
       </c>
       <c r="N95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O95" t="n">
         <v>1.25</v>
@@ -17937,13 +17937,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>3.4</v>
       </c>
       <c r="I97" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J97" t="n">
         <v>3.5</v>
@@ -17955,10 +17955,10 @@
         <v>3.1</v>
       </c>
       <c r="M97" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O97" t="n">
         <v>1.29</v>
@@ -18036,10 +18036,10 @@
         <v>29</v>
       </c>
       <c r="AN97" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO97" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP97" t="n">
         <v>23</v>
@@ -18131,7 +18131,7 @@
         <v>2.75</v>
       </c>
       <c r="K98" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L98" t="n">
         <v>3.75</v>
@@ -18167,7 +18167,7 @@
         <v>2.1</v>
       </c>
       <c r="W98" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X98" t="n">
         <v>11</v>
@@ -18188,7 +18188,7 @@
         <v>12</v>
       </c>
       <c r="AD98" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE98" t="n">
         <v>13</v>
@@ -18200,10 +18200,10 @@
         <v>151</v>
       </c>
       <c r="AH98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI98" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ98" t="n">
         <v>12</v>
@@ -18248,7 +18248,7 @@
         <v>5.5</v>
       </c>
       <c r="AX98" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY98" t="n">
         <v>23</v>
@@ -18486,7 +18486,7 @@
         <v>1.95</v>
       </c>
       <c r="H100" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I100" t="n">
         <v>3.4</v>
@@ -18507,16 +18507,16 @@
         <v>9.5</v>
       </c>
       <c r="O100" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P100" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R100" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S100" t="n">
         <v>1.44</v>
@@ -18534,7 +18534,7 @@
         <v>7</v>
       </c>
       <c r="X100" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -18683,10 +18683,10 @@
         <v>3.75</v>
       </c>
       <c r="M101" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
         <v>1.36</v>
@@ -18719,10 +18719,10 @@
         <v>11</v>
       </c>
       <c r="Y101" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z101" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA101" t="n">
         <v>21</v>
@@ -18773,7 +18773,7 @@
         <v>26</v>
       </c>
       <c r="AQ101" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR101" t="n">
         <v>67</v>
@@ -18794,7 +18794,7 @@
         <v>5</v>
       </c>
       <c r="AX101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY101" t="n">
         <v>29</v>
@@ -18862,7 +18862,7 @@
         <v>2.2</v>
       </c>
       <c r="L102" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M102" t="n">
         <v>1.05</v>
@@ -18913,7 +18913,7 @@
         <v>26</v>
       </c>
       <c r="AC102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD102" t="n">
         <v>6.5</v>
@@ -18922,13 +18922,13 @@
         <v>15</v>
       </c>
       <c r="AF102" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG102" t="n">
         <v>201</v>
       </c>
       <c r="AH102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI102" t="n">
         <v>17</v>
@@ -18988,7 +18988,7 @@
         <v>81</v>
       </c>
       <c r="BB102" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC102" t="n">
         <v>126</v>
@@ -19044,13 +19044,13 @@
         <v>2.3</v>
       </c>
       <c r="L103" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M103" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N103" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O103" t="n">
         <v>1.25</v>
@@ -19089,7 +19089,7 @@
         <v>10</v>
       </c>
       <c r="AA103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB103" t="n">
         <v>26</v>
@@ -19107,7 +19107,7 @@
         <v>51</v>
       </c>
       <c r="AG103" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH103" t="n">
         <v>15</v>
@@ -19137,7 +19137,7 @@
         <v>19</v>
       </c>
       <c r="AQ103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR103" t="n">
         <v>41</v>
@@ -19211,22 +19211,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="H104" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="J104" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="K104" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="L104" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="M104" t="n">
         <v>1.1</v>
@@ -19235,13 +19235,13 @@
         <v>6.95</v>
       </c>
       <c r="O104" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P104" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R104" t="n">
         <v>1.42</v>
@@ -19250,56 +19250,56 @@
         <v>1.53</v>
       </c>
       <c r="T104" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U104" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V104" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W104" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X104" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y104" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA104" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB104" t="n">
         <v>80</v>
       </c>
       <c r="AC104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD104" t="n">
         <v>6.2</v>
       </c>
-      <c r="AD104" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AE104" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF104" t="n">
         <v>150</v>
       </c>
       <c r="AG104" t="inlineStr"/>
       <c r="AH104" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AI104" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AJ104" t="n">
         <v>9.25</v>
       </c>
       <c r="AK104" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AL104" t="n">
         <v>19.5</v>
@@ -19308,7 +19308,7 @@
         <v>45</v>
       </c>
       <c r="AN104" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO104" t="n">
         <v>27</v>
@@ -19320,13 +19320,13 @@
         <v>175</v>
       </c>
       <c r="AR104" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS104" t="n">
         <v>450</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AU104" t="n">
         <v>8.5</v>
@@ -19335,10 +19335,10 @@
         <v>110</v>
       </c>
       <c r="AW104" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AX104" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AY104" t="n">
         <v>24</v>
@@ -19394,19 +19394,19 @@
         <v>1.62</v>
       </c>
       <c r="H105" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I105" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J105" t="n">
         <v>2.25</v>
       </c>
       <c r="K105" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L105" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M105" t="n">
         <v>1.12</v>
@@ -19421,19 +19421,19 @@
         <v>2.2</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R105" t="n">
         <v>1.4</v>
       </c>
       <c r="S105" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T105" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="U105" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="V105" t="n">
         <v>1.42</v>
@@ -19457,10 +19457,10 @@
         <v>55</v>
       </c>
       <c r="AC105" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD105" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE105" t="n">
         <v>28</v>
@@ -19475,10 +19475,10 @@
         <v>10.75</v>
       </c>
       <c r="AI105" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ105" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK105" t="n">
         <v>150</v>
@@ -19499,7 +19499,7 @@
         <v>25</v>
       </c>
       <c r="AQ105" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR105" t="n">
         <v>90</v>
@@ -19517,7 +19517,7 @@
         <v>150</v>
       </c>
       <c r="AW105" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AX105" t="n">
         <v>40</v>
@@ -19582,13 +19582,13 @@
         <v>1.44</v>
       </c>
       <c r="J106" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="K106" t="n">
         <v>2.25</v>
       </c>
       <c r="L106" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="M106" t="n">
         <v>1.02</v>
@@ -19657,7 +19657,7 @@
         <v>6.1</v>
       </c>
       <c r="AI106" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AJ106" t="n">
         <v>8.5</v>
@@ -19690,22 +19690,22 @@
         <v>81</v>
       </c>
       <c r="AT106" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU106" t="n">
         <v>8.75</v>
       </c>
       <c r="AV106" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW106" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AX106" t="n">
         <v>6.5</v>
       </c>
       <c r="AY106" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ106" t="n">
         <v>19.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -777,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -795,7 +795,7 @@
         <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
@@ -819,7 +819,7 @@
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
         <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
         <v>2.88</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1141,10 +1141,10 @@
         <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S4" t="n">
         <v>1.2</v>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1177,7 +1177,7 @@
         <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
         <v>13</v>
@@ -1219,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>29</v>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
@@ -1258,7 +1258,7 @@
         <v>251</v>
       </c>
       <c r="BD4" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1478,19 +1478,19 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1511,7 +1511,7 @@
         <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
         <v>3.25</v>
@@ -1532,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1541,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1657,52 +1657,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
         <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
         <v>7</v>
@@ -1717,10 +1717,10 @@
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
         <v>7.5</v>
@@ -1732,13 +1732,13 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1747,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>26</v>
@@ -1762,7 +1762,7 @@
         <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
@@ -1774,7 +1774,7 @@
         <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
@@ -1783,16 +1783,16 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
@@ -1804,7 +1804,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1845,7 +1845,7 @@
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
@@ -1854,7 +1854,7 @@
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1875,10 +1875,10 @@
         <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1893,7 +1893,7 @@
         <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>34</v>
@@ -1929,7 +1929,7 @@
         <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>19</v>
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
         <v>5.5</v>
@@ -2033,28 +2033,28 @@
         <v>2.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2063,10 +2063,10 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2087,10 +2087,10 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2135,7 +2135,7 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
         <v>2.63</v>
@@ -2162,7 +2162,7 @@
         <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>1.73</v>
@@ -2251,7 +2251,7 @@
         <v>2.25</v>
       </c>
       <c r="W10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
         <v>9.5</v>
@@ -2260,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>10</v>
@@ -2272,7 +2272,7 @@
         <v>26</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2290,13 +2290,13 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
         <v>81</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2329,7 +2329,7 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
         <v>34</v>
@@ -2350,7 +2350,7 @@
         <v>301</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
         <v>4.33</v>
       </c>
       <c r="K11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L11" t="n">
         <v>2.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2415,28 +2415,28 @@
         <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.2</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
         <v>13</v>
@@ -2454,10 +2454,10 @@
         <v>15</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2466,10 +2466,10 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.5</v>
@@ -2502,19 +2502,19 @@
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU11" t="n">
         <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
         <v>17</v>
@@ -2529,10 +2529,10 @@
         <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
@@ -2576,13 +2576,13 @@
         <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K12" t="n">
         <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2615,13 +2615,13 @@
         <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
         <v>8.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
         <v>10</v>
@@ -2630,7 +2630,7 @@
         <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>21</v>
@@ -2648,16 +2648,16 @@
         <v>151</v>
       </c>
       <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>21</v>
       </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>19</v>
-      </c>
       <c r="AK12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="n">
         <v>41</v>
@@ -2714,7 +2714,7 @@
         <v>401</v>
       </c>
       <c r="BD12" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -2931,61 +2931,61 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
         <v>26</v>
@@ -2994,49 +2994,49 @@
         <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>51</v>
@@ -3045,34 +3045,34 @@
         <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
         <v>4.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -3507,10 +3507,10 @@
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R17" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3549,7 +3549,7 @@
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3803,10 +3803,10 @@
         <v>301</v>
       </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>2.63</v>
@@ -3856,7 +3856,7 @@
         <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
         <v>1.36</v>
@@ -3883,19 +3883,19 @@
         <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>19</v>
@@ -3913,7 +3913,7 @@
         <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>41</v>
@@ -3922,25 +3922,25 @@
         <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
         <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>41</v>
       </c>
       <c r="AL19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM19" t="n">
         <v>29</v>
       </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO19" t="n">
         <v>11</v>
@@ -3949,7 +3949,7 @@
         <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
         <v>51</v>
@@ -3973,13 +3973,13 @@
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
         <v>151</v>
@@ -4047,16 +4047,16 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4205,22 +4205,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K21" t="n">
         <v>2.5</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -4229,16 +4229,16 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
         <v>1.3</v>
@@ -4256,13 +4256,13 @@
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
         <v>11</v>
@@ -4274,10 +4274,10 @@
         <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
@@ -4286,16 +4286,16 @@
         <v>301</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL21" t="n">
         <v>51</v>
@@ -4304,16 +4304,16 @@
         <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP21" t="n">
         <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
@@ -4331,7 +4331,7 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
         <v>41</v>
@@ -4390,7 +4390,7 @@
         <v>1.14</v>
       </c>
       <c r="H22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
         <v>15</v>
@@ -4417,16 +4417,16 @@
         <v>6.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R22" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U22" t="n">
         <v>2.1</v>
@@ -4435,13 +4435,13 @@
         <v>1.67</v>
       </c>
       <c r="W22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
         <v>7</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
         <v>7</v>
@@ -4456,7 +4456,7 @@
         <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4477,7 +4477,7 @@
         <v>41</v>
       </c>
       <c r="AK22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL22" t="n">
         <v>101</v>
@@ -4504,7 +4504,7 @@
         <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU22" t="n">
         <v>11</v>
@@ -4513,7 +4513,7 @@
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
         <v>51</v>
@@ -4593,16 +4593,16 @@
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4716,7 +4716,7 @@
         <v>501</v>
       </c>
       <c r="BD23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -4751,46 +4751,46 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S24" t="n">
         <v>1.4</v>
       </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U24" t="n">
         <v>2.5</v>
@@ -4799,28 +4799,28 @@
         <v>1.5</v>
       </c>
       <c r="W24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X24" t="n">
         <v>5.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
         <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4845,28 +4845,28 @@
         <v>67</v>
       </c>
       <c r="AM24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN24" t="n">
         <v>3.1</v>
       </c>
       <c r="AO24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR24" t="n">
         <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU24" t="n">
         <v>11</v>
@@ -4875,10 +4875,10 @@
         <v>81</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY24" t="n">
         <v>51</v>
@@ -4931,22 +4931,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K25" t="n">
         <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
@@ -4961,10 +4961,10 @@
         <v>2.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
         <v>1.57</v>
@@ -4973,10 +4973,10 @@
         <v>2.25</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W25" t="n">
         <v>8.5</v>
@@ -5006,16 +5006,16 @@
         <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG25" t="n">
         <v>501</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ25" t="n">
         <v>9.5</v>
@@ -5045,13 +5045,13 @@
         <v>126</v>
       </c>
       <c r="AS25" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT25" t="n">
         <v>2.25</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
         <v>81</v>
@@ -5072,7 +5072,7 @@
         <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC25" t="n">
         <v>126</v>
@@ -5116,55 +5116,55 @@
         <v>1.38</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.91</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U26" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
@@ -5173,83 +5173,83 @@
         <v>8.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>41</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK26" t="n">
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM26" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO26" t="n">
         <v>6.5</v>
       </c>
       <c r="AP26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>21</v>
       </c>
-      <c r="AQ26" t="n">
-        <v>19</v>
-      </c>
       <c r="AR26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX26" t="n">
         <v>41</v>
       </c>
       <c r="AY26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA26" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BB26" t="n">
         <v>451</v>
@@ -5499,10 +5499,10 @@
         <v>23</v>
       </c>
       <c r="O28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q28" t="n">
         <v>1.33</v>
@@ -5657,22 +5657,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H29" t="n">
         <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K29" t="n">
         <v>1.91</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
@@ -5705,7 +5705,7 @@
         <v>1.57</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X29" t="n">
         <v>7.5</v>
@@ -5714,7 +5714,7 @@
         <v>9.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA29" t="n">
         <v>19</v>
@@ -5723,7 +5723,7 @@
         <v>41</v>
       </c>
       <c r="AC29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD29" t="n">
         <v>6.5</v>
@@ -5756,7 +5756,7 @@
         <v>51</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
@@ -5777,7 +5777,7 @@
         <v>2.25</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV29" t="n">
         <v>81</v>
@@ -5792,13 +5792,13 @@
         <v>41</v>
       </c>
       <c r="AZ29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA29" t="n">
         <v>151</v>
       </c>
       <c r="BB29" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC29" t="n">
         <v>126</v>
@@ -5857,10 +5857,10 @@
         <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.67</v>
@@ -6049,10 +6049,10 @@
         <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S31" t="n">
         <v>1.4</v>
@@ -6199,19 +6199,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J32" t="n">
         <v>2.5</v>
       </c>
       <c r="K32" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
         <v>6</v>
@@ -6223,10 +6223,10 @@
         <v>7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q32" t="n">
         <v>2.5</v>
@@ -6235,10 +6235,10 @@
         <v>1.5</v>
       </c>
       <c r="S32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T32" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U32" t="n">
         <v>2.25</v>
@@ -6247,13 +6247,13 @@
         <v>1.57</v>
       </c>
       <c r="W32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z32" t="n">
         <v>13</v>
@@ -6265,13 +6265,13 @@
         <v>41</v>
       </c>
       <c r="AC32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
         <v>6.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
         <v>81</v>
@@ -6283,16 +6283,16 @@
         <v>10</v>
       </c>
       <c r="AI32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM32" t="n">
         <v>51</v>
@@ -6301,7 +6301,7 @@
         <v>3.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP32" t="n">
         <v>26</v>
@@ -6316,37 +6316,37 @@
         <v>251</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV32" t="n">
         <v>81</v>
       </c>
       <c r="AW32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY32" t="n">
         <v>41</v>
       </c>
       <c r="AZ32" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA32" t="n">
         <v>151</v>
       </c>
-      <c r="BA32" t="n">
-        <v>201</v>
-      </c>
       <c r="BB32" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC32" t="n">
         <v>126</v>
       </c>
       <c r="BD32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -6563,82 +6563,82 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.55</v>
+        <v>4.05</v>
       </c>
       <c r="J34" t="n">
-        <v>2.87</v>
+        <v>2.62</v>
       </c>
       <c r="K34" t="n">
         <v>1.9</v>
       </c>
       <c r="L34" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="O34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R34" t="n">
         <v>1.45</v>
       </c>
-      <c r="P34" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S34" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T34" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U34" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="W34" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="X34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y34" t="n">
         <v>9</v>
       </c>
-      <c r="Y34" t="n">
-        <v>9.25</v>
-      </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA34" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="n">
         <v>40</v>
       </c>
       <c r="AC34" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF34" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AG34" t="n">
         <v>101</v>
@@ -6647,61 +6647,61 @@
         <v>8.25</v>
       </c>
       <c r="AI34" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ34" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AK34" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AL34" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AM34" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AP34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ34" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AR34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS34" t="n">
         <v>400</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AU34" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AV34" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AW34" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AX34" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY34" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AZ34" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BA34" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BB34" t="n">
         <v>450</v>
@@ -6741,29 +6741,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
-        <v>4.55</v>
+        <v>4.15</v>
       </c>
       <c r="I35" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="J35" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="K35" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="L35" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N35" t="n">
-        <v>15</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
         <v>1.23</v>
       </c>
@@ -6771,10 +6767,10 @@
         <v>3.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="R35" t="n">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="S35" t="n">
         <v>1.39</v>
@@ -6786,34 +6782,34 @@
         <v>1.6</v>
       </c>
       <c r="V35" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X35" t="n">
         <v>8.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z35" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC35" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF35" t="n">
         <v>55</v>
@@ -6822,64 +6818,64 @@
         <v>300</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI35" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL35" t="n">
         <v>50</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>60</v>
-      </c>
       <c r="AM35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AN35" t="n">
         <v>3.55</v>
       </c>
       <c r="AO35" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="AP35" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR35" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AS35" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AU35" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV35" t="n">
         <v>50</v>
       </c>
       <c r="AW35" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="AX35" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AY35" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AZ35" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BA35" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB35" t="n">
         <v>300</v>
@@ -6919,10 +6915,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H36" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I36" t="n">
         <v>5.25</v>
@@ -6934,13 +6930,13 @@
         <v>2.4</v>
       </c>
       <c r="L36" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O36" t="n">
         <v>1.18</v>
@@ -6949,10 +6945,10 @@
         <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
         <v>1.3</v>
@@ -6988,7 +6984,7 @@
         <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
@@ -7018,10 +7014,10 @@
         <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP36" t="n">
         <v>17</v>
@@ -7048,13 +7044,13 @@
         <v>7</v>
       </c>
       <c r="AX36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY36" t="n">
         <v>29</v>
       </c>
       <c r="AZ36" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA36" t="n">
         <v>101</v>
@@ -7101,19 +7097,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H37" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L37" t="n">
         <v>6.5</v>
@@ -7131,16 +7127,16 @@
         <v>6</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R37" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S37" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U37" t="n">
         <v>1.67</v>
@@ -7155,13 +7151,13 @@
         <v>8.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z37" t="n">
         <v>10</v>
       </c>
       <c r="AA37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB37" t="n">
         <v>21</v>
@@ -7182,16 +7178,16 @@
         <v>151</v>
       </c>
       <c r="AH37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>21</v>
       </c>
-      <c r="AI37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>19</v>
-      </c>
       <c r="AK37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="n">
         <v>41</v>
@@ -7218,7 +7214,7 @@
         <v>81</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU37" t="n">
         <v>8</v>
@@ -7227,7 +7223,7 @@
         <v>41</v>
       </c>
       <c r="AW37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX37" t="n">
         <v>34</v>
@@ -7236,7 +7232,7 @@
         <v>34</v>
       </c>
       <c r="AZ37" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA37" t="n">
         <v>101</v>
@@ -7289,7 +7285,7 @@
         <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J38" t="n">
         <v>3.6</v>
@@ -7313,10 +7309,10 @@
         <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7349,7 +7345,7 @@
         <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
         <v>6.5</v>
@@ -7379,7 +7375,7 @@
         <v>17</v>
       </c>
       <c r="AM38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN38" t="n">
         <v>5</v>
@@ -7424,13 +7420,13 @@
         <v>51</v>
       </c>
       <c r="BB38" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC38" t="n">
         <v>501</v>
       </c>
       <c r="BD38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -7465,19 +7461,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H39" t="n">
         <v>3.6</v>
       </c>
       <c r="I39" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L39" t="n">
         <v>3.75</v>
@@ -7507,19 +7503,19 @@
         <v>3.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V39" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W39" t="n">
         <v>10</v>
       </c>
       <c r="X39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z39" t="n">
         <v>19</v>
@@ -7540,13 +7536,13 @@
         <v>12</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="n">
         <v>126</v>
       </c>
       <c r="AH39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI39" t="n">
         <v>21</v>
@@ -7558,7 +7554,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM39" t="n">
         <v>29</v>
@@ -7567,7 +7563,7 @@
         <v>4.33</v>
       </c>
       <c r="AO39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP39" t="n">
         <v>17</v>
@@ -7576,7 +7572,7 @@
         <v>34</v>
       </c>
       <c r="AR39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS39" t="n">
         <v>101</v>
@@ -7594,10 +7590,10 @@
         <v>5.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ39" t="n">
         <v>51</v>
@@ -7671,16 +7667,16 @@
         <v>13</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S40" t="n">
         <v>1.33</v>
@@ -7722,7 +7718,7 @@
         <v>15</v>
       </c>
       <c r="AF40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG40" t="n">
         <v>201</v>
@@ -7737,7 +7733,7 @@
         <v>8.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL40" t="n">
         <v>13</v>
@@ -7782,13 +7778,13 @@
         <v>17</v>
       </c>
       <c r="AZ40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA40" t="n">
         <v>41</v>
       </c>
       <c r="BB40" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC40" t="n">
         <v>81</v>
@@ -8193,22 +8189,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K43" t="n">
         <v>2.05</v>
       </c>
       <c r="L43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M43" t="n">
         <v>1.07</v>
@@ -8274,7 +8270,7 @@
         <v>301</v>
       </c>
       <c r="AH43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI43" t="n">
         <v>12</v>
@@ -8286,7 +8282,7 @@
         <v>26</v>
       </c>
       <c r="AL43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
@@ -8295,7 +8291,7 @@
         <v>4.75</v>
       </c>
       <c r="AO43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP43" t="n">
         <v>26</v>
@@ -8557,37 +8553,37 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J45" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K45" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L45" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="M45" t="n">
         <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P45" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="R45" t="n">
         <v>1.7</v>
@@ -8596,40 +8592,40 @@
         <v>1.42</v>
       </c>
       <c r="T45" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U45" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V45" t="n">
         <v>1.7</v>
       </c>
       <c r="W45" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X45" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Y45" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB45" t="n">
         <v>37</v>
       </c>
       <c r="AC45" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF45" t="n">
         <v>120</v>
@@ -8638,58 +8634,58 @@
         <v>1250</v>
       </c>
       <c r="AH45" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ45" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AK45" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL45" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM45" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO45" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AP45" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR45" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS45" t="n">
         <v>250</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV45" t="n">
         <v>80</v>
       </c>
       <c r="AW45" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AX45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY45" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ45" t="n">
         <v>200</v>
@@ -8907,19 +8903,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I47" t="n">
         <v>1.57</v>
       </c>
       <c r="J47" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K47" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L47" t="n">
         <v>2.05</v>
@@ -8928,37 +8924,37 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="R47" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="S47" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="U47" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V47" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="W47" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X47" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y47" t="n">
         <v>17</v>
@@ -8967,52 +8963,52 @@
         <v>100</v>
       </c>
       <c r="AA47" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI47" t="n">
         <v>9.75</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>9.25</v>
       </c>
       <c r="AJ47" t="n">
         <v>8.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL47" t="n">
         <v>12</v>
       </c>
       <c r="AM47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN47" t="n">
         <v>6.9</v>
       </c>
       <c r="AO47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP47" t="n">
         <v>27</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>28</v>
       </c>
       <c r="AQ47" t="n">
         <v>150</v>
@@ -9024,28 +9020,28 @@
         <v>300</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW47" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AX47" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AY47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AZ47" t="n">
         <v>21</v>
       </c>
       <c r="BA47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB47" t="n">
         <v>150</v>
@@ -9085,22 +9081,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H48" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K48" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L48" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -9109,16 +9105,16 @@
         <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R48" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S48" t="n">
         <v>1.3</v>
@@ -9154,7 +9150,7 @@
         <v>15</v>
       </c>
       <c r="AD48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE48" t="n">
         <v>15</v>
@@ -9163,16 +9159,16 @@
         <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI48" t="n">
         <v>29</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK48" t="n">
         <v>51</v>
@@ -9187,7 +9183,7 @@
         <v>3.75</v>
       </c>
       <c r="AO48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP48" t="n">
         <v>17</v>
@@ -9640,7 +9636,7 @@
         <v>15</v>
       </c>
       <c r="J51" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="K51" t="n">
         <v>3.4</v>
@@ -9685,7 +9681,7 @@
         <v>7.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z51" t="n">
         <v>7</v>
@@ -9709,7 +9705,7 @@
         <v>81</v>
       </c>
       <c r="AG51" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH51" t="n">
         <v>34</v>
@@ -9827,10 +9823,10 @@
         <v>3.25</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
         <v>1.33</v>
@@ -9839,10 +9835,10 @@
         <v>3.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S52" t="n">
         <v>1.44</v>
@@ -9869,13 +9865,13 @@
         <v>26</v>
       </c>
       <c r="AA52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB52" t="n">
         <v>34</v>
       </c>
       <c r="AC52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD52" t="n">
         <v>6</v>
@@ -9905,7 +9901,7 @@
         <v>21</v>
       </c>
       <c r="AM52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN52" t="n">
         <v>4.75</v>
@@ -9941,7 +9937,7 @@
         <v>15</v>
       </c>
       <c r="AY52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ52" t="n">
         <v>51</v>
@@ -9950,10 +9946,10 @@
         <v>67</v>
       </c>
       <c r="BB52" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC52" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD52" t="n">
         <v>151</v>
@@ -9991,22 +9987,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H53" t="n">
         <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="J53" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K53" t="n">
         <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M53" t="n">
         <v>1.08</v>
@@ -10021,10 +10017,10 @@
         <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S53" t="n">
         <v>1.5</v>
@@ -10039,10 +10035,10 @@
         <v>1.8</v>
       </c>
       <c r="W53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y53" t="n">
         <v>11</v>
@@ -10051,10 +10047,10 @@
         <v>29</v>
       </c>
       <c r="AA53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC53" t="n">
         <v>8</v>
@@ -10072,19 +10068,19 @@
         <v>351</v>
       </c>
       <c r="AH53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ53" t="n">
         <v>10</v>
       </c>
       <c r="AK53" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL53" t="n">
         <v>23</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>21</v>
       </c>
       <c r="AM53" t="n">
         <v>34</v>
@@ -10105,7 +10101,7 @@
         <v>81</v>
       </c>
       <c r="AS53" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT53" t="n">
         <v>2.5</v>
@@ -10117,7 +10113,7 @@
         <v>67</v>
       </c>
       <c r="AW53" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX53" t="n">
         <v>15</v>
@@ -10173,22 +10169,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J54" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.25</v>
       </c>
       <c r="K54" t="n">
         <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
@@ -10203,10 +10199,10 @@
         <v>4.33</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R54" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S54" t="n">
         <v>1.33</v>
@@ -10224,16 +10220,16 @@
         <v>12</v>
       </c>
       <c r="X54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="n">
         <v>11</v>
       </c>
       <c r="Z54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB54" t="n">
         <v>26</v>
@@ -10245,7 +10241,7 @@
         <v>7</v>
       </c>
       <c r="AE54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF54" t="n">
         <v>41</v>
@@ -10257,34 +10253,34 @@
         <v>10</v>
       </c>
       <c r="AI54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP54" t="n">
         <v>23</v>
       </c>
-      <c r="AL54" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS54" t="n">
         <v>126</v>
@@ -10293,28 +10289,28 @@
         <v>3.25</v>
       </c>
       <c r="AU54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV54" t="n">
         <v>41</v>
       </c>
       <c r="AW54" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY54" t="n">
         <v>19</v>
       </c>
       <c r="AZ54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA54" t="n">
         <v>51</v>
       </c>
       <c r="BB54" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC54" t="n">
         <v>81</v>
@@ -10355,19 +10351,19 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K55" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L55" t="n">
         <v>4.75</v>
@@ -10376,19 +10372,19 @@
         <v>1.02</v>
       </c>
       <c r="N55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O55" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P55" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R55" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S55" t="n">
         <v>1.25</v>
@@ -10397,10 +10393,10 @@
         <v>3.75</v>
       </c>
       <c r="U55" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V55" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W55" t="n">
         <v>11</v>
@@ -10415,19 +10411,19 @@
         <v>13</v>
       </c>
       <c r="AA55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB55" t="n">
         <v>19</v>
       </c>
       <c r="AC55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF55" t="n">
         <v>34</v>
@@ -10439,7 +10435,7 @@
         <v>21</v>
       </c>
       <c r="AI55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ55" t="n">
         <v>17</v>
@@ -10463,10 +10459,10 @@
         <v>15</v>
       </c>
       <c r="AQ55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS55" t="n">
         <v>81</v>
@@ -10499,7 +10495,7 @@
         <v>126</v>
       </c>
       <c r="BC55" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD55" t="n">
         <v>81</v>
@@ -10537,22 +10533,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H56" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J56" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K56" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -10567,10 +10563,10 @@
         <v>4.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R56" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S56" t="n">
         <v>1.3</v>
@@ -10588,16 +10584,16 @@
         <v>13</v>
       </c>
       <c r="X56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z56" t="n">
         <v>34</v>
       </c>
       <c r="AA56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB56" t="n">
         <v>26</v>
@@ -10612,7 +10608,7 @@
         <v>12</v>
       </c>
       <c r="AF56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG56" t="n">
         <v>126</v>
@@ -10639,7 +10635,7 @@
         <v>5.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP56" t="n">
         <v>21</v>
@@ -10663,7 +10659,7 @@
         <v>41</v>
       </c>
       <c r="AW56" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX56" t="n">
         <v>11</v>
@@ -10672,7 +10668,7 @@
         <v>19</v>
       </c>
       <c r="AZ56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA56" t="n">
         <v>51</v>
@@ -10681,7 +10677,7 @@
         <v>101</v>
       </c>
       <c r="BC56" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD56" t="n">
         <v>81</v>
@@ -11295,10 +11291,10 @@
         <v>3.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R60" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S60" t="n">
         <v>1.36</v>
@@ -11307,10 +11303,10 @@
         <v>3</v>
       </c>
       <c r="U60" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V60" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W60" t="n">
         <v>7</v>
@@ -11461,22 +11457,22 @@
         <v>2.1</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P61" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R61" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S61" t="n">
         <v>1.44</v>
@@ -11621,7 +11617,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H62" t="n">
         <v>4.2</v>
@@ -11651,10 +11647,10 @@
         <v>4</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R62" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S62" t="n">
         <v>1.33</v>
@@ -11699,7 +11695,7 @@
         <v>51</v>
       </c>
       <c r="AG62" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH62" t="n">
         <v>7</v>
@@ -11750,7 +11746,7 @@
         <v>3.4</v>
       </c>
       <c r="AX62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY62" t="n">
         <v>19</v>
@@ -11802,7 +11798,7 @@
         <v>1.7</v>
       </c>
       <c r="H63" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I63" t="n">
         <v>5</v>
@@ -11811,7 +11807,7 @@
         <v>2.3</v>
       </c>
       <c r="K63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L63" t="n">
         <v>5</v>
@@ -11823,31 +11819,31 @@
         <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P63" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R63" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U63" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V63" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W63" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X63" t="n">
         <v>8</v>
@@ -11859,25 +11855,25 @@
         <v>13</v>
       </c>
       <c r="AA63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB63" t="n">
         <v>26</v>
       </c>
       <c r="AC63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD63" t="n">
         <v>7</v>
       </c>
       <c r="AE63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF63" t="n">
         <v>51</v>
       </c>
       <c r="AG63" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH63" t="n">
         <v>13</v>
@@ -11886,7 +11882,7 @@
         <v>26</v>
       </c>
       <c r="AJ63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK63" t="n">
         <v>51</v>
@@ -11898,13 +11894,13 @@
         <v>41</v>
       </c>
       <c r="AN63" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO63" t="n">
         <v>9</v>
       </c>
       <c r="AP63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ63" t="n">
         <v>29</v>
@@ -11916,10 +11912,10 @@
         <v>151</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV63" t="n">
         <v>51</v>
@@ -11934,13 +11930,13 @@
         <v>34</v>
       </c>
       <c r="AZ63" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA63" t="n">
         <v>101</v>
       </c>
-      <c r="BA63" t="n">
-        <v>126</v>
-      </c>
       <c r="BB63" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC63" t="inlineStr"/>
       <c r="BD63" t="inlineStr"/>
@@ -12185,10 +12181,10 @@
         <v>4</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R65" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S65" t="n">
         <v>1.33</v>
@@ -12284,10 +12280,10 @@
         <v>3.75</v>
       </c>
       <c r="AX65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ65" t="n">
         <v>26</v>
@@ -12511,28 +12507,28 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H67" t="n">
         <v>3.05</v>
       </c>
       <c r="I67" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J67" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="K67" t="n">
         <v>2.07</v>
       </c>
       <c r="L67" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="M67" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>8.300000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="O67" t="n">
         <v>1.31</v>
@@ -12544,7 +12540,7 @@
         <v>1.9</v>
       </c>
       <c r="R67" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S67" t="n">
         <v>1.4</v>
@@ -12556,31 +12552,31 @@
         <v>1.7</v>
       </c>
       <c r="V67" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W67" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="X67" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA67" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC67" t="n">
         <v>8.75</v>
       </c>
       <c r="AD67" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE67" t="n">
         <v>13</v>
@@ -12592,37 +12588,37 @@
         <v>450</v>
       </c>
       <c r="AH67" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AI67" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AJ67" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL67" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM67" t="n">
         <v>37</v>
       </c>
       <c r="AN67" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AO67" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR67" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS67" t="n">
         <v>175</v>
@@ -12631,22 +12627,22 @@
         <v>2.62</v>
       </c>
       <c r="AU67" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV67" t="n">
         <v>50</v>
       </c>
       <c r="AW67" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AX67" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AY67" t="n">
         <v>22</v>
       </c>
       <c r="AZ67" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA67" t="n">
         <v>110</v>
@@ -12704,7 +12700,7 @@
         <v>2.6</v>
       </c>
       <c r="L68" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M68" t="n">
         <v>1.02</v>
@@ -12867,13 +12863,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H69" t="n">
         <v>3.1</v>
       </c>
       <c r="I69" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J69" t="n">
         <v>3</v>
@@ -12891,10 +12887,10 @@
         <v>8</v>
       </c>
       <c r="O69" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q69" t="n">
         <v>2.25</v>
@@ -12918,7 +12914,7 @@
         <v>6.5</v>
       </c>
       <c r="X69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y69" t="n">
         <v>9.5</v>
@@ -12927,7 +12923,7 @@
         <v>21</v>
       </c>
       <c r="AA69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB69" t="n">
         <v>34</v>
@@ -12939,13 +12935,13 @@
         <v>6</v>
       </c>
       <c r="AE69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF69" t="n">
         <v>51</v>
       </c>
       <c r="AG69" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH69" t="n">
         <v>9</v>
@@ -12960,7 +12956,7 @@
         <v>41</v>
       </c>
       <c r="AL69" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM69" t="n">
         <v>41</v>
@@ -13049,28 +13045,28 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J70" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K70" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L70" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M70" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O70" t="n">
         <v>1.33</v>
@@ -13079,10 +13075,10 @@
         <v>3.25</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R70" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S70" t="n">
         <v>1.44</v>
@@ -13091,73 +13087,73 @@
         <v>2.63</v>
       </c>
       <c r="U70" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V70" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W70" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X70" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y70" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z70" t="n">
         <v>41</v>
       </c>
       <c r="AA70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB70" t="n">
         <v>41</v>
       </c>
       <c r="AC70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD70" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF70" t="n">
         <v>51</v>
       </c>
       <c r="AG70" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH70" t="n">
         <v>7</v>
       </c>
       <c r="AI70" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ70" t="n">
         <v>9</v>
       </c>
       <c r="AK70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM70" t="n">
         <v>29</v>
       </c>
       <c r="AN70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ70" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR70" t="n">
         <v>101</v>
@@ -13175,10 +13171,10 @@
         <v>51</v>
       </c>
       <c r="AW70" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY70" t="n">
         <v>23</v>
@@ -13187,10 +13183,10 @@
         <v>41</v>
       </c>
       <c r="BA70" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB70" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC70" t="n">
         <v>81</v>
@@ -13231,40 +13227,40 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H71" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I71" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J71" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="K71" t="n">
         <v>2.25</v>
       </c>
       <c r="L71" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O71" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P71" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S71" t="n">
         <v>1.36</v>
@@ -13273,22 +13269,22 @@
         <v>3</v>
       </c>
       <c r="U71" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V71" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X71" t="n">
         <v>8</v>
-      </c>
-      <c r="X71" t="n">
-        <v>9</v>
       </c>
       <c r="Y71" t="n">
         <v>8.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA71" t="n">
         <v>13</v>
@@ -13297,7 +13293,7 @@
         <v>23</v>
       </c>
       <c r="AC71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD71" t="n">
         <v>7</v>
@@ -13306,25 +13302,25 @@
         <v>15</v>
       </c>
       <c r="AF71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG71" t="n">
         <v>201</v>
       </c>
       <c r="AH71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK71" t="n">
         <v>51</v>
       </c>
       <c r="AL71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM71" t="n">
         <v>41</v>
@@ -13333,7 +13329,7 @@
         <v>3.75</v>
       </c>
       <c r="AO71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP71" t="n">
         <v>19</v>
@@ -13357,10 +13353,10 @@
         <v>51</v>
       </c>
       <c r="AW71" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY71" t="n">
         <v>29</v>
@@ -13419,52 +13415,52 @@
         <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J72" t="n">
         <v>3.2</v>
       </c>
       <c r="K72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U72" t="n">
         <v>2</v>
       </c>
-      <c r="L72" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N72" t="n">
-        <v>8</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P72" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T72" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U72" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V72" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W72" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y72" t="n">
         <v>10</v>
@@ -13479,22 +13475,22 @@
         <v>34</v>
       </c>
       <c r="AC72" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD72" t="n">
         <v>6</v>
       </c>
       <c r="AE72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG72" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI72" t="n">
         <v>15</v>
@@ -13518,7 +13514,7 @@
         <v>15</v>
       </c>
       <c r="AP72" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ72" t="n">
         <v>51</v>
@@ -13527,13 +13523,13 @@
         <v>81</v>
       </c>
       <c r="AS72" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU72" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV72" t="n">
         <v>67</v>
@@ -13545,16 +13541,16 @@
         <v>19</v>
       </c>
       <c r="AY72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ72" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA72" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB72" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC72" t="n">
         <v>81</v>
@@ -13616,13 +13612,13 @@
         <v>1.07</v>
       </c>
       <c r="N73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q73" t="n">
         <v>2.1</v>
@@ -13955,22 +13951,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
         <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J75" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
         <v>1.95</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M75" t="n">
         <v>1.08</v>
@@ -13991,16 +13987,16 @@
         <v>1.53</v>
       </c>
       <c r="S75" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T75" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U75" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V75" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W75" t="n">
         <v>8</v>
@@ -14009,7 +14005,7 @@
         <v>15</v>
       </c>
       <c r="Y75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z75" t="n">
         <v>41</v>
@@ -14063,16 +14059,16 @@
         <v>34</v>
       </c>
       <c r="AQ75" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR75" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS75" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU75" t="n">
         <v>9</v>
@@ -14090,7 +14086,7 @@
         <v>29</v>
       </c>
       <c r="AZ75" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA75" t="n">
         <v>81</v>
@@ -14137,22 +14133,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" t="n">
         <v>7.5</v>
       </c>
       <c r="I76" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="J76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K76" t="n">
         <v>2.88</v>
       </c>
       <c r="L76" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M76" t="n">
         <v>1.02</v>
@@ -14167,10 +14163,10 @@
         <v>5.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R76" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S76" t="n">
         <v>1.25</v>
@@ -14179,10 +14175,10 @@
         <v>3.75</v>
       </c>
       <c r="U76" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V76" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W76" t="n">
         <v>29</v>
@@ -14197,7 +14193,7 @@
         <v>201</v>
       </c>
       <c r="AA76" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AB76" t="n">
         <v>81</v>
@@ -14206,7 +14202,7 @@
         <v>17</v>
       </c>
       <c r="AD76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE76" t="n">
         <v>29</v>
@@ -14227,13 +14223,13 @@
         <v>10</v>
       </c>
       <c r="AK76" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AL76" t="n">
         <v>11</v>
       </c>
       <c r="AM76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN76" t="n">
         <v>13</v>
@@ -14251,7 +14247,7 @@
         <v>301</v>
       </c>
       <c r="AS76" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AT76" t="n">
         <v>3.75</v>
@@ -14319,13 +14315,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H77" t="n">
         <v>2.9</v>
       </c>
       <c r="I77" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J77" t="n">
         <v>3.6</v>
@@ -14367,7 +14363,7 @@
         <v>1.67</v>
       </c>
       <c r="W77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X77" t="n">
         <v>12</v>
@@ -14400,7 +14396,7 @@
         <v>501</v>
       </c>
       <c r="AH77" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI77" t="n">
         <v>12</v>
@@ -14519,10 +14515,10 @@
         <v>4</v>
       </c>
       <c r="M78" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O78" t="n">
         <v>1.4</v>
@@ -14683,19 +14679,19 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H79" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I79" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J79" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K79" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L79" t="n">
         <v>5</v>
@@ -14707,31 +14703,31 @@
         <v>11</v>
       </c>
       <c r="O79" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P79" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R79" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U79" t="n">
         <v>1.83</v>
       </c>
-      <c r="S79" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T79" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U79" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V79" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X79" t="n">
         <v>8</v>
@@ -14740,16 +14736,16 @@
         <v>8.5</v>
       </c>
       <c r="Z79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA79" t="n">
         <v>15</v>
       </c>
       <c r="AB79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD79" t="n">
         <v>7</v>
@@ -14764,10 +14760,10 @@
         <v>301</v>
       </c>
       <c r="AH79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ79" t="n">
         <v>15</v>
@@ -14782,16 +14778,16 @@
         <v>41</v>
       </c>
       <c r="AN79" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO79" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP79" t="n">
         <v>21</v>
       </c>
       <c r="AQ79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR79" t="n">
         <v>51</v>
@@ -14800,7 +14796,7 @@
         <v>151</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU79" t="n">
         <v>8.5</v>
@@ -14809,7 +14805,7 @@
         <v>51</v>
       </c>
       <c r="AW79" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX79" t="n">
         <v>26</v>
@@ -14886,7 +14882,7 @@
         <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O80" t="n">
         <v>1.33</v>
@@ -15047,28 +15043,28 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H81" t="n">
         <v>3.3</v>
       </c>
       <c r="I81" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J81" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K81" t="n">
         <v>2.1</v>
       </c>
       <c r="L81" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M81" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O81" t="n">
         <v>1.33</v>
@@ -15104,7 +15100,7 @@
         <v>9</v>
       </c>
       <c r="Z81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA81" t="n">
         <v>17</v>
@@ -15131,7 +15127,7 @@
         <v>10</v>
       </c>
       <c r="AI81" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ81" t="n">
         <v>13</v>
@@ -15146,7 +15142,7 @@
         <v>41</v>
       </c>
       <c r="AN81" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO81" t="n">
         <v>11</v>
@@ -15155,7 +15151,7 @@
         <v>23</v>
       </c>
       <c r="AQ81" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR81" t="n">
         <v>51</v>
@@ -15170,10 +15166,10 @@
         <v>8.5</v>
       </c>
       <c r="AV81" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW81" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX81" t="n">
         <v>23</v>
@@ -15229,22 +15225,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I82" t="n">
         <v>2.7</v>
       </c>
       <c r="J82" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K82" t="n">
         <v>2.05</v>
       </c>
       <c r="L82" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M82" t="n">
         <v>1.07</v>
@@ -15265,19 +15261,19 @@
         <v>1.67</v>
       </c>
       <c r="S82" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T82" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U82" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V82" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W82" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X82" t="n">
         <v>12</v>
@@ -15289,16 +15285,16 @@
         <v>26</v>
       </c>
       <c r="AA82" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB82" t="n">
         <v>34</v>
       </c>
       <c r="AC82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE82" t="n">
         <v>15</v>
@@ -15316,10 +15312,10 @@
         <v>13</v>
       </c>
       <c r="AJ82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK82" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL82" t="n">
         <v>23</v>
@@ -15340,16 +15336,16 @@
         <v>51</v>
       </c>
       <c r="AR82" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS82" t="n">
         <v>201</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU82" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV82" t="n">
         <v>51</v>
@@ -15592,34 +15588,34 @@
         <v>1.78</v>
       </c>
       <c r="H84" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I84" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="J84" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K84" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L84" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N84" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O84" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P84" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R84" t="n">
         <v>1.8</v>
@@ -15628,37 +15624,37 @@
         <v>1.42</v>
       </c>
       <c r="T84" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U84" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V84" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W84" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X84" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z84" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA84" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB84" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC84" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD84" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE84" t="n">
         <v>15</v>
@@ -15679,10 +15675,10 @@
         <v>14</v>
       </c>
       <c r="AK84" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL84" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM84" t="n">
         <v>45</v>
@@ -15694,43 +15690,43 @@
         <v>9</v>
       </c>
       <c r="AP84" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ84" t="n">
         <v>32</v>
       </c>
       <c r="AR84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS84" t="n">
         <v>250</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU84" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV84" t="n">
         <v>70</v>
       </c>
       <c r="AW84" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AX84" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY84" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ84" t="n">
         <v>150</v>
       </c>
       <c r="BA84" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB84" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC84" t="inlineStr"/>
       <c r="BD84" t="inlineStr"/>
@@ -15767,61 +15763,61 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H85" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I85" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J85" t="n">
         <v>8</v>
       </c>
       <c r="K85" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="L85" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M85" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N85" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O85" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P85" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="R85" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="S85" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="T85" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="U85" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V85" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W85" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="X85" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y85" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z85" t="n">
         <v>350</v>
@@ -15833,40 +15829,40 @@
         <v>80</v>
       </c>
       <c r="AC85" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH85" t="n">
         <v>9.75</v>
       </c>
-      <c r="AD85" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AI85" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AJ85" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK85" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AL85" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM85" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN85" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO85" t="n">
         <v>55</v>
@@ -15878,37 +15874,37 @@
         <v>400</v>
       </c>
       <c r="AR85" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AS85" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT85" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AU85" t="n">
         <v>8.5</v>
       </c>
       <c r="AV85" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW85" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AX85" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AY85" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AZ85" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="BA85" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BB85" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC85" t="inlineStr"/>
       <c r="BD85" t="inlineStr"/>
@@ -15945,22 +15941,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="H86" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I86" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="J86" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="K86" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L86" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M86" t="n">
         <v>1.05</v>
@@ -15984,109 +15980,109 @@
         <v>1.36</v>
       </c>
       <c r="T86" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="U86" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V86" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="W86" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X86" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y86" t="n">
         <v>9</v>
       </c>
-      <c r="X86" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z86" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA86" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB86" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC86" t="n">
         <v>7.9</v>
       </c>
       <c r="AD86" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE86" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF86" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG86" t="n">
         <v>300</v>
       </c>
       <c r="AH86" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AI86" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AJ86" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AK86" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL86" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM86" t="n">
         <v>25</v>
       </c>
-      <c r="AM86" t="n">
-        <v>29</v>
-      </c>
       <c r="AN86" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AO86" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AR86" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS86" t="n">
         <v>200</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU86" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AV86" t="n">
         <v>50</v>
       </c>
       <c r="AW86" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AX86" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AY86" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AZ86" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA86" t="n">
         <v>80</v>
       </c>
-      <c r="BA86" t="n">
-        <v>100</v>
-      </c>
       <c r="BB86" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
@@ -16305,16 +16301,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H88" t="n">
         <v>3.85</v>
       </c>
       <c r="I88" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J88" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K88" t="n">
         <v>2.22</v>
@@ -16326,7 +16322,7 @@
         <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O88" t="n">
         <v>1.26</v>
@@ -16335,16 +16331,16 @@
         <v>3.65</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R88" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S88" t="n">
         <v>1.37</v>
       </c>
       <c r="T88" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U88" t="n">
         <v>1.72</v>
@@ -16362,16 +16358,16 @@
         <v>14</v>
       </c>
       <c r="Z88" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA88" t="n">
         <v>37</v>
       </c>
       <c r="AB88" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC88" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD88" t="n">
         <v>7.8</v>
@@ -16383,13 +16379,13 @@
         <v>70</v>
       </c>
       <c r="AG88" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH88" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AI88" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ88" t="n">
         <v>8.75</v>
@@ -16401,19 +16397,19 @@
         <v>14.5</v>
       </c>
       <c r="AM88" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP88" t="n">
         <v>27</v>
       </c>
-      <c r="AN88" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>28</v>
-      </c>
       <c r="AQ88" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR88" t="n">
         <v>150</v>
@@ -16422,7 +16418,7 @@
         <v>350</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU88" t="n">
         <v>7.4</v>
@@ -16431,7 +16427,7 @@
         <v>65</v>
       </c>
       <c r="AW88" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AX88" t="n">
         <v>8.75</v>
@@ -16446,7 +16442,7 @@
         <v>60</v>
       </c>
       <c r="BB88" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC88" t="n">
         <v>51</v>
@@ -16493,7 +16489,7 @@
         <v>3.4</v>
       </c>
       <c r="I89" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J89" t="n">
         <v>2.3</v>
@@ -16505,10 +16501,10 @@
         <v>7</v>
       </c>
       <c r="M89" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N89" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O89" t="n">
         <v>1.44</v>
@@ -16517,10 +16513,10 @@
         <v>2.63</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R89" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S89" t="n">
         <v>1.53</v>
@@ -16599,13 +16595,13 @@
         <v>67</v>
       </c>
       <c r="AS89" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT89" t="n">
         <v>2.38</v>
       </c>
       <c r="AU89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV89" t="n">
         <v>81</v>
@@ -16617,7 +16613,7 @@
         <v>41</v>
       </c>
       <c r="AY89" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ89" t="n">
         <v>151</v>
@@ -16667,28 +16663,28 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J90" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K90" t="n">
         <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M90" t="n">
         <v>1.08</v>
       </c>
       <c r="N90" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O90" t="n">
         <v>1.44</v>
@@ -16715,19 +16711,19 @@
         <v>1.67</v>
       </c>
       <c r="W90" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X90" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA90" t="n">
         <v>17</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>19</v>
       </c>
       <c r="AB90" t="n">
         <v>34</v>
@@ -16739,37 +16735,37 @@
         <v>6.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF90" t="n">
         <v>67</v>
       </c>
       <c r="AG90" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH90" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ90" t="n">
         <v>15</v>
       </c>
       <c r="AK90" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL90" t="n">
         <v>41</v>
       </c>
       <c r="AM90" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN90" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP90" t="n">
         <v>26</v>
@@ -16781,31 +16777,31 @@
         <v>67</v>
       </c>
       <c r="AS90" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT90" t="n">
         <v>2.38</v>
       </c>
       <c r="AU90" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV90" t="n">
         <v>67</v>
       </c>
       <c r="AW90" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ90" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA90" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB90" t="n">
         <v>351</v>
@@ -16849,58 +16845,58 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H91" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I91" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J91" t="n">
         <v>2.4</v>
       </c>
       <c r="K91" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M91" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O91" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P91" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
         <v>1.85</v>
       </c>
-      <c r="R91" t="n">
-        <v>2</v>
-      </c>
       <c r="S91" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T91" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U91" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V91" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W91" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y91" t="n">
         <v>8.5</v>
@@ -16912,10 +16908,10 @@
         <v>15</v>
       </c>
       <c r="AB91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD91" t="n">
         <v>7</v>
@@ -16924,28 +16920,28 @@
         <v>15</v>
       </c>
       <c r="AF91" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG91" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI91" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ91" t="n">
         <v>15</v>
       </c>
       <c r="AK91" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL91" t="n">
         <v>34</v>
       </c>
       <c r="AM91" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN91" t="n">
         <v>3.75</v>
@@ -16954,7 +16950,7 @@
         <v>9.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ91" t="n">
         <v>29</v>
@@ -16963,10 +16959,10 @@
         <v>51</v>
       </c>
       <c r="AS91" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT91" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU91" t="n">
         <v>8</v>
@@ -16981,13 +16977,13 @@
         <v>23</v>
       </c>
       <c r="AY91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ91" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA91" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB91" t="n">
         <v>201</v>
@@ -17031,28 +17027,28 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H92" t="n">
         <v>3.2</v>
       </c>
       <c r="I92" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J92" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K92" t="n">
         <v>1.95</v>
       </c>
       <c r="L92" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M92" t="n">
         <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O92" t="n">
         <v>1.4</v>
@@ -17082,10 +17078,10 @@
         <v>7</v>
       </c>
       <c r="X92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z92" t="n">
         <v>26</v>
@@ -17121,10 +17117,10 @@
         <v>11</v>
       </c>
       <c r="AK92" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL92" t="n">
         <v>26</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>23</v>
       </c>
       <c r="AM92" t="n">
         <v>41</v>
@@ -17133,7 +17129,7 @@
         <v>4.5</v>
       </c>
       <c r="AO92" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP92" t="n">
         <v>29</v>
@@ -17157,7 +17153,7 @@
         <v>67</v>
       </c>
       <c r="AW92" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX92" t="n">
         <v>17</v>
@@ -17216,130 +17212,130 @@
         <v>2.2</v>
       </c>
       <c r="H93" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J93" t="n">
         <v>2.75</v>
       </c>
       <c r="K93" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L93" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M93" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N93" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O93" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P93" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="R93" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S93" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T93" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U93" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V93" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y93" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z93" t="n">
         <v>21</v>
       </c>
       <c r="AA93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC93" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI93" t="n">
         <v>17</v>
       </c>
-      <c r="AD93" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK93" t="n">
         <v>34</v>
       </c>
       <c r="AL93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM93" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN93" t="n">
         <v>4.5</v>
       </c>
       <c r="AO93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ93" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR93" t="n">
         <v>51</v>
       </c>
       <c r="AS93" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT93" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU93" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV93" t="n">
         <v>41</v>
       </c>
       <c r="AW93" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX93" t="n">
         <v>15</v>
@@ -17348,13 +17344,13 @@
         <v>21</v>
       </c>
       <c r="AZ93" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA93" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB93" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC93" t="n">
         <v>351</v>
@@ -17425,10 +17421,10 @@
         <v>4</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R94" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S94" t="n">
         <v>1.33</v>
@@ -17580,10 +17576,10 @@
         <v>2.15</v>
       </c>
       <c r="H95" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I95" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J95" t="n">
         <v>2.75</v>
@@ -17658,7 +17654,7 @@
         <v>151</v>
       </c>
       <c r="AH95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI95" t="n">
         <v>17</v>
@@ -17759,91 +17755,91 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="H96" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I96" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J96" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="K96" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="L96" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M96" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N96" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="O96" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P96" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R96" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S96" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="T96" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="U96" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="V96" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="W96" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="X96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y96" t="n">
         <v>14.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA96" t="n">
         <v>40</v>
       </c>
       <c r="AB96" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AC96" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AD96" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AE96" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF96" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG96" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AH96" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI96" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ96" t="n">
         <v>8</v>
@@ -17852,52 +17848,52 @@
         <v>13.5</v>
       </c>
       <c r="AL96" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM96" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN96" t="n">
         <v>6.3</v>
       </c>
       <c r="AO96" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP96" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ96" t="n">
         <v>150</v>
       </c>
       <c r="AR96" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS96" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="AU96" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AV96" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW96" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AX96" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AY96" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ96" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA96" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB96" t="n">
         <v>200</v>
@@ -18119,40 +18115,40 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H98" t="n">
         <v>3.5</v>
       </c>
       <c r="I98" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J98" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K98" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L98" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M98" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N98" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O98" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P98" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R98" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S98" t="n">
         <v>1.36</v>
@@ -18161,13 +18157,13 @@
         <v>3</v>
       </c>
       <c r="U98" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V98" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W98" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X98" t="n">
         <v>11</v>
@@ -18176,10 +18172,10 @@
         <v>9</v>
       </c>
       <c r="Z98" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA98" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB98" t="n">
         <v>23</v>
@@ -18200,28 +18196,28 @@
         <v>151</v>
       </c>
       <c r="AH98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK98" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM98" t="n">
         <v>34</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>29</v>
       </c>
       <c r="AN98" t="n">
         <v>4.33</v>
       </c>
       <c r="AO98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP98" t="n">
         <v>21</v>
@@ -18245,19 +18241,19 @@
         <v>51</v>
       </c>
       <c r="AW98" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ98" t="n">
         <v>51</v>
       </c>
       <c r="BA98" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB98" t="n">
         <v>151</v>
@@ -18331,10 +18327,10 @@
         <v>4.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R99" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S99" t="n">
         <v>1.29</v>
@@ -18665,28 +18661,28 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H101" t="n">
         <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J101" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K101" t="n">
         <v>2.05</v>
       </c>
       <c r="L101" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M101" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
         <v>1.36</v>
@@ -18713,7 +18709,7 @@
         <v>1.83</v>
       </c>
       <c r="W101" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X101" t="n">
         <v>11</v>
@@ -18752,10 +18748,10 @@
         <v>15</v>
       </c>
       <c r="AJ101" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK101" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL101" t="n">
         <v>26</v>
@@ -18767,7 +18763,7 @@
         <v>4.33</v>
       </c>
       <c r="AO101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP101" t="n">
         <v>26</v>
@@ -18788,10 +18784,10 @@
         <v>8.5</v>
       </c>
       <c r="AV101" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW101" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX101" t="n">
         <v>17</v>
@@ -18806,7 +18802,7 @@
         <v>81</v>
       </c>
       <c r="BB101" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC101" t="n">
         <v>126</v>
@@ -19211,37 +19207,37 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="H104" t="n">
         <v>3.15</v>
       </c>
       <c r="I104" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J104" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K104" t="n">
         <v>1.98</v>
       </c>
       <c r="L104" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N104" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="O104" t="n">
         <v>1.42</v>
       </c>
       <c r="P104" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R104" t="n">
         <v>1.52</v>
@@ -19253,31 +19249,31 @@
         <v>2.32</v>
       </c>
       <c r="U104" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V104" t="n">
         <v>1.62</v>
       </c>
       <c r="W104" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="X104" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y104" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z104" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA104" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB104" t="n">
         <v>65</v>
       </c>
       <c r="AC104" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD104" t="n">
         <v>6.3</v>
@@ -19295,13 +19291,13 @@
         <v>5.3</v>
       </c>
       <c r="AI104" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AJ104" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK104" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL104" t="n">
         <v>17</v>
@@ -19310,16 +19306,16 @@
         <v>37</v>
       </c>
       <c r="AN104" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AO104" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP104" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ104" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR104" t="n">
         <v>250</v>
@@ -19328,7 +19324,7 @@
         <v>450</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AU104" t="n">
         <v>7.9</v>
@@ -19337,10 +19333,10 @@
         <v>90</v>
       </c>
       <c r="AW104" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AX104" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AY104" t="n">
         <v>21</v>
@@ -19411,10 +19407,10 @@
         <v>6.4</v>
       </c>
       <c r="M105" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N105" t="n">
-        <v>6.85</v>
+        <v>6</v>
       </c>
       <c r="O105" t="n">
         <v>1.5</v>
@@ -19575,19 +19571,19 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H106" t="n">
         <v>4.15</v>
       </c>
       <c r="I106" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J106" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="K106" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L106" t="n">
         <v>1.95</v>
@@ -19596,7 +19592,7 @@
         <v>1.02</v>
       </c>
       <c r="N106" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="O106" t="n">
         <v>1.28</v>
@@ -19614,19 +19610,19 @@
         <v>1.38</v>
       </c>
       <c r="T106" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="U106" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V106" t="n">
         <v>1.62</v>
       </c>
       <c r="W106" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X106" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y106" t="n">
         <v>21</v>
@@ -19635,7 +19631,7 @@
         <v>150</v>
       </c>
       <c r="AA106" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB106" t="n">
         <v>80</v>
@@ -19647,7 +19643,7 @@
         <v>8.25</v>
       </c>
       <c r="AE106" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF106" t="n">
         <v>120</v>
@@ -19656,16 +19652,16 @@
         <v>1000</v>
       </c>
       <c r="AH106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI106" t="n">
         <v>6.1</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>6.2</v>
       </c>
       <c r="AJ106" t="n">
         <v>8.5</v>
       </c>
       <c r="AK106" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AL106" t="n">
         <v>12.5</v>
@@ -19674,34 +19670,34 @@
         <v>32</v>
       </c>
       <c r="AN106" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AO106" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP106" t="n">
         <v>45</v>
       </c>
       <c r="AQ106" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AR106" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AS106" t="n">
         <v>81</v>
       </c>
       <c r="AT106" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU106" t="n">
         <v>8.75</v>
       </c>
       <c r="AV106" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW106" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AX106" t="n">
         <v>6.6</v>
@@ -19757,22 +19753,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="I107" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="K107" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="L107" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="M107" t="n">
         <v>1.02</v>
@@ -19784,58 +19780,58 @@
         <v>1.13</v>
       </c>
       <c r="P107" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R107" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="S107" t="n">
         <v>1.24</v>
       </c>
       <c r="T107" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="U107" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="V107" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="W107" t="n">
         <v>11.5</v>
       </c>
       <c r="X107" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y107" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z107" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA107" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB107" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC107" t="n">
         <v>9.75</v>
       </c>
       <c r="AD107" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AE107" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF107" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG107" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH107" t="n">
         <v>22</v>
@@ -19844,64 +19840,64 @@
         <v>37</v>
       </c>
       <c r="AJ107" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK107" t="n">
         <v>90</v>
       </c>
       <c r="AL107" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM107" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN107" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO107" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AP107" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ107" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AR107" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AS107" t="n">
         <v>110</v>
       </c>
       <c r="AT107" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AU107" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AV107" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW107" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AX107" t="n">
         <v>24</v>
       </c>
       <c r="AY107" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ107" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA107" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB107" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC107" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD107" t="inlineStr"/>
     </row>
@@ -19937,58 +19933,58 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I108" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J108" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="K108" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L108" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="M108" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N108" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="O108" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P108" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="R108" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S108" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T108" t="n">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="U108" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V108" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W108" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="X108" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y108" t="n">
         <v>13</v>
@@ -20000,85 +19996,85 @@
         <v>35</v>
       </c>
       <c r="AB108" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC108" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AD108" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE108" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF108" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG108" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AH108" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AI108" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AJ108" t="n">
         <v>8.25</v>
       </c>
       <c r="AK108" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL108" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM108" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN108" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO108" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP108" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ108" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR108" t="n">
         <v>150</v>
       </c>
       <c r="AS108" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="AU108" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV108" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW108" t="n">
         <v>3.8</v>
       </c>
       <c r="AX108" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY108" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ108" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA108" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB108" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC108" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -762,13 +762,13 @@
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -777,34 +777,34 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
@@ -825,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -843,7 +843,7 @@
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -864,7 +864,7 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L3" t="n">
         <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -959,10 +959,10 @@
         <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -983,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -998,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1007,31 +1007,31 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
@@ -1040,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
         <v>81</v>
@@ -1055,16 +1055,16 @@
         <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>81</v>
@@ -1123,16 +1123,16 @@
         <v>1.8</v>
       </c>
       <c r="K4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
         <v>1.1</v>
@@ -1153,19 +1153,19 @@
         <v>4.33</v>
       </c>
       <c r="U4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>12</v>
@@ -1174,13 +1174,13 @@
         <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1189,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
         <v>29</v>
@@ -1210,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
         <v>6.5</v>
@@ -1219,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>29</v>
@@ -1243,7 +1243,7 @@
         <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>101</v>
@@ -1255,7 +1255,7 @@
         <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD4" t="n">
         <v>160</v>
@@ -1314,7 +1314,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O5" t="n">
         <v>1.08</v>
@@ -1329,10 +1329,10 @@
         <v>3.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U5" t="n">
         <v>1.33</v>
@@ -1410,13 +1410,13 @@
         <v>81</v>
       </c>
       <c r="AT5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AW5" t="n">
         <v>4.5</v>
@@ -1475,133 +1475,133 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="U6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W6" t="n">
         <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>12</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
         <v>34</v>
       </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AG6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
         <v>15</v>
       </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN6" t="n">
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
         <v>12</v>
@@ -1616,10 +1616,10 @@
         <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1681,16 +1681,16 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -1699,16 +1699,16 @@
         <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
@@ -1723,34 +1723,34 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH7" t="n">
         <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
         <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1777,34 +1777,34 @@
         <v>2.38</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1887,10 +1887,10 @@
         <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1920,13 +1920,13 @@
         <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1941,10 +1941,10 @@
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1968,7 +1968,7 @@
         <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
@@ -1983,7 +1983,7 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2042,7 +2042,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2051,22 +2051,22 @@
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2078,10 +2078,10 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
@@ -2102,16 +2102,16 @@
         <v>451</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2120,16 +2120,16 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2138,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
@@ -2162,7 +2162,7 @@
         <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
@@ -2388,19 +2388,19 @@
         <v>4.33</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J11" t="n">
         <v>4.33</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2409,37 +2409,37 @@
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
+        <v>17</v>
+      </c>
+      <c r="X11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y11" t="n">
         <v>15</v>
-      </c>
-      <c r="X11" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>13</v>
       </c>
       <c r="Z11" t="n">
         <v>41</v>
@@ -2448,13 +2448,13 @@
         <v>29</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2463,10 +2463,10 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2478,31 +2478,31 @@
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
         <v>7.5</v>
@@ -2514,25 +2514,25 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD11" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H12" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.8</v>
@@ -2609,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
         <v>10</v>
@@ -2624,13 +2624,13 @@
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
         <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>21</v>
@@ -2648,19 +2648,19 @@
         <v>151</v>
       </c>
       <c r="AH12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>23</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>81</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2669,13 +2669,13 @@
         <v>3.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
         <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>34</v>
@@ -2687,22 +2687,22 @@
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
         <v>34</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA12" t="n">
         <v>101</v>
@@ -2758,13 +2758,13 @@
         <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
         <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2836,7 +2836,7 @@
         <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
         <v>34</v>
@@ -2881,7 +2881,7 @@
         <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
@@ -3119,16 +3119,16 @@
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -3149,22 +3149,22 @@
         <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
         <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
@@ -3203,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -3230,19 +3230,19 @@
         <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>26</v>
@@ -3295,76 +3295,76 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.1</v>
       </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
         <v>9</v>
       </c>
-      <c r="X16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
         <v>15</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
@@ -3376,10 +3376,10 @@
         <v>151</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
@@ -3388,7 +3388,7 @@
         <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
@@ -3397,13 +3397,13 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>51</v>
@@ -3412,7 +3412,7 @@
         <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
         <v>7.5</v>
@@ -3421,7 +3421,7 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
         <v>19</v>
@@ -3430,7 +3430,7 @@
         <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
         <v>81</v>
@@ -3477,19 +3477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
         <v>2.75</v>
@@ -3501,16 +3501,16 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="R17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3519,10 +3519,10 @@
         <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
         <v>11</v>
@@ -3543,22 +3543,22 @@
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
@@ -3579,10 +3579,10 @@
         <v>5.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>67</v>
@@ -3624,7 +3624,7 @@
         <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
@@ -3707,7 +3707,7 @@
         <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
         <v>7</v>
@@ -3716,7 +3716,7 @@
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3725,7 +3725,7 @@
         <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>8</v>
@@ -3758,7 +3758,7 @@
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO18" t="n">
         <v>7.5</v>
@@ -3779,7 +3779,7 @@
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -4047,16 +4047,16 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4074,19 +4074,19 @@
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
         <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
         <v>11</v>
@@ -4107,13 +4107,13 @@
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
         <v>26</v>
@@ -4122,10 +4122,10 @@
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
@@ -4149,10 +4149,10 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
@@ -4167,7 +4167,7 @@
         <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4205,97 +4205,97 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
         <v>1.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R21" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
         <v>11</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>9.5</v>
       </c>
       <c r="AE21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
         <v>21</v>
       </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AI21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>23</v>
       </c>
-      <c r="AI21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>26</v>
-      </c>
       <c r="AK21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="n">
         <v>51</v>
@@ -4304,10 +4304,10 @@
         <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP21" t="n">
         <v>17</v>
@@ -4319,10 +4319,10 @@
         <v>41</v>
       </c>
       <c r="AS21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4346,7 +4346,7 @@
         <v>151</v>
       </c>
       <c r="BB21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>151</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -4417,34 +4417,34 @@
         <v>6.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R22" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S22" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X22" t="n">
         <v>7</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA22" t="n">
         <v>11</v>
@@ -4456,46 +4456,46 @@
         <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
       </c>
       <c r="AF22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL22" t="n">
         <v>81</v>
       </c>
-      <c r="AG22" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI22" t="n">
+      <c r="AM22" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>81</v>
       </c>
       <c r="AN22" t="n">
         <v>3.25</v>
       </c>
       <c r="AO22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR22" t="n">
         <v>34</v>
@@ -4504,31 +4504,31 @@
         <v>101</v>
       </c>
       <c r="AT22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX22" t="n">
         <v>51</v>
       </c>
       <c r="AY22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ22" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB22" t="n">
         <v>351</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>401</v>
       </c>
       <c r="BC22" t="n">
         <v>151</v>
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
@@ -4940,13 +4940,13 @@
         <v>2.1</v>
       </c>
       <c r="J25" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
         <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
@@ -4961,10 +4961,10 @@
         <v>2.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
         <v>1.57</v>
@@ -4979,7 +4979,7 @@
         <v>1.62</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
         <v>17</v>
@@ -5018,7 +5018,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
         <v>19</v>
@@ -5113,13 +5113,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H26" t="n">
         <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
         <v>1.91</v>
@@ -5128,7 +5128,7 @@
         <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -5143,10 +5143,10 @@
         <v>3.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
         <v>1.44</v>
@@ -5167,10 +5167,10 @@
         <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA26" t="n">
         <v>13</v>
@@ -5179,10 +5179,10 @@
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>29</v>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>41</v>
@@ -5207,7 +5207,7 @@
         <v>67</v>
       </c>
       <c r="AM26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN26" t="n">
         <v>3.1</v>
@@ -5240,13 +5240,13 @@
         <v>9.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY26" t="n">
         <v>51</v>
       </c>
       <c r="AZ26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA26" t="n">
         <v>301</v>
@@ -5305,16 +5305,16 @@
         <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
         <v>1.2</v>
@@ -5335,10 +5335,10 @@
         <v>3.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W27" t="n">
         <v>9.5</v>
@@ -5365,13 +5365,13 @@
         <v>7.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH27" t="n">
         <v>15</v>
@@ -5401,7 +5401,7 @@
         <v>17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR27" t="n">
         <v>41</v>
@@ -5437,7 +5437,7 @@
         <v>151</v>
       </c>
       <c r="BC27" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD27" t="n">
         <v>151</v>
@@ -5589,7 +5589,7 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT28" t="n">
         <v>4.5</v>
@@ -5601,7 +5601,7 @@
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>51</v>
@@ -5857,16 +5857,16 @@
         <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q30" t="n">
         <v>3.1</v>
@@ -6019,13 +6019,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H31" t="n">
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31" t="n">
         <v>1.8</v>
@@ -6034,25 +6034,25 @@
         <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R31" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
         <v>1.4</v>
@@ -6061,13 +6061,13 @@
         <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X31" t="n">
         <v>5</v>
@@ -6079,7 +6079,7 @@
         <v>7</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB31" t="n">
         <v>41</v>
@@ -6094,29 +6094,29 @@
         <v>34</v>
       </c>
       <c r="AF31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
         <v>51</v>
       </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM31" t="n">
         <v>101</v>
       </c>
       <c r="AN31" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AO31" t="n">
         <v>6</v>
@@ -6137,25 +6137,25 @@
         <v>2.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV31" t="n">
         <v>101</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>51</v>
       </c>
       <c r="AY31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ31" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BA31" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BB31" t="n">
         <v>126</v>
@@ -6199,34 +6199,34 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>2.5</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q32" t="n">
         <v>2.5</v>
@@ -6235,10 +6235,10 @@
         <v>1.5</v>
       </c>
       <c r="S32" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T32" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U32" t="n">
         <v>2.25</v>
@@ -6247,25 +6247,25 @@
         <v>1.57</v>
       </c>
       <c r="W32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X32" t="n">
         <v>7</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
         <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="n">
         <v>41</v>
       </c>
       <c r="AC32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD32" t="n">
         <v>6.5</v>
@@ -6307,7 +6307,7 @@
         <v>26</v>
       </c>
       <c r="AQ32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR32" t="n">
         <v>67</v>
@@ -6316,10 +6316,10 @@
         <v>251</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV32" t="n">
         <v>81</v>
@@ -6340,13 +6340,13 @@
         <v>151</v>
       </c>
       <c r="BB32" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC32" t="n">
         <v>126</v>
       </c>
       <c r="BD32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33">
@@ -6741,25 +6741,29 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>4.15</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="J35" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="K35" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+        <v>4.8</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>13.2</v>
+      </c>
       <c r="O35" t="n">
         <v>1.23</v>
       </c>
@@ -6767,10 +6771,10 @@
         <v>3.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R35" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S35" t="n">
         <v>1.39</v>
@@ -6779,94 +6783,94 @@
         <v>2.55</v>
       </c>
       <c r="U35" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V35" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="W35" t="n">
         <v>9</v>
       </c>
       <c r="X35" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z35" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AA35" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AB35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE35" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="n">
         <v>300</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AJ35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK35" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="n">
         <v>40</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AO35" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AP35" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AR35" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS35" t="n">
         <v>150</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AU35" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AV35" t="n">
         <v>50</v>
       </c>
       <c r="AW35" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AX35" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY35" t="n">
         <v>27</v>
@@ -6880,7 +6884,9 @@
       <c r="BB35" t="n">
         <v>300</v>
       </c>
-      <c r="BC35" t="inlineStr"/>
+      <c r="BC35" t="n">
+        <v>500</v>
+      </c>
       <c r="BD35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -7097,22 +7103,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="H37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -7127,46 +7133,46 @@
         <v>6</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R37" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S37" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W37" t="n">
         <v>10</v>
       </c>
       <c r="X37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y37" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y37" t="n">
-        <v>9</v>
-      </c>
       <c r="Z37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="n">
         <v>21</v>
       </c>
       <c r="AD37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE37" t="n">
         <v>17</v>
@@ -7178,16 +7184,16 @@
         <v>151</v>
       </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL37" t="n">
         <v>41</v>
@@ -7196,10 +7202,10 @@
         <v>41</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP37" t="n">
         <v>15</v>
@@ -7214,7 +7220,7 @@
         <v>81</v>
       </c>
       <c r="AT37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU37" t="n">
         <v>8</v>
@@ -7223,16 +7229,16 @@
         <v>41</v>
       </c>
       <c r="AW37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ37" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA37" t="n">
         <v>101</v>
@@ -7244,7 +7250,7 @@
         <v>401</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38">
@@ -7279,22 +7285,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K38" t="n">
         <v>2.2</v>
       </c>
       <c r="L38" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -7315,16 +7321,16 @@
         <v>1.95</v>
       </c>
       <c r="S38" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W38" t="n">
         <v>11</v>
@@ -7333,16 +7339,16 @@
         <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z38" t="n">
         <v>34</v>
       </c>
       <c r="AA38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC38" t="n">
         <v>11</v>
@@ -7357,19 +7363,19 @@
         <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ38" t="n">
         <v>9</v>
       </c>
       <c r="AK38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="n">
         <v>17</v>
@@ -7378,25 +7384,25 @@
         <v>26</v>
       </c>
       <c r="AN38" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ38" t="n">
         <v>51</v>
       </c>
       <c r="AR38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS38" t="n">
         <v>151</v>
       </c>
       <c r="AT38" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU38" t="n">
         <v>7.5</v>
@@ -7426,7 +7432,7 @@
         <v>501</v>
       </c>
       <c r="BD38" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39">
@@ -7825,40 +7831,40 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H41" t="n">
         <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R41" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S41" t="n">
         <v>1.36</v>
@@ -7867,31 +7873,31 @@
         <v>3</v>
       </c>
       <c r="U41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X41" t="n">
         <v>12</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB41" t="n">
         <v>23</v>
       </c>
-      <c r="AA41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>26</v>
-      </c>
       <c r="AC41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD41" t="n">
         <v>7</v>
@@ -7906,19 +7912,19 @@
         <v>151</v>
       </c>
       <c r="AH41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ41" t="n">
         <v>11</v>
       </c>
       <c r="AK41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM41" t="n">
         <v>29</v>
@@ -7927,7 +7933,7 @@
         <v>4.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP41" t="n">
         <v>21</v>
@@ -7954,7 +7960,7 @@
         <v>5</v>
       </c>
       <c r="AX41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY41" t="n">
         <v>23</v>
@@ -8189,13 +8195,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J43" t="n">
         <v>3.5</v>
@@ -8204,13 +8210,13 @@
         <v>2.05</v>
       </c>
       <c r="L43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -8225,10 +8231,10 @@
         <v>1.67</v>
       </c>
       <c r="S43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U43" t="n">
         <v>1.83</v>
@@ -8255,7 +8261,7 @@
         <v>34</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD43" t="n">
         <v>6</v>
@@ -8270,19 +8276,19 @@
         <v>301</v>
       </c>
       <c r="AH43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI43" t="n">
         <v>12</v>
       </c>
       <c r="AJ43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK43" t="n">
         <v>26</v>
       </c>
       <c r="AL43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
@@ -8291,7 +8297,7 @@
         <v>4.75</v>
       </c>
       <c r="AO43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP43" t="n">
         <v>26</v>
@@ -8306,7 +8312,7 @@
         <v>201</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU43" t="n">
         <v>8.5</v>
@@ -8371,28 +8377,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H44" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L44" t="n">
         <v>4.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O44" t="n">
         <v>1.5</v>
@@ -8422,13 +8428,13 @@
         <v>6</v>
       </c>
       <c r="X44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
       </c>
       <c r="Z44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
@@ -8437,7 +8443,7 @@
         <v>41</v>
       </c>
       <c r="AC44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD44" t="n">
         <v>5.5</v>
@@ -8452,7 +8458,7 @@
         <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI44" t="n">
         <v>17</v>
@@ -8479,22 +8485,22 @@
         <v>29</v>
       </c>
       <c r="AQ44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR44" t="n">
         <v>81</v>
       </c>
       <c r="AS44" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT44" t="n">
         <v>2.25</v>
       </c>
       <c r="AU44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW44" t="n">
         <v>5.5</v>
@@ -8556,10 +8562,10 @@
         <v>1.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I45" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J45" t="n">
         <v>2.15</v>
@@ -8568,7 +8574,7 @@
         <v>2.15</v>
       </c>
       <c r="L45" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M45" t="n">
         <v>1.08</v>
@@ -8577,10 +8583,10 @@
         <v>7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
         <v>2.07</v>
@@ -8595,10 +8601,10 @@
         <v>2.75</v>
       </c>
       <c r="U45" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V45" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W45" t="n">
         <v>5.5</v>
@@ -8616,28 +8622,28 @@
         <v>15.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC45" t="n">
         <v>7</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE45" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG45" t="n">
         <v>1250</v>
       </c>
       <c r="AH45" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="n">
         <v>20</v>
@@ -8649,7 +8655,7 @@
         <v>75</v>
       </c>
       <c r="AM45" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN45" t="n">
         <v>3.35</v>
@@ -8658,7 +8664,7 @@
         <v>7.7</v>
       </c>
       <c r="AP45" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ45" t="n">
         <v>25</v>
@@ -8673,19 +8679,19 @@
         <v>2.75</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AV45" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW45" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AX45" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AY45" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ45" t="n">
         <v>200</v>
@@ -8694,7 +8700,7 @@
         <v>250</v>
       </c>
       <c r="BB45" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC45" t="inlineStr"/>
       <c r="BD45" t="inlineStr"/>
@@ -8731,34 +8737,34 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I46" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K46" t="n">
         <v>2.5</v>
       </c>
       <c r="L46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P46" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="Q46" t="n">
         <v>1.65</v>
@@ -8767,28 +8773,28 @@
         <v>2.15</v>
       </c>
       <c r="S46" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T46" t="n">
         <v>3.05</v>
       </c>
       <c r="U46" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="V46" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W46" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X46" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA46" t="n">
         <v>12.5</v>
@@ -8797,40 +8803,40 @@
         <v>45</v>
       </c>
       <c r="AC46" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD46" t="n">
         <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AG46" t="n">
         <v>101</v>
       </c>
       <c r="AH46" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AI46" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AJ46" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK46" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AM46" t="n">
         <v>200</v>
       </c>
       <c r="AN46" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AO46" t="n">
         <v>5.1</v>
@@ -8839,7 +8845,7 @@
         <v>18.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR46" t="n">
         <v>45</v>
@@ -8851,19 +8857,19 @@
         <v>3.05</v>
       </c>
       <c r="AU46" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AV46" t="n">
         <v>120</v>
       </c>
       <c r="AW46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX46" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AY46" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="inlineStr"/>
@@ -9263,19 +9269,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K49" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L49" t="n">
         <v>4.33</v>
@@ -9287,31 +9293,31 @@
         <v>13</v>
       </c>
       <c r="O49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R49" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S49" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T49" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U49" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X49" t="n">
         <v>9.5</v>
@@ -9320,19 +9326,19 @@
         <v>8.5</v>
       </c>
       <c r="Z49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA49" t="n">
         <v>15</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>13</v>
       </c>
       <c r="AB49" t="n">
         <v>23</v>
       </c>
       <c r="AC49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE49" t="n">
         <v>13</v>
@@ -9341,22 +9347,22 @@
         <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH49" t="n">
         <v>13</v>
       </c>
       <c r="AI49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK49" t="n">
         <v>41</v>
       </c>
       <c r="AL49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM49" t="n">
         <v>34</v>
@@ -9365,13 +9371,13 @@
         <v>4</v>
       </c>
       <c r="AO49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP49" t="n">
         <v>19</v>
       </c>
       <c r="AQ49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR49" t="n">
         <v>51</v>
@@ -9380,10 +9386,10 @@
         <v>126</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV49" t="n">
         <v>51</v>
@@ -9445,22 +9451,22 @@
         </is>
       </c>
       <c r="G50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J50" t="n">
         <v>7</v>
       </c>
-      <c r="H50" t="n">
-        <v>5</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="J50" t="n">
-        <v>7.5</v>
-      </c>
       <c r="K50" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L50" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -9469,16 +9475,16 @@
         <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R50" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S50" t="n">
         <v>1.36</v>
@@ -9487,10 +9493,10 @@
         <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V50" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W50" t="n">
         <v>15</v>
@@ -9511,19 +9517,19 @@
         <v>51</v>
       </c>
       <c r="AC50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD50" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG50" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH50" t="n">
         <v>6.5</v>
@@ -9535,16 +9541,16 @@
         <v>8.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM50" t="n">
         <v>29</v>
       </c>
       <c r="AN50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO50" t="n">
         <v>41</v>
@@ -9556,7 +9562,7 @@
         <v>151</v>
       </c>
       <c r="AR50" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS50" t="n">
         <v>351</v>
@@ -9565,7 +9571,7 @@
         <v>3</v>
       </c>
       <c r="AU50" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV50" t="n">
         <v>67</v>
@@ -9574,13 +9580,13 @@
         <v>3.25</v>
       </c>
       <c r="AX50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY50" t="n">
         <v>19</v>
       </c>
       <c r="AZ50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA50" t="n">
         <v>41</v>
@@ -9630,7 +9636,7 @@
         <v>1.11</v>
       </c>
       <c r="H51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I51" t="n">
         <v>15</v>
@@ -9639,7 +9645,7 @@
         <v>1.44</v>
       </c>
       <c r="K51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L51" t="n">
         <v>13</v>
@@ -9648,61 +9654,61 @@
         <v>1.01</v>
       </c>
       <c r="N51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O51" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="R51" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="S51" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T51" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U51" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V51" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X51" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA51" t="n">
         <v>11</v>
       </c>
       <c r="AB51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF51" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG51" t="n">
         <v>1000</v>
@@ -9714,7 +9720,7 @@
         <v>67</v>
       </c>
       <c r="AJ51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK51" t="n">
         <v>251</v>
@@ -9723,31 +9729,31 @@
         <v>101</v>
       </c>
       <c r="AM51" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AO51" t="n">
         <v>4.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AR51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS51" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT51" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV51" t="n">
         <v>67</v>
@@ -9762,13 +9768,13 @@
         <v>51</v>
       </c>
       <c r="AZ51" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BA51" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB51" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BC51" t="inlineStr"/>
       <c r="BD51" t="inlineStr"/>
@@ -9805,22 +9811,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H52" t="n">
         <v>3.25</v>
       </c>
       <c r="I52" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K52" t="n">
         <v>2.1</v>
       </c>
       <c r="L52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M52" t="n">
         <v>1.06</v>
@@ -9853,10 +9859,10 @@
         <v>1.91</v>
       </c>
       <c r="W52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y52" t="n">
         <v>10</v>
@@ -9868,10 +9874,10 @@
         <v>21</v>
       </c>
       <c r="AB52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD52" t="n">
         <v>6</v>
@@ -9892,25 +9898,25 @@
         <v>13</v>
       </c>
       <c r="AJ52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN52" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO52" t="n">
         <v>15</v>
       </c>
       <c r="AP52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ52" t="n">
         <v>51</v>
@@ -9931,22 +9937,22 @@
         <v>51</v>
       </c>
       <c r="AW52" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX52" t="n">
         <v>15</v>
       </c>
       <c r="AY52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ52" t="n">
         <v>51</v>
       </c>
       <c r="BA52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB52" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC52" t="n">
         <v>126</v>
@@ -9987,16 +9993,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I53" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K53" t="n">
         <v>2</v>
@@ -10038,7 +10044,7 @@
         <v>7.5</v>
       </c>
       <c r="X53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y53" t="n">
         <v>11</v>
@@ -10047,28 +10053,28 @@
         <v>29</v>
       </c>
       <c r="AA53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD53" t="n">
         <v>6</v>
       </c>
       <c r="AE53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF53" t="n">
         <v>51</v>
       </c>
       <c r="AG53" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI53" t="n">
         <v>12</v>
@@ -10101,7 +10107,7 @@
         <v>81</v>
       </c>
       <c r="AS53" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT53" t="n">
         <v>2.5</v>
@@ -10119,7 +10125,7 @@
         <v>15</v>
       </c>
       <c r="AY53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ53" t="n">
         <v>51</v>
@@ -10128,7 +10134,7 @@
         <v>81</v>
       </c>
       <c r="BB53" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC53" t="n">
         <v>126</v>
@@ -10897,22 +10903,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I58" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="J58" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K58" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L58" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
@@ -10921,43 +10927,43 @@
         <v>15</v>
       </c>
       <c r="O58" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P58" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R58" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U58" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X58" t="n">
         <v>10</v>
       </c>
-      <c r="X58" t="n">
-        <v>12</v>
-      </c>
       <c r="Y58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB58" t="n">
         <v>21</v>
@@ -10966,55 +10972,55 @@
         <v>15</v>
       </c>
       <c r="AD58" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF58" t="n">
         <v>41</v>
       </c>
       <c r="AG58" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>13</v>
       </c>
-      <c r="AI58" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>12</v>
-      </c>
       <c r="AK58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL58" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN58" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO58" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ58" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS58" t="n">
         <v>101</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU58" t="n">
         <v>7.5</v>
@@ -11023,22 +11029,22 @@
         <v>41</v>
       </c>
       <c r="AW58" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX58" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY58" t="n">
         <v>23</v>
       </c>
       <c r="AZ58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA58" t="n">
         <v>67</v>
       </c>
       <c r="BB58" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC58" t="n">
         <v>81</v>
@@ -11109,10 +11115,10 @@
         <v>3.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R59" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S59" t="n">
         <v>1.4</v>
@@ -11261,16 +11267,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H60" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K60" t="n">
         <v>2.25</v>
@@ -11291,10 +11297,10 @@
         <v>3.5</v>
       </c>
       <c r="Q60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R60" t="n">
         <v>1.9</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1.95</v>
       </c>
       <c r="S60" t="n">
         <v>1.36</v>
@@ -11303,10 +11309,10 @@
         <v>3</v>
       </c>
       <c r="U60" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V60" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W60" t="n">
         <v>7</v>
@@ -11345,10 +11351,10 @@
         <v>13</v>
       </c>
       <c r="AI60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK60" t="n">
         <v>51</v>
@@ -11369,7 +11375,7 @@
         <v>19</v>
       </c>
       <c r="AQ60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR60" t="n">
         <v>51</v>
@@ -11387,10 +11393,10 @@
         <v>51</v>
       </c>
       <c r="AW60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY60" t="n">
         <v>34</v>
@@ -11439,28 +11445,28 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H61" t="n">
         <v>3.9</v>
       </c>
       <c r="I61" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K61" t="n">
         <v>2.2</v>
       </c>
       <c r="L61" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M61" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
@@ -11469,10 +11475,10 @@
         <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S61" t="n">
         <v>1.44</v>
@@ -11481,37 +11487,37 @@
         <v>2.63</v>
       </c>
       <c r="U61" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V61" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W61" t="n">
         <v>15</v>
       </c>
       <c r="X61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA61" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB61" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF61" t="n">
         <v>81</v>
@@ -11532,13 +11538,13 @@
         <v>9.5</v>
       </c>
       <c r="AL61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM61" t="n">
         <v>34</v>
       </c>
       <c r="AN61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO61" t="n">
         <v>41</v>
@@ -11547,13 +11553,13 @@
         <v>41</v>
       </c>
       <c r="AQ61" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR61" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS61" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AT61" t="n">
         <v>2.63</v>
@@ -11562,16 +11568,16 @@
         <v>10</v>
       </c>
       <c r="AV61" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AX61" t="n">
         <v>7.5</v>
       </c>
       <c r="AY61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ61" t="n">
         <v>23</v>
@@ -11620,37 +11626,37 @@
         <v>7</v>
       </c>
       <c r="H62" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I62" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J62" t="n">
         <v>6.5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M62" t="n">
         <v>1.04</v>
       </c>
       <c r="N62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O62" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R62" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S62" t="n">
         <v>1.33</v>
@@ -11665,7 +11671,7 @@
         <v>1.91</v>
       </c>
       <c r="W62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X62" t="n">
         <v>34</v>
@@ -11674,7 +11680,7 @@
         <v>21</v>
       </c>
       <c r="Z62" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="n">
         <v>51</v>
@@ -11683,10 +11689,10 @@
         <v>51</v>
       </c>
       <c r="AC62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE62" t="n">
         <v>17</v>
@@ -11698,7 +11704,7 @@
         <v>251</v>
       </c>
       <c r="AH62" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI62" t="n">
         <v>7</v>
@@ -11713,7 +11719,7 @@
         <v>12</v>
       </c>
       <c r="AM62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN62" t="n">
         <v>8</v>
@@ -11722,13 +11728,13 @@
         <v>34</v>
       </c>
       <c r="AP62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ62" t="n">
         <v>126</v>
       </c>
       <c r="AR62" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS62" t="n">
         <v>251</v>
@@ -11749,7 +11755,7 @@
         <v>7</v>
       </c>
       <c r="AY62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ62" t="n">
         <v>21</v>
@@ -11973,13 +11979,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H64" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I64" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J64" t="n">
         <v>6</v>
@@ -12151,22 +12157,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K65" t="n">
         <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
@@ -12205,13 +12211,13 @@
         <v>26</v>
       </c>
       <c r="Y65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z65" t="n">
         <v>51</v>
       </c>
       <c r="AA65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB65" t="n">
         <v>41</v>
@@ -12253,7 +12259,7 @@
         <v>6.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP65" t="n">
         <v>29</v>
@@ -12280,7 +12286,7 @@
         <v>3.75</v>
       </c>
       <c r="AX65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY65" t="n">
         <v>19</v>
@@ -12685,34 +12691,34 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H68" t="n">
         <v>5.5</v>
       </c>
       <c r="I68" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K68" t="n">
         <v>2.6</v>
       </c>
       <c r="L68" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O68" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P68" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q68" t="n">
         <v>1.57</v>
@@ -12733,16 +12739,16 @@
         <v>1.8</v>
       </c>
       <c r="W68" t="n">
+        <v>19</v>
+      </c>
+      <c r="X68" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y68" t="n">
         <v>21</v>
       </c>
-      <c r="X68" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>23</v>
-      </c>
       <c r="Z68" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AA68" t="n">
         <v>51</v>
@@ -12805,7 +12811,7 @@
         <v>3.5</v>
       </c>
       <c r="AU68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV68" t="n">
         <v>51</v>
@@ -12863,28 +12869,28 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>3.1</v>
       </c>
       <c r="I69" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M69" t="n">
         <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O69" t="n">
         <v>1.4</v>
@@ -12914,16 +12920,16 @@
         <v>6.5</v>
       </c>
       <c r="X69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y69" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB69" t="n">
         <v>34</v>
@@ -12944,7 +12950,7 @@
         <v>401</v>
       </c>
       <c r="AH69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI69" t="n">
         <v>17</v>
@@ -12956,7 +12962,7 @@
         <v>41</v>
       </c>
       <c r="AL69" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM69" t="n">
         <v>41</v>
@@ -12965,7 +12971,7 @@
         <v>4</v>
       </c>
       <c r="AO69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP69" t="n">
         <v>26</v>
@@ -12989,7 +12995,7 @@
         <v>67</v>
       </c>
       <c r="AW69" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX69" t="n">
         <v>21</v>
@@ -12998,13 +13004,13 @@
         <v>34</v>
       </c>
       <c r="AZ69" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA69" t="n">
         <v>101</v>
       </c>
       <c r="BB69" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC69" t="n">
         <v>81</v>
@@ -13060,7 +13066,7 @@
         <v>2.1</v>
       </c>
       <c r="L70" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
@@ -13069,16 +13075,16 @@
         <v>9</v>
       </c>
       <c r="O70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P70" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R70" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S70" t="n">
         <v>1.44</v>
@@ -13087,13 +13093,13 @@
         <v>2.63</v>
       </c>
       <c r="U70" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V70" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X70" t="n">
         <v>21</v>
@@ -13111,7 +13117,7 @@
         <v>41</v>
       </c>
       <c r="AC70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD70" t="n">
         <v>6</v>
@@ -13123,13 +13129,13 @@
         <v>51</v>
       </c>
       <c r="AG70" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH70" t="n">
         <v>7</v>
       </c>
       <c r="AI70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ70" t="n">
         <v>9</v>
@@ -13138,7 +13144,7 @@
         <v>17</v>
       </c>
       <c r="AL70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM70" t="n">
         <v>29</v>
@@ -13147,10 +13153,10 @@
         <v>6</v>
       </c>
       <c r="AO70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ70" t="n">
         <v>81</v>
@@ -13165,22 +13171,22 @@
         <v>2.63</v>
       </c>
       <c r="AU70" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV70" t="n">
         <v>51</v>
       </c>
       <c r="AW70" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX70" t="n">
         <v>11</v>
       </c>
       <c r="AY70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA70" t="n">
         <v>51</v>
@@ -13227,16 +13233,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K71" t="n">
         <v>2.25</v>
@@ -13251,16 +13257,16 @@
         <v>13</v>
       </c>
       <c r="O71" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R71" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S71" t="n">
         <v>1.36</v>
@@ -13269,16 +13275,16 @@
         <v>3</v>
       </c>
       <c r="U71" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W71" t="n">
         <v>7.5</v>
       </c>
       <c r="X71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y71" t="n">
         <v>8.5</v>
@@ -13293,7 +13299,7 @@
         <v>23</v>
       </c>
       <c r="AC71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD71" t="n">
         <v>7</v>
@@ -13314,7 +13320,7 @@
         <v>26</v>
       </c>
       <c r="AJ71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK71" t="n">
         <v>51</v>
@@ -13329,7 +13335,7 @@
         <v>3.75</v>
       </c>
       <c r="AO71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP71" t="n">
         <v>19</v>
@@ -13409,16 +13415,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H72" t="n">
         <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J72" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K72" t="n">
         <v>1.95</v>
@@ -13439,10 +13445,10 @@
         <v>2.63</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R72" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S72" t="n">
         <v>1.53</v>
@@ -13460,13 +13466,13 @@
         <v>6.5</v>
       </c>
       <c r="X72" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA72" t="n">
         <v>21</v>
@@ -13496,22 +13502,22 @@
         <v>15</v>
       </c>
       <c r="AJ72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK72" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL72" t="n">
         <v>34</v>
       </c>
-      <c r="AL72" t="n">
-        <v>29</v>
-      </c>
       <c r="AM72" t="n">
         <v>41</v>
       </c>
       <c r="AN72" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP72" t="n">
         <v>29</v>
@@ -13538,7 +13544,7 @@
         <v>5</v>
       </c>
       <c r="AX72" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY72" t="n">
         <v>34</v>
@@ -13615,16 +13621,16 @@
         <v>9</v>
       </c>
       <c r="O73" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P73" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S73" t="n">
         <v>1.44</v>
@@ -13773,7 +13779,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H74" t="n">
         <v>2.45</v>
@@ -13797,10 +13803,10 @@
         <v>5.5</v>
       </c>
       <c r="O74" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P74" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q74" t="n">
         <v>2.88</v>
@@ -13824,7 +13830,7 @@
         <v>6</v>
       </c>
       <c r="X74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y74" t="n">
         <v>11</v>
@@ -13839,22 +13845,22 @@
         <v>41</v>
       </c>
       <c r="AC74" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD74" t="n">
         <v>5.5</v>
       </c>
       <c r="AE74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF74" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG74" t="n">
         <v>301</v>
       </c>
       <c r="AH74" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI74" t="n">
         <v>15</v>
@@ -13951,61 +13957,61 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L75" t="n">
         <v>3.2</v>
       </c>
-      <c r="I75" t="n">
+      <c r="M75" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T75" t="n">
         <v>2.25</v>
       </c>
-      <c r="J75" t="n">
-        <v>4</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N75" t="n">
-        <v>8</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P75" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T75" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U75" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V75" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W75" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X75" t="n">
         <v>15</v>
       </c>
       <c r="Y75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z75" t="n">
         <v>41</v>
@@ -14017,7 +14023,7 @@
         <v>41</v>
       </c>
       <c r="AC75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD75" t="n">
         <v>6</v>
@@ -14026,7 +14032,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG75" t="n">
         <v>501</v>
@@ -14044,7 +14050,7 @@
         <v>21</v>
       </c>
       <c r="AL75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM75" t="n">
         <v>41</v>
@@ -14062,25 +14068,25 @@
         <v>67</v>
       </c>
       <c r="AR75" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS75" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU75" t="n">
         <v>9</v>
       </c>
       <c r="AV75" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW75" t="n">
         <v>4</v>
       </c>
       <c r="AX75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY75" t="n">
         <v>29</v>
@@ -14092,7 +14098,7 @@
         <v>81</v>
       </c>
       <c r="BB75" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC75" t="n">
         <v>126</v>
@@ -14133,22 +14139,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H76" t="n">
         <v>7.5</v>
       </c>
       <c r="I76" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K76" t="n">
         <v>2.88</v>
       </c>
       <c r="L76" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M76" t="n">
         <v>1.02</v>
@@ -14163,10 +14169,10 @@
         <v>5.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R76" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S76" t="n">
         <v>1.25</v>
@@ -14175,10 +14181,10 @@
         <v>3.75</v>
       </c>
       <c r="U76" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V76" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W76" t="n">
         <v>29</v>
@@ -14193,7 +14199,7 @@
         <v>201</v>
       </c>
       <c r="AA76" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AB76" t="n">
         <v>81</v>
@@ -14202,7 +14208,7 @@
         <v>17</v>
       </c>
       <c r="AD76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE76" t="n">
         <v>29</v>
@@ -14223,13 +14229,13 @@
         <v>10</v>
       </c>
       <c r="AK76" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AL76" t="n">
         <v>11</v>
       </c>
       <c r="AM76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN76" t="n">
         <v>13</v>
@@ -14247,7 +14253,7 @@
         <v>301</v>
       </c>
       <c r="AS76" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AT76" t="n">
         <v>3.75</v>
@@ -14679,10 +14685,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I79" t="n">
         <v>4.5</v>
@@ -14697,40 +14703,40 @@
         <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P79" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R79" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S79" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T79" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U79" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W79" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X79" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y79" t="n">
         <v>8.5</v>
@@ -14742,10 +14748,10 @@
         <v>15</v>
       </c>
       <c r="AB79" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD79" t="n">
         <v>7</v>
@@ -14757,7 +14763,7 @@
         <v>51</v>
       </c>
       <c r="AG79" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH79" t="n">
         <v>12</v>
@@ -14796,7 +14802,7 @@
         <v>151</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU79" t="n">
         <v>8.5</v>
@@ -14814,10 +14820,10 @@
         <v>34</v>
       </c>
       <c r="AZ79" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA79" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB79" t="n">
         <v>251</v>
@@ -14861,28 +14867,28 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>3.3</v>
       </c>
       <c r="I80" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J80" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K80" t="n">
         <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M80" t="n">
         <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O80" t="n">
         <v>1.33</v>
@@ -14909,19 +14915,19 @@
         <v>1.83</v>
       </c>
       <c r="W80" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z80" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB80" t="n">
         <v>29</v>
@@ -14942,28 +14948,28 @@
         <v>251</v>
       </c>
       <c r="AH80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI80" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP80" t="n">
         <v>23</v>
@@ -14972,7 +14978,7 @@
         <v>41</v>
       </c>
       <c r="AR80" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS80" t="n">
         <v>151</v>
@@ -14987,16 +14993,16 @@
         <v>51</v>
       </c>
       <c r="AW80" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY80" t="n">
         <v>29</v>
       </c>
       <c r="AZ80" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA80" t="n">
         <v>81</v>
@@ -15043,28 +15049,28 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I81" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J81" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K81" t="n">
         <v>2.1</v>
       </c>
       <c r="L81" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N81" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O81" t="n">
         <v>1.33</v>
@@ -15094,7 +15100,7 @@
         <v>6.5</v>
       </c>
       <c r="X81" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -15103,13 +15109,13 @@
         <v>15</v>
       </c>
       <c r="AA81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB81" t="n">
         <v>29</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD81" t="n">
         <v>6.5</v>
@@ -15124,19 +15130,19 @@
         <v>351</v>
       </c>
       <c r="AH81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI81" t="n">
         <v>21</v>
       </c>
       <c r="AJ81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK81" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL81" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM81" t="n">
         <v>41</v>
@@ -15145,10 +15151,10 @@
         <v>3.75</v>
       </c>
       <c r="AO81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ81" t="n">
         <v>34</v>
@@ -15172,7 +15178,7 @@
         <v>6</v>
       </c>
       <c r="AX81" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY81" t="n">
         <v>34</v>
@@ -15181,7 +15187,7 @@
         <v>81</v>
       </c>
       <c r="BA81" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB81" t="n">
         <v>251</v>
@@ -15225,13 +15231,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>3.25</v>
       </c>
       <c r="I82" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J82" t="n">
         <v>3.4</v>
@@ -15240,7 +15246,7 @@
         <v>2.05</v>
       </c>
       <c r="L82" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M82" t="n">
         <v>1.07</v>
@@ -15255,16 +15261,16 @@
         <v>3.2</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R82" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S82" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T82" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U82" t="n">
         <v>1.91</v>
@@ -15273,16 +15279,16 @@
         <v>1.91</v>
       </c>
       <c r="W82" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z82" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA82" t="n">
         <v>23</v>
@@ -15309,13 +15315,13 @@
         <v>8</v>
       </c>
       <c r="AI82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK82" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL82" t="n">
         <v>23</v>
@@ -15324,7 +15330,7 @@
         <v>34</v>
       </c>
       <c r="AN82" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO82" t="n">
         <v>15</v>
@@ -15342,16 +15348,16 @@
         <v>201</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU82" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV82" t="n">
         <v>51</v>
       </c>
       <c r="AW82" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX82" t="n">
         <v>15</v>
@@ -15763,22 +15769,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="H85" t="n">
         <v>5.5</v>
       </c>
       <c r="I85" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J85" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="K85" t="n">
         <v>2.77</v>
       </c>
       <c r="L85" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M85" t="n">
         <v>1.02</v>
@@ -15787,16 +15793,16 @@
         <v>10</v>
       </c>
       <c r="O85" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P85" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R85" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="S85" t="n">
         <v>1.23</v>
@@ -15805,43 +15811,43 @@
         <v>3.7</v>
       </c>
       <c r="U85" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V85" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W85" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X85" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y85" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z85" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AA85" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB85" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC85" t="n">
         <v>10</v>
       </c>
       <c r="AD85" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE85" t="n">
         <v>21</v>
       </c>
       <c r="AF85" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG85" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH85" t="n">
         <v>9.75</v>
@@ -15853,7 +15859,7 @@
         <v>9.25</v>
       </c>
       <c r="AK85" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AL85" t="n">
         <v>10</v>
@@ -15862,16 +15868,16 @@
         <v>23</v>
       </c>
       <c r="AN85" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AO85" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP85" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ85" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AR85" t="n">
         <v>300</v>
@@ -15892,16 +15898,16 @@
         <v>3.3</v>
       </c>
       <c r="AX85" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AY85" t="n">
         <v>13.5</v>
       </c>
       <c r="AZ85" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="BA85" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BB85" t="n">
         <v>150</v>
@@ -15941,28 +15947,28 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J86" t="n">
         <v>3.25</v>
       </c>
-      <c r="I86" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2.95</v>
-      </c>
       <c r="K86" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L86" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M86" t="n">
         <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O86" t="n">
         <v>1.24</v>
@@ -15974,112 +15980,112 @@
         <v>1.72</v>
       </c>
       <c r="R86" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S86" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T86" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="U86" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V86" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W86" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="X86" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z86" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB86" t="n">
         <v>26</v>
       </c>
-      <c r="AA86" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>24</v>
-      </c>
       <c r="AC86" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD86" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE86" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG86" t="n">
         <v>300</v>
       </c>
       <c r="AH86" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI86" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AJ86" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AK86" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AL86" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AM86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN86" t="n">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="AO86" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AP86" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AQ86" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AR86" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS86" t="n">
         <v>200</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU86" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV86" t="n">
         <v>50</v>
       </c>
       <c r="AW86" t="n">
-        <v>4.9</v>
+        <v>4.45</v>
       </c>
       <c r="AX86" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AY86" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ86" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="BA86" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB86" t="n">
         <v>200</v>
@@ -16119,13 +16125,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="H87" t="n">
         <v>3.3</v>
       </c>
       <c r="I87" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="J87" t="n">
         <v>3.15</v>
@@ -16134,7 +16140,7 @@
         <v>2.1</v>
       </c>
       <c r="L87" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M87" t="n">
         <v>1.06</v>
@@ -16167,13 +16173,13 @@
         <v>2.15</v>
       </c>
       <c r="W87" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X87" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z87" t="n">
         <v>32</v>
@@ -16191,7 +16197,7 @@
         <v>6.7</v>
       </c>
       <c r="AE87" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF87" t="n">
         <v>55</v>
@@ -16200,25 +16206,25 @@
         <v>400</v>
       </c>
       <c r="AH87" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ87" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL87" t="n">
         <v>22</v>
       </c>
       <c r="AM87" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN87" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AO87" t="n">
         <v>14</v>
@@ -16245,13 +16251,13 @@
         <v>55</v>
       </c>
       <c r="AW87" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AX87" t="n">
         <v>14</v>
       </c>
       <c r="AY87" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ87" t="n">
         <v>60</v>
@@ -16301,16 +16307,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H88" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I88" t="n">
         <v>1.8</v>
       </c>
       <c r="J88" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="K88" t="n">
         <v>2.22</v>
@@ -16325,10 +16331,10 @@
         <v>8.75</v>
       </c>
       <c r="O88" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P88" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q88" t="n">
         <v>1.75</v>
@@ -16343,13 +16349,13 @@
         <v>2.95</v>
       </c>
       <c r="U88" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V88" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W88" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X88" t="n">
         <v>24</v>
@@ -16358,7 +16364,7 @@
         <v>14</v>
       </c>
       <c r="Z88" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA88" t="n">
         <v>37</v>
@@ -16370,13 +16376,13 @@
         <v>8.75</v>
       </c>
       <c r="AD88" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AE88" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG88" t="n">
         <v>500</v>
@@ -16400,7 +16406,7 @@
         <v>26</v>
       </c>
       <c r="AN88" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO88" t="n">
         <v>21</v>
@@ -16421,7 +16427,7 @@
         <v>2.95</v>
       </c>
       <c r="AU88" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV88" t="n">
         <v>65</v>
@@ -16666,16 +16672,16 @@
         <v>1.8</v>
       </c>
       <c r="H90" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I90" t="n">
         <v>4.5</v>
       </c>
       <c r="J90" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L90" t="n">
         <v>5</v>
@@ -16684,25 +16690,25 @@
         <v>1.08</v>
       </c>
       <c r="N90" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P90" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R90" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S90" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T90" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U90" t="n">
         <v>2.1</v>
@@ -16711,7 +16717,7 @@
         <v>1.67</v>
       </c>
       <c r="W90" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X90" t="n">
         <v>7.5</v>
@@ -16720,7 +16726,7 @@
         <v>9</v>
       </c>
       <c r="Z90" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA90" t="n">
         <v>17</v>
@@ -16729,22 +16735,22 @@
         <v>34</v>
       </c>
       <c r="AC90" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD90" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE90" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF90" t="n">
         <v>67</v>
       </c>
       <c r="AG90" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH90" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI90" t="n">
         <v>21</v>
@@ -16759,7 +16765,7 @@
         <v>41</v>
       </c>
       <c r="AM90" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN90" t="n">
         <v>3.6</v>
@@ -16768,28 +16774,28 @@
         <v>10</v>
       </c>
       <c r="AP90" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR90" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS90" t="n">
         <v>201</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU90" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV90" t="n">
         <v>67</v>
       </c>
       <c r="AW90" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX90" t="n">
         <v>26</v>
@@ -16845,58 +16851,58 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I91" t="n">
         <v>4.33</v>
       </c>
       <c r="J91" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K91" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L91" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M91" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O91" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P91" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R91" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S91" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T91" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U91" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V91" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W91" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y91" t="n">
         <v>8.5</v>
@@ -16908,28 +16914,28 @@
         <v>15</v>
       </c>
       <c r="AB91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC91" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD91" t="n">
         <v>7</v>
       </c>
       <c r="AE91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF91" t="n">
         <v>51</v>
       </c>
       <c r="AG91" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI91" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ91" t="n">
         <v>15</v>
@@ -16938,7 +16944,7 @@
         <v>51</v>
       </c>
       <c r="AL91" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM91" t="n">
         <v>41</v>
@@ -16953,7 +16959,7 @@
         <v>21</v>
       </c>
       <c r="AQ91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR91" t="n">
         <v>51</v>
@@ -16962,10 +16968,10 @@
         <v>151</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV91" t="n">
         <v>51</v>
@@ -16974,7 +16980,7 @@
         <v>6</v>
       </c>
       <c r="AX91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY91" t="n">
         <v>34</v>
@@ -16986,7 +16992,7 @@
         <v>101</v>
       </c>
       <c r="BB91" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC91" t="n">
         <v>81</v>
@@ -17048,7 +17054,7 @@
         <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O92" t="n">
         <v>1.4</v>
@@ -17394,55 +17400,55 @@
         <v>2.2</v>
       </c>
       <c r="H94" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J94" t="n">
         <v>2.88</v>
       </c>
       <c r="K94" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L94" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M94" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N94" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O94" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P94" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R94" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S94" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T94" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U94" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V94" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W94" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y94" t="n">
         <v>9</v>
@@ -17454,13 +17460,13 @@
         <v>17</v>
       </c>
       <c r="AB94" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC94" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD94" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE94" t="n">
         <v>13</v>
@@ -17469,7 +17475,7 @@
         <v>41</v>
       </c>
       <c r="AG94" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH94" t="n">
         <v>11</v>
@@ -17490,7 +17496,7 @@
         <v>29</v>
       </c>
       <c r="AN94" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO94" t="n">
         <v>12</v>
@@ -17505,10 +17511,10 @@
         <v>51</v>
       </c>
       <c r="AS94" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT94" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU94" t="n">
         <v>7.5</v>
@@ -17523,7 +17529,7 @@
         <v>17</v>
       </c>
       <c r="AY94" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ94" t="n">
         <v>51</v>
@@ -17576,37 +17582,37 @@
         <v>2.15</v>
       </c>
       <c r="H95" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I95" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J95" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K95" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L95" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M95" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O95" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P95" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R95" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S95" t="n">
         <v>1.36</v>
@@ -17615,13 +17621,13 @@
         <v>3</v>
       </c>
       <c r="U95" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V95" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W95" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X95" t="n">
         <v>11</v>
@@ -17636,10 +17642,10 @@
         <v>17</v>
       </c>
       <c r="AB95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD95" t="n">
         <v>6.5</v>
@@ -17651,10 +17657,10 @@
         <v>41</v>
       </c>
       <c r="AG95" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI95" t="n">
         <v>17</v>
@@ -17666,10 +17672,10 @@
         <v>34</v>
       </c>
       <c r="AL95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM95" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN95" t="n">
         <v>4.33</v>
@@ -17687,7 +17693,7 @@
         <v>51</v>
       </c>
       <c r="AS95" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT95" t="n">
         <v>3</v>
@@ -17705,7 +17711,7 @@
         <v>17</v>
       </c>
       <c r="AY95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ95" t="n">
         <v>51</v>
@@ -18297,22 +18303,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="H99" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="I99" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J99" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K99" t="n">
         <v>2.5</v>
       </c>
       <c r="L99" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M99" t="n">
         <v>1.03</v>
@@ -18321,28 +18327,28 @@
         <v>17</v>
       </c>
       <c r="O99" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P99" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R99" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S99" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T99" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U99" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V99" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W99" t="n">
         <v>8</v>
@@ -18354,37 +18360,37 @@
         <v>8.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB99" t="n">
         <v>23</v>
       </c>
       <c r="AC99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ99" t="n">
         <v>17</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>19</v>
       </c>
       <c r="AK99" t="n">
         <v>67</v>
@@ -18399,13 +18405,13 @@
         <v>3.5</v>
       </c>
       <c r="AO99" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP99" t="n">
         <v>17</v>
       </c>
       <c r="AQ99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR99" t="n">
         <v>41</v>
@@ -18414,7 +18420,7 @@
         <v>101</v>
       </c>
       <c r="AT99" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU99" t="n">
         <v>8.5</v>
@@ -18423,7 +18429,7 @@
         <v>51</v>
       </c>
       <c r="AW99" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX99" t="n">
         <v>34</v>
@@ -18432,13 +18438,13 @@
         <v>34</v>
       </c>
       <c r="AZ99" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA99" t="n">
         <v>126</v>
       </c>
       <c r="BB99" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC99" t="n">
         <v>276</v>
@@ -19025,10 +19031,10 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I103" t="n">
         <v>5.5</v>
@@ -19037,34 +19043,34 @@
         <v>2.1</v>
       </c>
       <c r="K103" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L103" t="n">
         <v>6</v>
       </c>
       <c r="M103" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O103" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P103" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R103" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S103" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T103" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U103" t="n">
         <v>2</v>
@@ -19082,7 +19088,7 @@
         <v>8.5</v>
       </c>
       <c r="Z103" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA103" t="n">
         <v>13</v>
@@ -19091,7 +19097,7 @@
         <v>29</v>
       </c>
       <c r="AC103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD103" t="n">
         <v>8</v>
@@ -19100,7 +19106,7 @@
         <v>19</v>
       </c>
       <c r="AF103" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG103" t="n">
         <v>351</v>
@@ -19118,7 +19124,7 @@
         <v>67</v>
       </c>
       <c r="AL103" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM103" t="n">
         <v>51</v>
@@ -19130,25 +19136,25 @@
         <v>7.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ103" t="n">
         <v>23</v>
       </c>
       <c r="AR103" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS103" t="n">
         <v>151</v>
       </c>
       <c r="AT103" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU103" t="n">
         <v>9</v>
       </c>
       <c r="AV103" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW103" t="n">
         <v>7.5</v>
@@ -19571,40 +19577,40 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="H106" t="n">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="I106" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="J106" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="K106" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="L106" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="M106" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N106" t="n">
-        <v>11.4</v>
+        <v>9</v>
       </c>
       <c r="O106" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P106" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q106" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R106" t="n">
         <v>1.82</v>
-      </c>
-      <c r="R106" t="n">
-        <v>1.78</v>
       </c>
       <c r="S106" t="n">
         <v>1.38</v>
@@ -19613,100 +19619,100 @@
         <v>2.6</v>
       </c>
       <c r="U106" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="V106" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="W106" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="X106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y106" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Z106" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AA106" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AB106" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AC106" t="n">
         <v>10.25</v>
       </c>
       <c r="AD106" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AE106" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF106" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG106" t="n">
         <v>1000</v>
       </c>
       <c r="AH106" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI106" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AJ106" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK106" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AL106" t="n">
         <v>12.5</v>
       </c>
       <c r="AM106" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN106" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AO106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AP106" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AQ106" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AR106" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AS106" t="n">
         <v>81</v>
       </c>
       <c r="AT106" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU106" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AV106" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW106" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AX106" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AY106" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ106" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA106" t="n">
         <v>55</v>
@@ -20113,73 +20119,73 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I109" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="J109" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K109" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L109" t="n">
         <v>2.52</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2.37</v>
       </c>
       <c r="M109" t="n">
         <v>1.01</v>
       </c>
       <c r="N109" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="O109" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P109" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="R109" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="S109" t="n">
         <v>1.21</v>
       </c>
       <c r="T109" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="U109" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="V109" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="W109" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="X109" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z109" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AA109" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB109" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC109" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD109" t="n">
         <v>9.25</v>
@@ -20188,70 +20194,70 @@
         <v>10.75</v>
       </c>
       <c r="AF109" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG109" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AH109" t="n">
         <v>16</v>
       </c>
       <c r="AI109" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ109" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK109" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL109" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AM109" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP109" t="n">
         <v>15</v>
       </c>
-      <c r="AN109" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP109" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AQ109" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR109" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS109" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AT109" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU109" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AV109" t="n">
         <v>30</v>
       </c>
       <c r="AW109" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AX109" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AY109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ109" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BA109" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BB109" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>2.6</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -971,22 +971,22 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
         <v>12</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -995,7 +995,7 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>10</v>
@@ -1013,10 +1013,10 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>67</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>7.5</v>
@@ -1070,7 +1070,7 @@
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
         <v>351</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I4" t="n">
         <v>7</v>
@@ -1135,10 +1135,10 @@
         <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.36</v>
@@ -1180,10 +1180,10 @@
         <v>26</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1198,13 +1198,13 @@
         <v>41</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>81</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1219,28 +1219,28 @@
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT4" t="n">
         <v>4.33</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1249,10 +1249,10 @@
         <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>301</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.33</v>
       </c>
-      <c r="H5" t="n">
-        <v>4.5</v>
-      </c>
       <c r="I5" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.75</v>
       </c>
       <c r="L5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1341,34 +1341,34 @@
         <v>3.25</v>
       </c>
       <c r="W5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X5" t="n">
         <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
         <v>51</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
         <v>34</v>
       </c>
       <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
         <v>12</v>
       </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
         <v>67</v>
@@ -1377,13 +1377,13 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>13</v>
@@ -1392,13 +1392,13 @@
         <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1413,25 +1413,25 @@
         <v>4.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA5" t="n">
         <v>34</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>29</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>
@@ -1440,7 +1440,7 @@
         <v>151</v>
       </c>
       <c r="BD5" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1705,19 +1705,19 @@
         <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1738,34 +1738,34 @@
         <v>501</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
         <v>34</v>
       </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>81</v>
@@ -1786,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
@@ -1854,7 +1854,7 @@
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1869,10 +1869,10 @@
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1899,7 +1899,7 @@
         <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1923,10 +1923,10 @@
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1968,7 +1968,7 @@
         <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -2039,10 +2039,10 @@
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2051,22 +2051,22 @@
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2078,19 +2078,19 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2099,19 +2099,19 @@
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH9" t="n">
         <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2120,16 +2120,16 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2138,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="AX9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
@@ -2165,7 +2165,7 @@
         <v>351</v>
       </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2206,7 +2206,7 @@
         <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
@@ -2239,25 +2239,25 @@
         <v>3.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
         <v>13</v>
       </c>
       <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>11</v>
@@ -2269,7 +2269,7 @@
         <v>19</v>
       </c>
       <c r="AC10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD10" t="n">
         <v>12</v>
@@ -2320,7 +2320,7 @@
         <v>67</v>
       </c>
       <c r="AT10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2329,7 +2329,7 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX10" t="n">
         <v>34</v>
@@ -2341,10 +2341,10 @@
         <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
         <v>301</v>
@@ -2591,10 +2591,10 @@
         <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
         <v>1.44</v>
@@ -2603,10 +2603,10 @@
         <v>2.75</v>
       </c>
       <c r="S12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U12" t="n">
         <v>1.7</v>
@@ -2618,10 +2618,10 @@
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
         <v>9.5</v>
@@ -2648,19 +2648,19 @@
         <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>81</v>
       </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2669,7 +2669,7 @@
         <v>3.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP12" t="n">
         <v>15</v>
@@ -2684,7 +2684,7 @@
         <v>81</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU12" t="n">
         <v>8.5</v>
@@ -2708,10 +2708,10 @@
         <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2773,22 +2773,22 @@
         <v>17</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U13" t="n">
         <v>1.44</v>
@@ -2797,16 +2797,16 @@
         <v>2.63</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>15</v>
@@ -2815,19 +2815,19 @@
         <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="n">
         <v>15</v>
@@ -2836,22 +2836,22 @@
         <v>19</v>
       </c>
       <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO13" t="n">
         <v>12</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>17</v>
@@ -2866,7 +2866,7 @@
         <v>81</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU13" t="n">
         <v>7</v>
@@ -2881,10 +2881,10 @@
         <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
@@ -2893,7 +2893,7 @@
         <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -3492,7 +3492,7 @@
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3501,16 +3501,16 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3558,16 +3558,16 @@
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
         <v>17</v>
@@ -3579,10 +3579,10 @@
         <v>5.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
         <v>67</v>
@@ -3624,7 +3624,7 @@
         <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -4402,7 +4402,7 @@
         <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -4411,16 +4411,16 @@
         <v>23</v>
       </c>
       <c r="O22" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R22" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S22" t="n">
         <v>1.22</v>
@@ -4435,7 +4435,7 @@
         <v>1.75</v>
       </c>
       <c r="W22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
         <v>7</v>
@@ -4450,7 +4450,7 @@
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
         <v>21</v>
@@ -4459,16 +4459,16 @@
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF22" t="n">
         <v>67</v>
       </c>
       <c r="AG22" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
         <v>51</v>
@@ -4522,10 +4522,10 @@
         <v>41</v>
       </c>
       <c r="AZ22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB22" t="n">
         <v>351</v>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
@@ -4593,37 +4593,37 @@
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
         <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>41</v>
@@ -4665,13 +4665,13 @@
         <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN23" t="n">
         <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>26</v>
@@ -4683,13 +4683,13 @@
         <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
@@ -4704,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
         <v>51</v>
@@ -5113,46 +5113,46 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H26" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U26" t="n">
         <v>2.5</v>
@@ -5170,7 +5170,7 @@
         <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA26" t="n">
         <v>13</v>
@@ -5192,34 +5192,34 @@
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>41</v>
       </c>
       <c r="AJ26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP26" t="n">
         <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>51</v>
@@ -5228,7 +5228,7 @@
         <v>201</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU26" t="n">
         <v>11</v>
@@ -5237,7 +5237,7 @@
         <v>81</v>
       </c>
       <c r="AW26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX26" t="n">
         <v>51</v>
@@ -5249,7 +5249,7 @@
         <v>301</v>
       </c>
       <c r="BA26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB26" t="n">
         <v>451</v>
@@ -5258,7 +5258,7 @@
         <v>126</v>
       </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -5299,13 +5299,13 @@
         <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J27" t="n">
         <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L27" t="n">
         <v>4</v>
@@ -5323,10 +5323,10 @@
         <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S27" t="n">
         <v>1.3</v>
@@ -5335,10 +5335,10 @@
         <v>3.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W27" t="n">
         <v>9.5</v>
@@ -5365,16 +5365,16 @@
         <v>7.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5386,7 +5386,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>29</v>
@@ -5401,7 +5401,7 @@
         <v>17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR27" t="n">
         <v>41</v>
@@ -5437,7 +5437,7 @@
         <v>151</v>
       </c>
       <c r="BC27" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD27" t="n">
         <v>151</v>
@@ -5505,10 +5505,10 @@
         <v>8</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S28" t="n">
         <v>1.18</v>
@@ -5857,10 +5857,10 @@
         <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.62</v>
@@ -6037,10 +6037,10 @@
         <v>12</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.33</v>
@@ -6217,10 +6217,10 @@
         <v>5.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O32" t="n">
         <v>1.5</v>
@@ -6346,7 +6346,7 @@
         <v>126</v>
       </c>
       <c r="BD32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -7285,73 +7285,73 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J38" t="n">
         <v>3.75</v>
       </c>
       <c r="K38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N38" t="n">
+        <v>13</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V38" t="n">
         <v>2.2</v>
       </c>
-      <c r="L38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N38" t="n">
-        <v>11</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="n">
         <v>12</v>
       </c>
       <c r="Z38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA38" t="n">
         <v>26</v>
       </c>
       <c r="AB38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
         <v>6.5</v>
@@ -7363,10 +7363,10 @@
         <v>41</v>
       </c>
       <c r="AG38" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI38" t="n">
         <v>11</v>
@@ -7378,10 +7378,10 @@
         <v>19</v>
       </c>
       <c r="AL38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN38" t="n">
         <v>5.5</v>
@@ -7390,19 +7390,19 @@
         <v>19</v>
       </c>
       <c r="AP38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ38" t="n">
         <v>51</v>
       </c>
       <c r="AR38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS38" t="n">
         <v>151</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU38" t="n">
         <v>7.5</v>
@@ -7414,19 +7414,19 @@
         <v>4.33</v>
       </c>
       <c r="AX38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA38" t="n">
         <v>51</v>
       </c>
       <c r="BB38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC38" t="n">
         <v>501</v>
@@ -7467,22 +7467,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
         <v>3.6</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7497,10 +7497,10 @@
         <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S39" t="n">
         <v>1.3</v>
@@ -7515,7 +7515,7 @@
         <v>2.25</v>
       </c>
       <c r="W39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X39" t="n">
         <v>11</v>
@@ -7524,7 +7524,7 @@
         <v>8.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
         <v>15</v>
@@ -7554,7 +7554,7 @@
         <v>21</v>
       </c>
       <c r="AJ39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK39" t="n">
         <v>41</v>
@@ -7566,7 +7566,7 @@
         <v>29</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO39" t="n">
         <v>10</v>
@@ -7587,13 +7587,13 @@
         <v>3.4</v>
       </c>
       <c r="AU39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV39" t="n">
         <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX39" t="n">
         <v>19</v>
@@ -7608,10 +7608,10 @@
         <v>67</v>
       </c>
       <c r="BB39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC39" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD39" t="n">
         <v>151</v>
@@ -8013,28 +8013,28 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H42" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I42" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K42" t="n">
         <v>2.5</v>
       </c>
       <c r="L42" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O42" t="n">
         <v>1.18</v>
@@ -8043,40 +8043,40 @@
         <v>4.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R42" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U42" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y42" t="n">
         <v>8.5</v>
       </c>
       <c r="Z42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA42" t="n">
         <v>11</v>
       </c>
-      <c r="AA42" t="n">
-        <v>12</v>
-      </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC42" t="n">
         <v>15</v>
@@ -8085,13 +8085,13 @@
         <v>8.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH42" t="n">
         <v>19</v>
@@ -8100,7 +8100,7 @@
         <v>34</v>
       </c>
       <c r="AJ42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK42" t="n">
         <v>67</v>
@@ -8112,16 +8112,16 @@
         <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP42" t="n">
         <v>17</v>
       </c>
       <c r="AQ42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR42" t="n">
         <v>41</v>
@@ -8130,19 +8130,19 @@
         <v>101</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW42" t="n">
         <v>8</v>
       </c>
-      <c r="AV42" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AX42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY42" t="n">
         <v>34</v>
@@ -8151,7 +8151,7 @@
         <v>101</v>
       </c>
       <c r="BA42" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB42" t="n">
         <v>201</v>
@@ -8377,28 +8377,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H44" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I44" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
         <v>1.91</v>
       </c>
       <c r="L44" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.5</v>
@@ -8428,13 +8428,13 @@
         <v>6</v>
       </c>
       <c r="X44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
       </c>
       <c r="Z44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
@@ -8455,7 +8455,7 @@
         <v>67</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH44" t="n">
         <v>8.5</v>
@@ -8470,7 +8470,7 @@
         <v>41</v>
       </c>
       <c r="AL44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM44" t="n">
         <v>51</v>
@@ -8485,7 +8485,7 @@
         <v>29</v>
       </c>
       <c r="AQ44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR44" t="n">
         <v>81</v>
@@ -8506,7 +8506,7 @@
         <v>5.5</v>
       </c>
       <c r="AX44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY44" t="n">
         <v>34</v>
@@ -8737,19 +8737,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H46" t="n">
         <v>5.7</v>
       </c>
       <c r="I46" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J46" t="n">
         <v>1.62</v>
       </c>
       <c r="K46" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="L46" t="n">
         <v>11</v>
@@ -8761,7 +8761,7 @@
         <v>9.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
         <v>4.05</v>
@@ -8773,13 +8773,13 @@
         <v>2.15</v>
       </c>
       <c r="S46" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T46" t="n">
         <v>3.05</v>
       </c>
       <c r="U46" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V46" t="n">
         <v>1.5</v>
@@ -8791,7 +8791,7 @@
         <v>5.6</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z46" t="n">
         <v>6.8</v>
@@ -8818,16 +8818,16 @@
         <v>101</v>
       </c>
       <c r="AH46" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI46" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AJ46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK46" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL46" t="n">
         <v>300</v>
@@ -8845,10 +8845,10 @@
         <v>18.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AR46" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS46" t="n">
         <v>300</v>
@@ -8863,10 +8863,10 @@
         <v>120</v>
       </c>
       <c r="AW46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AY46" t="n">
         <v>75</v>
@@ -8909,22 +8909,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H47" t="n">
         <v>4.3</v>
       </c>
       <c r="I47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J47" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K47" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L47" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8936,19 +8936,19 @@
         <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="Q47" t="n">
         <v>1.52</v>
       </c>
       <c r="R47" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="S47" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T47" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U47" t="n">
         <v>1.6</v>
@@ -8957,22 +8957,22 @@
         <v>2.22</v>
       </c>
       <c r="W47" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X47" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z47" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB47" t="n">
         <v>45</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>40</v>
       </c>
       <c r="AC47" t="n">
         <v>10</v>
@@ -8999,22 +8999,22 @@
         <v>8.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL47" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN47" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AO47" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ47" t="n">
         <v>150</v>
@@ -9026,7 +9026,7 @@
         <v>300</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU47" t="n">
         <v>7</v>
@@ -9035,22 +9035,22 @@
         <v>50</v>
       </c>
       <c r="AW47" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AX47" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AY47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AZ47" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BA47" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BB47" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
@@ -9636,19 +9636,19 @@
         <v>1.11</v>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I51" t="n">
         <v>15</v>
       </c>
       <c r="J51" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="K51" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M51" t="n">
         <v>1.01</v>
@@ -9663,10 +9663,10 @@
         <v>7</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R51" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S51" t="n">
         <v>1.2</v>
@@ -9684,7 +9684,7 @@
         <v>10</v>
       </c>
       <c r="X51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y51" t="n">
         <v>12</v>
@@ -9699,10 +9699,10 @@
         <v>34</v>
       </c>
       <c r="AC51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE51" t="n">
         <v>41</v>
@@ -9732,7 +9732,7 @@
         <v>81</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO51" t="n">
         <v>4.5</v>
@@ -9741,10 +9741,10 @@
         <v>17</v>
       </c>
       <c r="AQ51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AR51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS51" t="n">
         <v>126</v>
@@ -9759,7 +9759,7 @@
         <v>67</v>
       </c>
       <c r="AW51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX51" t="n">
         <v>67</v>
@@ -9768,7 +9768,7 @@
         <v>51</v>
       </c>
       <c r="AZ51" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BA51" t="n">
         <v>351</v>
@@ -11085,22 +11085,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H59" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J59" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K59" t="n">
         <v>2.2</v>
       </c>
       <c r="L59" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M59" t="n">
         <v>1.05</v>
@@ -11136,13 +11136,13 @@
         <v>7.5</v>
       </c>
       <c r="X59" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA59" t="n">
         <v>15</v>
@@ -11154,10 +11154,10 @@
         <v>11</v>
       </c>
       <c r="AD59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF59" t="n">
         <v>51</v>
@@ -11166,10 +11166,10 @@
         <v>251</v>
       </c>
       <c r="AH59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ59" t="n">
         <v>13</v>
@@ -11178,22 +11178,22 @@
         <v>41</v>
       </c>
       <c r="AL59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM59" t="n">
         <v>34</v>
       </c>
-      <c r="AM59" t="n">
-        <v>41</v>
-      </c>
       <c r="AN59" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO59" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP59" t="n">
         <v>21</v>
       </c>
       <c r="AQ59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR59" t="n">
         <v>51</v>
@@ -11211,19 +11211,19 @@
         <v>51</v>
       </c>
       <c r="AW59" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY59" t="n">
         <v>29</v>
       </c>
       <c r="AZ59" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA59" t="n">
         <v>81</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>101</v>
       </c>
       <c r="BB59" t="n">
         <v>201</v>
@@ -11445,28 +11445,28 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H61" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I61" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K61" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L61" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M61" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
@@ -11475,10 +11475,10 @@
         <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R61" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S61" t="n">
         <v>1.44</v>
@@ -11487,25 +11487,25 @@
         <v>2.63</v>
       </c>
       <c r="U61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V61" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W61" t="n">
         <v>15</v>
       </c>
       <c r="X61" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y61" t="n">
         <v>23</v>
       </c>
       <c r="Z61" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB61" t="n">
         <v>67</v>
@@ -11514,10 +11514,10 @@
         <v>8</v>
       </c>
       <c r="AD61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF61" t="n">
         <v>81</v>
@@ -11535,7 +11535,7 @@
         <v>9</v>
       </c>
       <c r="AK61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL61" t="n">
         <v>15</v>
@@ -11544,7 +11544,7 @@
         <v>34</v>
       </c>
       <c r="AN61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO61" t="n">
         <v>41</v>
@@ -11553,10 +11553,10 @@
         <v>41</v>
       </c>
       <c r="AQ61" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR61" t="n">
         <v>201</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>251</v>
       </c>
       <c r="AS61" t="n">
         <v>501</v>
@@ -11571,7 +11571,7 @@
         <v>81</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AX61" t="n">
         <v>7.5</v>
@@ -11580,7 +11580,7 @@
         <v>23</v>
       </c>
       <c r="AZ61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA61" t="n">
         <v>51</v>
@@ -11623,76 +11623,76 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="H62" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="I62" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="J62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K62" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N62" t="n">
+        <v>11</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R62" t="n">
         <v>1.95</v>
       </c>
-      <c r="M62" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N62" t="n">
-        <v>13</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P62" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S62" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T62" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U62" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V62" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W62" t="n">
+        <v>15</v>
+      </c>
+      <c r="X62" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y62" t="n">
         <v>19</v>
       </c>
-      <c r="X62" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>21</v>
-      </c>
       <c r="Z62" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA62" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB62" t="n">
         <v>51</v>
       </c>
       <c r="AC62" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD62" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE62" t="n">
         <v>17</v>
@@ -11701,10 +11701,10 @@
         <v>51</v>
       </c>
       <c r="AG62" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI62" t="n">
         <v>7</v>
@@ -11713,34 +11713,34 @@
         <v>8.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN62" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO62" t="n">
         <v>34</v>
       </c>
       <c r="AP62" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ62" t="n">
         <v>126</v>
       </c>
       <c r="AR62" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS62" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT62" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU62" t="n">
         <v>8.5</v>
@@ -11749,22 +11749,22 @@
         <v>51</v>
       </c>
       <c r="AW62" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB62" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC62" t="inlineStr"/>
       <c r="BD62" t="inlineStr"/>
@@ -12691,13 +12691,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H68" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I68" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J68" t="n">
         <v>7.5</v>
@@ -12709,22 +12709,22 @@
         <v>1.8</v>
       </c>
       <c r="M68" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O68" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P68" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R68" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S68" t="n">
         <v>1.29</v>
@@ -12733,10 +12733,10 @@
         <v>3.5</v>
       </c>
       <c r="U68" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V68" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W68" t="n">
         <v>19</v>
@@ -12754,7 +12754,7 @@
         <v>51</v>
       </c>
       <c r="AB68" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC68" t="n">
         <v>17</v>
@@ -12763,16 +12763,16 @@
         <v>11</v>
       </c>
       <c r="AE68" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF68" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG68" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI68" t="n">
         <v>7</v>
@@ -12781,7 +12781,7 @@
         <v>9</v>
       </c>
       <c r="AK68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL68" t="n">
         <v>11</v>
@@ -12790,7 +12790,7 @@
         <v>26</v>
       </c>
       <c r="AN68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO68" t="n">
         <v>41</v>
@@ -12805,7 +12805,7 @@
         <v>151</v>
       </c>
       <c r="AS68" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT68" t="n">
         <v>3.5</v>
@@ -12826,13 +12826,13 @@
         <v>17</v>
       </c>
       <c r="AZ68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA68" t="n">
         <v>41</v>
       </c>
       <c r="BB68" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC68" t="inlineStr"/>
       <c r="BD68" t="inlineStr"/>
@@ -13597,28 +13597,28 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H73" t="n">
         <v>3.1</v>
       </c>
       <c r="I73" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K73" t="n">
         <v>2.05</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O73" t="n">
         <v>1.36</v>
@@ -13639,22 +13639,22 @@
         <v>2.63</v>
       </c>
       <c r="U73" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V73" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W73" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X73" t="n">
         <v>11</v>
       </c>
       <c r="Y73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z73" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA73" t="n">
         <v>21</v>
@@ -13663,7 +13663,7 @@
         <v>29</v>
       </c>
       <c r="AC73" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD73" t="n">
         <v>6</v>
@@ -13678,7 +13678,7 @@
         <v>301</v>
       </c>
       <c r="AH73" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI73" t="n">
         <v>17</v>
@@ -13702,7 +13702,7 @@
         <v>13</v>
       </c>
       <c r="AP73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ73" t="n">
         <v>41</v>
@@ -13717,7 +13717,7 @@
         <v>2.63</v>
       </c>
       <c r="AU73" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV73" t="n">
         <v>51</v>
@@ -13732,7 +13732,7 @@
         <v>29</v>
       </c>
       <c r="AZ73" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA73" t="n">
         <v>81</v>
@@ -14139,22 +14139,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H76" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I76" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="J76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K76" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L76" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="M76" t="n">
         <v>1.02</v>
@@ -14163,52 +14163,52 @@
         <v>19</v>
       </c>
       <c r="O76" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P76" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R76" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S76" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T76" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U76" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V76" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W76" t="n">
+        <v>23</v>
+      </c>
+      <c r="X76" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y76" t="n">
         <v>29</v>
       </c>
-      <c r="X76" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>34</v>
-      </c>
       <c r="Z76" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AA76" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AB76" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE76" t="n">
         <v>29</v>
@@ -14220,7 +14220,7 @@
         <v>501</v>
       </c>
       <c r="AH76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI76" t="n">
         <v>6</v>
@@ -14229,16 +14229,16 @@
         <v>10</v>
       </c>
       <c r="AK76" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AL76" t="n">
         <v>11</v>
       </c>
       <c r="AM76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO76" t="n">
         <v>51</v>
@@ -14247,16 +14247,16 @@
         <v>51</v>
       </c>
       <c r="AQ76" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AR76" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AS76" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU76" t="n">
         <v>11</v>
@@ -14268,16 +14268,16 @@
         <v>3.1</v>
       </c>
       <c r="AX76" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY76" t="n">
         <v>17</v>
       </c>
       <c r="AZ76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB76" t="n">
         <v>126</v>
@@ -14339,22 +14339,22 @@
         <v>3.6</v>
       </c>
       <c r="M77" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N77" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O77" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P77" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R77" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S77" t="n">
         <v>1.57</v>
@@ -16851,10 +16851,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H91" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I91" t="n">
         <v>4.33</v>
@@ -16872,7 +16872,7 @@
         <v>1.06</v>
       </c>
       <c r="N91" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O91" t="n">
         <v>1.33</v>
@@ -16881,10 +16881,10 @@
         <v>3.25</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R91" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S91" t="n">
         <v>1.44</v>
@@ -16905,7 +16905,7 @@
         <v>8</v>
       </c>
       <c r="Y91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z91" t="n">
         <v>15</v>
@@ -16917,7 +16917,7 @@
         <v>29</v>
       </c>
       <c r="AC91" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD91" t="n">
         <v>7</v>
@@ -16929,7 +16929,7 @@
         <v>51</v>
       </c>
       <c r="AG91" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH91" t="n">
         <v>11</v>
@@ -16953,7 +16953,7 @@
         <v>3.75</v>
       </c>
       <c r="AO91" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP91" t="n">
         <v>21</v>
@@ -16974,7 +16974,7 @@
         <v>8.5</v>
       </c>
       <c r="AV91" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW91" t="n">
         <v>6</v>
@@ -16989,7 +16989,7 @@
         <v>81</v>
       </c>
       <c r="BA91" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB91" t="n">
         <v>251</v>
@@ -17111,7 +17111,7 @@
         <v>67</v>
       </c>
       <c r="AG92" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH92" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-15.xlsx
@@ -13597,22 +13597,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H73" t="n">
         <v>3.2</v>
       </c>
       <c r="I73" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K73" t="n">
         <v>2.05</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M73" t="n">
         <v>1.07</v>
@@ -13627,10 +13627,10 @@
         <v>3</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R73" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S73" t="n">
         <v>1.44</v>
@@ -13654,7 +13654,7 @@
         <v>8.5</v>
       </c>
       <c r="Z73" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA73" t="n">
         <v>21</v>
@@ -13681,10 +13681,10 @@
         <v>9.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK73" t="n">
         <v>34</v>
@@ -13702,7 +13702,7 @@
         <v>13</v>
       </c>
       <c r="AP73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ73" t="n">
         <v>41</v>
@@ -13732,13 +13732,13 @@
         <v>29</v>
       </c>
       <c r="AZ73" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA73" t="n">
         <v>81</v>
       </c>
       <c r="BB73" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC73" t="n">
         <v>126</v>
